--- a/BackTest/2019-10-29 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-29 BackTest STRAT.xlsx
@@ -2971,17 +2971,13 @@
         <v>374.8</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>372</v>
-      </c>
-      <c r="K74" t="n">
-        <v>372</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
@@ -3010,22 +3006,14 @@
         <v>374.35</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>372</v>
-      </c>
-      <c r="K75" t="n">
-        <v>372</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3053,22 +3041,14 @@
         <v>373.85</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>372</v>
-      </c>
-      <c r="K76" t="n">
-        <v>372</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3135,14 +3115,12 @@
         <v>373.35</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>372</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>372</v>
       </c>
@@ -3178,14 +3156,12 @@
         <v>373.1</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>372</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>372</v>
       </c>
@@ -3393,14 +3369,12 @@
         <v>372.35</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>375</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>372</v>
       </c>
@@ -3436,14 +3410,12 @@
         <v>372.25</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>375</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>372</v>
       </c>
@@ -3479,14 +3451,12 @@
         <v>372.65</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>380</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>372</v>
       </c>
@@ -3522,14 +3492,12 @@
         <v>372.8</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>375</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>372</v>
       </c>
@@ -3565,14 +3533,12 @@
         <v>372.95</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>375</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>372</v>
       </c>
@@ -3608,14 +3574,12 @@
         <v>373.1</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>375</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>372</v>
       </c>
@@ -3651,14 +3615,12 @@
         <v>373.25</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>375</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>372</v>
       </c>
@@ -3694,14 +3656,12 @@
         <v>373.4</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>375</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>372</v>
       </c>
@@ -3737,14 +3697,12 @@
         <v>373.55</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>375</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>372</v>
       </c>
@@ -3780,14 +3738,12 @@
         <v>373.95</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>379</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>372</v>
       </c>
@@ -3823,14 +3779,12 @@
         <v>374.05</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>374</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>372</v>
       </c>
@@ -3866,14 +3820,12 @@
         <v>374.35</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>378</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>372</v>
       </c>
@@ -3909,14 +3861,12 @@
         <v>374.7</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>379</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>372</v>
       </c>
@@ -3952,14 +3902,12 @@
         <v>375</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>378</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>372</v>
       </c>
@@ -4036,14 +3984,12 @@
         <v>375.4</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>375</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>372</v>
       </c>
@@ -4079,14 +4025,12 @@
         <v>375.5</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>374</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>372</v>
       </c>
@@ -4122,14 +4066,12 @@
         <v>375.5</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>372</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>372</v>
       </c>
@@ -4165,14 +4107,12 @@
         <v>375.45</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>371</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
         <v>372</v>
       </c>
@@ -4208,14 +4148,12 @@
         <v>375.6</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>375</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
         <v>372</v>
       </c>
@@ -4251,14 +4189,12 @@
         <v>375.5</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>373</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
         <v>372</v>
       </c>
@@ -4294,14 +4230,12 @@
         <v>375.5</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>375</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
         <v>372</v>
       </c>
@@ -4337,14 +4271,12 @@
         <v>375.25</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>375</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
         <v>372</v>
       </c>
@@ -4380,14 +4312,12 @@
         <v>375.25</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>375</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
         <v>372</v>
       </c>
@@ -4423,14 +4353,12 @@
         <v>375.5</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>380</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
         <v>372</v>
       </c>
@@ -4466,14 +4394,12 @@
         <v>375.75</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>380</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
         <v>372</v>
       </c>
@@ -4509,14 +4435,12 @@
         <v>376</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>380</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
         <v>372</v>
       </c>
@@ -4798,14 +4722,12 @@
         <v>375.3</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>374</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
         <v>372</v>
       </c>
@@ -4841,14 +4763,12 @@
         <v>375.15</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>374</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
         <v>372</v>
       </c>
@@ -4884,14 +4804,12 @@
         <v>375.15</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>375</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
         <v>372</v>
       </c>
@@ -4927,14 +4845,12 @@
         <v>375.15</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>374</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
         <v>372</v>
       </c>
@@ -4970,14 +4886,12 @@
         <v>375.35</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>376</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
         <v>372</v>
       </c>
@@ -5013,14 +4927,12 @@
         <v>375.55</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>375</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
         <v>372</v>
       </c>
@@ -5056,14 +4968,12 @@
         <v>375.55</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>375</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
         <v>372</v>
       </c>
@@ -5099,14 +5009,12 @@
         <v>375.65</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>375</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
         <v>372</v>
       </c>
@@ -5142,14 +5050,12 @@
         <v>375.6</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>374</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
         <v>372</v>
       </c>
@@ -5185,14 +5091,12 @@
         <v>375.55</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>374</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
         <v>372</v>
       </c>
@@ -5228,14 +5132,12 @@
         <v>375.55</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>375</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
         <v>372</v>
       </c>
@@ -5271,14 +5173,12 @@
         <v>375.25</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>374</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
         <v>372</v>
       </c>
@@ -5314,14 +5214,12 @@
         <v>375.05</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>376</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
         <v>372</v>
       </c>
@@ -5357,14 +5255,12 @@
         <v>374.85</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>376</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
         <v>372</v>
       </c>
@@ -5400,14 +5296,12 @@
         <v>374.8</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>376</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
         <v>372</v>
       </c>
@@ -5443,14 +5337,12 @@
         <v>374.7</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>377</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
         <v>372</v>
       </c>
@@ -5486,14 +5378,12 @@
         <v>375.05</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>379</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
         <v>372</v>
       </c>
@@ -5529,14 +5419,12 @@
         <v>375.1</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>379</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
         <v>372</v>
       </c>
@@ -5572,14 +5460,12 @@
         <v>375.6</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>379</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
         <v>372</v>
       </c>
@@ -6438,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
@@ -6446,11 +6332,11 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>1</v>
+        <v>1.032634408602151</v>
       </c>
     </row>
     <row r="157">
@@ -6482,16 +6368,10 @@
         <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>372</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>1.056827956989247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -6520,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6555,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6625,7 +6505,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
@@ -6660,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-29 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>385</v>
       </c>
       <c r="F2" t="n">
-        <v>3048.0685</v>
+        <v>1474.8622</v>
       </c>
       <c r="G2" t="n">
-        <v>380.25</v>
+        <v>383.7166666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>385</v>
       </c>
       <c r="F3" t="n">
-        <v>5042.8853</v>
+        <v>3048.0685</v>
       </c>
       <c r="G3" t="n">
-        <v>380.65</v>
+        <v>383.7666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C4" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D4" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E4" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>5042.8853</v>
       </c>
       <c r="G4" t="n">
-        <v>381.15</v>
+        <v>383.8333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C5" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D5" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E5" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>381.6</v>
+        <v>383.9333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>386</v>
       </c>
       <c r="C6" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D6" t="n">
         <v>386</v>
       </c>
       <c r="E6" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F6" t="n">
-        <v>8029.3274</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>382</v>
+        <v>383.9833333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C7" t="n">
         <v>385</v>
       </c>
       <c r="D7" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E7" t="n">
         <v>385</v>
       </c>
       <c r="F7" t="n">
-        <v>1012.6599</v>
+        <v>8029.3274</v>
       </c>
       <c r="G7" t="n">
-        <v>382.35</v>
+        <v>384.0333333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C8" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D8" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E8" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F8" t="n">
-        <v>2333.0981</v>
+        <v>1012.6599</v>
       </c>
       <c r="G8" t="n">
-        <v>382.65</v>
+        <v>383.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>384</v>
       </c>
       <c r="F9" t="n">
-        <v>139.9506</v>
+        <v>2333.0981</v>
       </c>
       <c r="G9" t="n">
-        <v>382.95</v>
+        <v>383.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>384</v>
       </c>
       <c r="F10" t="n">
-        <v>1789.5597</v>
+        <v>139.9506</v>
       </c>
       <c r="G10" t="n">
-        <v>383.25</v>
+        <v>383.9166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>384</v>
       </c>
       <c r="C11" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D11" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E11" t="n">
         <v>384</v>
       </c>
       <c r="F11" t="n">
-        <v>48.4963</v>
+        <v>1789.5597</v>
       </c>
       <c r="G11" t="n">
-        <v>383.55</v>
+        <v>383.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C12" t="n">
         <v>387</v>
@@ -792,13 +792,13 @@
         <v>387</v>
       </c>
       <c r="E12" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F12" t="n">
-        <v>832.9969</v>
+        <v>48.4963</v>
       </c>
       <c r="G12" t="n">
-        <v>384</v>
+        <v>383.8833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>387</v>
       </c>
       <c r="F13" t="n">
-        <v>150</v>
+        <v>832.9969</v>
       </c>
       <c r="G13" t="n">
-        <v>384.45</v>
+        <v>383.8666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C14" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D14" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E14" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F14" t="n">
-        <v>159.9805</v>
+        <v>150</v>
       </c>
       <c r="G14" t="n">
-        <v>384.6</v>
+        <v>383.7666666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C15" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D15" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E15" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F15" t="n">
-        <v>8875.7096</v>
+        <v>159.9805</v>
       </c>
       <c r="G15" t="n">
-        <v>384.7</v>
+        <v>383.6833333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C16" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D16" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E16" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F16" t="n">
-        <v>192.2183</v>
+        <v>8875.7096</v>
       </c>
       <c r="G16" t="n">
-        <v>384.7</v>
+        <v>383.4833333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>382</v>
       </c>
       <c r="C17" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D17" t="n">
         <v>382</v>
       </c>
       <c r="E17" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F17" t="n">
-        <v>1392.2361</v>
+        <v>192.2183</v>
       </c>
       <c r="G17" t="n">
-        <v>384.65</v>
+        <v>383.3666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>382</v>
       </c>
       <c r="C18" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D18" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E18" t="n">
         <v>382</v>
       </c>
       <c r="F18" t="n">
-        <v>1045</v>
+        <v>1392.2361</v>
       </c>
       <c r="G18" t="n">
-        <v>384.6</v>
+        <v>383.2666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C19" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D19" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E19" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F19" t="n">
-        <v>88.6109</v>
+        <v>1045</v>
       </c>
       <c r="G19" t="n">
-        <v>384.5</v>
+        <v>383.1166666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>383</v>
       </c>
       <c r="C20" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D20" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E20" t="n">
         <v>383</v>
       </c>
       <c r="F20" t="n">
-        <v>26.1096</v>
+        <v>88.6109</v>
       </c>
       <c r="G20" t="n">
-        <v>384.4</v>
+        <v>382.8833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C21" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D21" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E21" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F21" t="n">
-        <v>1445.3787</v>
+        <v>26.1096</v>
       </c>
       <c r="G21" t="n">
-        <v>384.2</v>
+        <v>382.6833333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C22" t="n">
         <v>381</v>
@@ -1142,13 +1142,13 @@
         <v>381</v>
       </c>
       <c r="E22" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F22" t="n">
-        <v>17650.5877</v>
+        <v>1445.3787</v>
       </c>
       <c r="G22" t="n">
-        <v>383.95</v>
+        <v>382.4833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>381</v>
       </c>
       <c r="E23" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F23" t="n">
-        <v>249.891</v>
+        <v>17650.5877</v>
       </c>
       <c r="G23" t="n">
-        <v>383.7</v>
+        <v>382.35</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C24" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D24" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E24" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F24" t="n">
-        <v>994.0432</v>
+        <v>249.891</v>
       </c>
       <c r="G24" t="n">
-        <v>383.2</v>
+        <v>382.35</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>377</v>
       </c>
       <c r="C25" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D25" t="n">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E25" t="n">
         <v>377</v>
       </c>
       <c r="F25" t="n">
-        <v>1886.9873</v>
+        <v>994.0432</v>
       </c>
       <c r="G25" t="n">
-        <v>382.75</v>
+        <v>382.25</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C26" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D26" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E26" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>1886.9873</v>
       </c>
       <c r="G26" t="n">
-        <v>382.55</v>
+        <v>382.25</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>382</v>
       </c>
       <c r="C27" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D27" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E27" t="n">
         <v>382</v>
       </c>
       <c r="F27" t="n">
-        <v>1241.4879</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>382.4</v>
+        <v>382.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>382</v>
+      </c>
+      <c r="C28" t="n">
         <v>383</v>
       </c>
-      <c r="C28" t="n">
-        <v>386</v>
-      </c>
       <c r="D28" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E28" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F28" t="n">
-        <v>820</v>
+        <v>1241.4879</v>
       </c>
       <c r="G28" t="n">
-        <v>382.35</v>
+        <v>382.0833333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C29" t="n">
         <v>386</v>
@@ -1387,13 +1387,13 @@
         <v>386</v>
       </c>
       <c r="E29" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F29" t="n">
-        <v>926</v>
+        <v>820</v>
       </c>
       <c r="G29" t="n">
-        <v>382.45</v>
+        <v>382.1333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>386</v>
       </c>
       <c r="F30" t="n">
-        <v>154</v>
+        <v>926</v>
       </c>
       <c r="G30" t="n">
-        <v>382.55</v>
+        <v>382.1666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>386</v>
       </c>
       <c r="F31" t="n">
-        <v>1528</v>
+        <v>154</v>
       </c>
       <c r="G31" t="n">
-        <v>382.65</v>
+        <v>382.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>386</v>
       </c>
       <c r="F32" t="n">
-        <v>200</v>
+        <v>1528</v>
       </c>
       <c r="G32" t="n">
-        <v>382.6</v>
+        <v>382.15</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>386</v>
       </c>
       <c r="F33" t="n">
-        <v>25.9067</v>
+        <v>200</v>
       </c>
       <c r="G33" t="n">
-        <v>382.55</v>
+        <v>382.2333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>386</v>
       </c>
       <c r="F34" t="n">
-        <v>1601</v>
+        <v>25.9067</v>
       </c>
       <c r="G34" t="n">
-        <v>382.65</v>
+        <v>382.2833333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>386</v>
       </c>
       <c r="F35" t="n">
-        <v>187</v>
+        <v>1601</v>
       </c>
       <c r="G35" t="n">
-        <v>382.8</v>
+        <v>382.3333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>386</v>
       </c>
       <c r="F36" t="n">
-        <v>345</v>
+        <v>187</v>
       </c>
       <c r="G36" t="n">
-        <v>383</v>
+        <v>382.35</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>386</v>
       </c>
       <c r="F37" t="n">
-        <v>630</v>
+        <v>345</v>
       </c>
       <c r="G37" t="n">
-        <v>383.2</v>
+        <v>382.4166666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>386</v>
       </c>
       <c r="F38" t="n">
-        <v>522</v>
+        <v>630</v>
       </c>
       <c r="G38" t="n">
-        <v>383.4</v>
+        <v>382.5166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C39" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D39" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E39" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F39" t="n">
-        <v>86</v>
+        <v>522</v>
       </c>
       <c r="G39" t="n">
-        <v>383.6</v>
+        <v>382.5833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>387</v>
       </c>
       <c r="F40" t="n">
-        <v>91.053</v>
+        <v>86</v>
       </c>
       <c r="G40" t="n">
-        <v>383.8</v>
+        <v>382.7666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>387</v>
       </c>
       <c r="F41" t="n">
-        <v>3264.1353</v>
+        <v>91.053</v>
       </c>
       <c r="G41" t="n">
-        <v>384.1</v>
+        <v>382.9166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>387</v>
       </c>
       <c r="F42" t="n">
-        <v>12.1</v>
+        <v>3264.1353</v>
       </c>
       <c r="G42" t="n">
-        <v>384.45</v>
+        <v>383.0666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>387</v>
       </c>
       <c r="F43" t="n">
-        <v>182.1</v>
+        <v>12.1</v>
       </c>
       <c r="G43" t="n">
-        <v>384.8</v>
+        <v>383.2333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>387</v>
       </c>
       <c r="F44" t="n">
-        <v>38.9</v>
+        <v>182.1</v>
       </c>
       <c r="G44" t="n">
-        <v>385.3</v>
+        <v>383.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>387</v>
       </c>
       <c r="F45" t="n">
-        <v>47.9</v>
+        <v>38.9</v>
       </c>
       <c r="G45" t="n">
-        <v>385.8</v>
+        <v>383.5666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>387</v>
       </c>
       <c r="C46" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D46" t="n">
         <v>387</v>
       </c>
       <c r="E46" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F46" t="n">
-        <v>3908.2327</v>
+        <v>47.9</v>
       </c>
       <c r="G46" t="n">
-        <v>386.05</v>
+        <v>383.7166666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C47" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D47" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E47" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F47" t="n">
-        <v>5483.7728</v>
+        <v>3908.2327</v>
       </c>
       <c r="G47" t="n">
-        <v>386</v>
+        <v>383.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C48" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D48" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E48" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F48" t="n">
-        <v>609.3244999999999</v>
+        <v>5483.7728</v>
       </c>
       <c r="G48" t="n">
-        <v>386</v>
+        <v>383.85</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C49" t="n">
         <v>382</v>
       </c>
       <c r="D49" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E49" t="n">
         <v>382</v>
       </c>
       <c r="F49" t="n">
-        <v>6315.6376</v>
+        <v>609.3244999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>385.8</v>
+        <v>383.9166666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>382</v>
       </c>
       <c r="F50" t="n">
-        <v>103.4097</v>
+        <v>6315.6376</v>
       </c>
       <c r="G50" t="n">
-        <v>385.6</v>
+        <v>383.9833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C51" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D51" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E51" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F51" t="n">
-        <v>4712.8552</v>
+        <v>103.4097</v>
       </c>
       <c r="G51" t="n">
-        <v>385.35</v>
+        <v>384.05</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C52" t="n">
         <v>377</v>
       </c>
       <c r="D52" t="n">
+        <v>381</v>
+      </c>
+      <c r="E52" t="n">
         <v>377</v>
       </c>
-      <c r="E52" t="n">
-        <v>375</v>
-      </c>
       <c r="F52" t="n">
-        <v>14326.6553</v>
+        <v>4712.8552</v>
       </c>
       <c r="G52" t="n">
-        <v>384.9</v>
+        <v>384.0333333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>377</v>
       </c>
       <c r="C53" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D53" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E53" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F53" t="n">
-        <v>31</v>
+        <v>14326.6553</v>
       </c>
       <c r="G53" t="n">
-        <v>384.45</v>
+        <v>384.0166666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C54" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D54" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E54" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F54" t="n">
-        <v>2283.6</v>
+        <v>31</v>
       </c>
       <c r="G54" t="n">
-        <v>384.2</v>
+        <v>383.9833333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>381</v>
       </c>
       <c r="F55" t="n">
-        <v>1344.9934</v>
+        <v>2283.6</v>
       </c>
       <c r="G55" t="n">
-        <v>383.95</v>
+        <v>383.9833333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C56" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D56" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E56" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F56" t="n">
-        <v>1611.0418</v>
+        <v>1344.9934</v>
       </c>
       <c r="G56" t="n">
-        <v>383.75</v>
+        <v>384.0166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C57" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D57" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E57" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F57" t="n">
-        <v>1208.0288</v>
+        <v>1611.0418</v>
       </c>
       <c r="G57" t="n">
-        <v>383.3</v>
+        <v>384.0166666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>377</v>
       </c>
       <c r="F58" t="n">
-        <v>279</v>
+        <v>1208.0288</v>
       </c>
       <c r="G58" t="n">
-        <v>382.85</v>
+        <v>383.9166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>377</v>
       </c>
       <c r="F59" t="n">
-        <v>1012.9712</v>
+        <v>279</v>
       </c>
       <c r="G59" t="n">
-        <v>382.35</v>
+        <v>383.8166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C60" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D60" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E60" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F60" t="n">
-        <v>4111.3228</v>
+        <v>1012.9712</v>
       </c>
       <c r="G60" t="n">
-        <v>381.7</v>
+        <v>383.6833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C61" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D61" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E61" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F61" t="n">
-        <v>385.6123</v>
+        <v>4111.3228</v>
       </c>
       <c r="G61" t="n">
-        <v>381</v>
+        <v>383.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>373</v>
       </c>
       <c r="C62" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D62" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E62" t="n">
         <v>373</v>
       </c>
       <c r="F62" t="n">
-        <v>251</v>
+        <v>385.6123</v>
       </c>
       <c r="G62" t="n">
-        <v>380.3</v>
+        <v>383.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C63" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D63" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E63" t="n">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F63" t="n">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="G63" t="n">
-        <v>380</v>
+        <v>383.1166666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C64" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D64" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E64" t="n">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F64" t="n">
-        <v>26.2467</v>
+        <v>50</v>
       </c>
       <c r="G64" t="n">
-        <v>379.5</v>
+        <v>383.05</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>377</v>
       </c>
       <c r="F65" t="n">
-        <v>790.4751</v>
+        <v>26.2467</v>
       </c>
       <c r="G65" t="n">
-        <v>379</v>
+        <v>382.8833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C66" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D66" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E66" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F66" t="n">
-        <v>17175.6139</v>
+        <v>790.4751</v>
       </c>
       <c r="G66" t="n">
-        <v>378.25</v>
+        <v>382.7333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>372</v>
       </c>
       <c r="F67" t="n">
-        <v>2541.1399</v>
+        <v>17175.6139</v>
       </c>
       <c r="G67" t="n">
-        <v>377.8</v>
+        <v>382.5166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>372</v>
       </c>
       <c r="F68" t="n">
-        <v>1100</v>
+        <v>2541.1399</v>
       </c>
       <c r="G68" t="n">
-        <v>377.25</v>
+        <v>382.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>372</v>
       </c>
       <c r="F69" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="G69" t="n">
-        <v>376.75</v>
+        <v>382.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>372</v>
       </c>
       <c r="F70" t="n">
-        <v>1383.6738</v>
+        <v>600</v>
       </c>
       <c r="G70" t="n">
-        <v>376.25</v>
+        <v>381.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>372</v>
       </c>
       <c r="F71" t="n">
-        <v>578</v>
+        <v>1383.6738</v>
       </c>
       <c r="G71" t="n">
-        <v>375.8</v>
+        <v>381.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>372</v>
       </c>
       <c r="F72" t="n">
-        <v>830</v>
+        <v>578</v>
       </c>
       <c r="G72" t="n">
-        <v>375.55</v>
+        <v>381.45</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C73" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D73" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E73" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F73" t="n">
-        <v>506.33</v>
+        <v>830</v>
       </c>
       <c r="G73" t="n">
-        <v>375.25</v>
+        <v>381.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C74" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D74" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E74" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F74" t="n">
-        <v>1768.3548</v>
+        <v>506.33</v>
       </c>
       <c r="G74" t="n">
-        <v>374.8</v>
+        <v>380.9333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>372</v>
       </c>
       <c r="F75" t="n">
-        <v>915.9815</v>
+        <v>1768.3548</v>
       </c>
       <c r="G75" t="n">
-        <v>374.35</v>
+        <v>380.7333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>372</v>
       </c>
       <c r="F76" t="n">
-        <v>141.293</v>
+        <v>915.9815</v>
       </c>
       <c r="G76" t="n">
-        <v>373.85</v>
+        <v>380.55</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3073,20 +3073,16 @@
         <v>141.293</v>
       </c>
       <c r="G77" t="n">
-        <v>373.6</v>
+        <v>380.4</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>372</v>
-      </c>
-      <c r="K77" t="n">
-        <v>372</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
@@ -3100,19 +3096,19 @@
         <v>372</v>
       </c>
       <c r="C78" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D78" t="n">
         <v>372</v>
       </c>
       <c r="E78" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F78" t="n">
-        <v>1185.9371</v>
+        <v>141.293</v>
       </c>
       <c r="G78" t="n">
-        <v>373.35</v>
+        <v>380.2333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3121,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>372</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3141,19 +3131,19 @@
         <v>372</v>
       </c>
       <c r="C79" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D79" t="n">
         <v>372</v>
       </c>
       <c r="E79" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F79" t="n">
-        <v>2946.0271</v>
+        <v>1185.9371</v>
       </c>
       <c r="G79" t="n">
-        <v>373.1</v>
+        <v>379.9833333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3162,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>372</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3191,28 +3175,20 @@
         <v>372</v>
       </c>
       <c r="F80" t="n">
-        <v>2152.5099</v>
+        <v>2946.0271</v>
       </c>
       <c r="G80" t="n">
-        <v>373</v>
+        <v>379.8</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>372</v>
-      </c>
-      <c r="K80" t="n">
-        <v>372</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3234,28 +3210,20 @@
         <v>372</v>
       </c>
       <c r="F81" t="n">
-        <v>93.56999999999999</v>
+        <v>2152.5099</v>
       </c>
       <c r="G81" t="n">
-        <v>372.95</v>
+        <v>379.5833333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>372</v>
-      </c>
-      <c r="K81" t="n">
-        <v>372</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3277,28 +3245,20 @@
         <v>372</v>
       </c>
       <c r="F82" t="n">
-        <v>303</v>
+        <v>93.56999999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>372.9</v>
+        <v>379.4333333333333</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>372</v>
-      </c>
-      <c r="K82" t="n">
-        <v>372</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3320,28 +3280,20 @@
         <v>372</v>
       </c>
       <c r="F83" t="n">
-        <v>871.4166</v>
+        <v>303</v>
       </c>
       <c r="G83" t="n">
-        <v>372.45</v>
+        <v>379.2833333333334</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>372</v>
-      </c>
-      <c r="K83" t="n">
-        <v>372</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3351,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C84" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D84" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E84" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>871.4166</v>
       </c>
       <c r="G84" t="n">
-        <v>372.35</v>
+        <v>379.1333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3375,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>372</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3404,10 +3350,10 @@
         <v>375</v>
       </c>
       <c r="F85" t="n">
-        <v>166.72</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>372.25</v>
+        <v>379.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3416,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>372</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3433,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C86" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D86" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E86" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>166.72</v>
       </c>
       <c r="G86" t="n">
-        <v>372.65</v>
+        <v>378.9666666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3457,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>372</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3474,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C87" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D87" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E87" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F87" t="n">
-        <v>305.7705</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>372.8</v>
+        <v>378.9333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3498,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>372</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3527,10 +3455,10 @@
         <v>375</v>
       </c>
       <c r="F88" t="n">
-        <v>292.6999</v>
+        <v>305.7705</v>
       </c>
       <c r="G88" t="n">
-        <v>372.95</v>
+        <v>378.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3539,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>372</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3568,10 +3490,10 @@
         <v>375</v>
       </c>
       <c r="F89" t="n">
-        <v>585.4003</v>
+        <v>292.6999</v>
       </c>
       <c r="G89" t="n">
-        <v>373.1</v>
+        <v>378.6166666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3580,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>372</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3609,10 +3525,10 @@
         <v>375</v>
       </c>
       <c r="F90" t="n">
-        <v>274.8634</v>
+        <v>585.4003</v>
       </c>
       <c r="G90" t="n">
-        <v>373.25</v>
+        <v>378.4333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3621,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>372</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3650,10 +3560,10 @@
         <v>375</v>
       </c>
       <c r="F91" t="n">
-        <v>292.6998</v>
+        <v>274.8634</v>
       </c>
       <c r="G91" t="n">
-        <v>373.4</v>
+        <v>378.25</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3662,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>372</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3691,10 +3595,10 @@
         <v>375</v>
       </c>
       <c r="F92" t="n">
-        <v>625.9405</v>
+        <v>292.6998</v>
       </c>
       <c r="G92" t="n">
-        <v>373.55</v>
+        <v>378.0666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3703,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>372</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3720,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C93" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D93" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E93" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F93" t="n">
-        <v>26.6666</v>
+        <v>625.9405</v>
       </c>
       <c r="G93" t="n">
-        <v>373.95</v>
+        <v>377.8833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3744,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>372</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3761,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C94" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D94" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E94" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F94" t="n">
-        <v>153.2</v>
+        <v>26.6666</v>
       </c>
       <c r="G94" t="n">
-        <v>374.05</v>
+        <v>377.7666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3785,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>372</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3802,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C95" t="n">
         <v>374</v>
       </c>
       <c r="D95" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E95" t="n">
         <v>374</v>
       </c>
       <c r="F95" t="n">
-        <v>1615.9266</v>
+        <v>153.2</v>
       </c>
       <c r="G95" t="n">
-        <v>374.35</v>
+        <v>377.5666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3826,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>372</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3843,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C96" t="n">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D96" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E96" t="n">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F96" t="n">
-        <v>2699</v>
+        <v>1615.9266</v>
       </c>
       <c r="G96" t="n">
-        <v>374.7</v>
+        <v>377.3666666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3867,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>372</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3884,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C97" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D97" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E97" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F97" t="n">
-        <v>4970.9301</v>
+        <v>2699</v>
       </c>
       <c r="G97" t="n">
-        <v>375</v>
+        <v>377.25</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3908,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>372</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3925,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C98" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D98" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E98" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>4970.9301</v>
       </c>
       <c r="G98" t="n">
-        <v>375.25</v>
+        <v>377.0333333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3949,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>372</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3966,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C99" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D99" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E99" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F99" t="n">
-        <v>2020</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>375.4</v>
+        <v>376.8833333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3990,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>372</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4007,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C100" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D100" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E100" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F100" t="n">
-        <v>3206.5361</v>
+        <v>2020</v>
       </c>
       <c r="G100" t="n">
-        <v>375.5</v>
+        <v>376.6833333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4031,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>372</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4048,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C101" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D101" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E101" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F101" t="n">
-        <v>1070.9266</v>
+        <v>3206.5361</v>
       </c>
       <c r="G101" t="n">
-        <v>375.5</v>
+        <v>376.4666666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4072,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>372</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4089,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C102" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D102" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E102" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F102" t="n">
-        <v>2823.361</v>
+        <v>1070.9266</v>
       </c>
       <c r="G102" t="n">
-        <v>375.45</v>
+        <v>376.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4113,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>372</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4130,7 +3968,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C103" t="n">
         <v>375</v>
@@ -4139,13 +3977,13 @@
         <v>375</v>
       </c>
       <c r="E103" t="n">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F103" t="n">
-        <v>26.6666</v>
+        <v>2823.361</v>
       </c>
       <c r="G103" t="n">
-        <v>375.6</v>
+        <v>376.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4154,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>372</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4171,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C104" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D104" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E104" t="n">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F104" t="n">
-        <v>3905.097</v>
+        <v>26.6666</v>
       </c>
       <c r="G104" t="n">
-        <v>375.5</v>
+        <v>375.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4195,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>372</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4212,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C105" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D105" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E105" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F105" t="n">
-        <v>144</v>
+        <v>3905.097</v>
       </c>
       <c r="G105" t="n">
-        <v>375.5</v>
+        <v>375.6666666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4236,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>372</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4256,19 +4076,19 @@
         <v>375</v>
       </c>
       <c r="C106" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D106" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E106" t="n">
         <v>375</v>
       </c>
       <c r="F106" t="n">
-        <v>2009</v>
+        <v>144</v>
       </c>
       <c r="G106" t="n">
-        <v>375.25</v>
+        <v>375.4666666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4277,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>372</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4297,19 +4111,19 @@
         <v>375</v>
       </c>
       <c r="C107" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D107" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E107" t="n">
         <v>375</v>
       </c>
       <c r="F107" t="n">
-        <v>185.7204</v>
+        <v>2009</v>
       </c>
       <c r="G107" t="n">
-        <v>375.25</v>
+        <v>375.4166666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4318,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>372</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4335,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C108" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D108" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E108" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F108" t="n">
-        <v>66</v>
+        <v>185.7204</v>
       </c>
       <c r="G108" t="n">
-        <v>375.5</v>
+        <v>375.3166666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4359,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>372</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4388,10 +4190,10 @@
         <v>380</v>
       </c>
       <c r="F109" t="n">
-        <v>50.1789</v>
+        <v>66</v>
       </c>
       <c r="G109" t="n">
-        <v>375.75</v>
+        <v>375.2833333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4400,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>372</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4429,10 +4225,10 @@
         <v>380</v>
       </c>
       <c r="F110" t="n">
-        <v>26.3157</v>
+        <v>50.1789</v>
       </c>
       <c r="G110" t="n">
-        <v>376</v>
+        <v>375.25</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4441,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>372</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4458,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C111" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D111" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E111" t="n">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F111" t="n">
-        <v>171</v>
+        <v>26.3157</v>
       </c>
       <c r="G111" t="n">
-        <v>376.1</v>
+        <v>375.2166666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4482,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>372</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4499,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C112" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D112" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E112" t="n">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F112" t="n">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="G112" t="n">
-        <v>376.3</v>
+        <v>375.2166666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4523,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>372</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4540,7 +4318,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C113" t="n">
         <v>379</v>
@@ -4549,13 +4327,13 @@
         <v>379</v>
       </c>
       <c r="E113" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F113" t="n">
-        <v>1859.7856</v>
+        <v>13</v>
       </c>
       <c r="G113" t="n">
-        <v>375.95</v>
+        <v>375.25</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4564,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>372</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4581,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C114" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D114" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E114" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F114" t="n">
-        <v>118.9483</v>
+        <v>1859.7856</v>
       </c>
       <c r="G114" t="n">
-        <v>376.15</v>
+        <v>375.25</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4605,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>372</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4622,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C115" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D115" t="n">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E115" t="n">
         <v>369</v>
       </c>
       <c r="F115" t="n">
-        <v>4100</v>
+        <v>118.9483</v>
       </c>
       <c r="G115" t="n">
-        <v>375.7</v>
+        <v>375.1833333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4646,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>372</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4663,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C116" t="n">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D116" t="n">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E116" t="n">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>4100</v>
       </c>
       <c r="G116" t="n">
-        <v>375.5</v>
+        <v>374.9833333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4687,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>372</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4704,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C117" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D117" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E117" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F117" t="n">
-        <v>1186</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>375.3</v>
+        <v>374.8666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4728,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>372</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4757,10 +4505,10 @@
         <v>374</v>
       </c>
       <c r="F118" t="n">
-        <v>2218.3651</v>
+        <v>1186</v>
       </c>
       <c r="G118" t="n">
-        <v>375.15</v>
+        <v>374.8166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4769,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>372</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4786,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C119" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D119" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E119" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F119" t="n">
-        <v>22</v>
+        <v>2218.3651</v>
       </c>
       <c r="G119" t="n">
-        <v>375.15</v>
+        <v>374.7666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4810,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>372</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4827,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C120" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D120" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E120" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F120" t="n">
-        <v>1047.4367</v>
+        <v>22</v>
       </c>
       <c r="G120" t="n">
-        <v>375.15</v>
+        <v>374.7333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4851,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>372</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4868,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C121" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D121" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E121" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F121" t="n">
-        <v>33</v>
+        <v>1047.4367</v>
       </c>
       <c r="G121" t="n">
-        <v>375.35</v>
+        <v>374.7333333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4892,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>372</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4909,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C122" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D122" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E122" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F122" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G122" t="n">
-        <v>375.55</v>
+        <v>374.7833333333334</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4933,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>372</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4953,19 +4671,19 @@
         <v>375</v>
       </c>
       <c r="C123" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D123" t="n">
         <v>375</v>
       </c>
       <c r="E123" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F123" t="n">
-        <v>395.6195</v>
+        <v>50</v>
       </c>
       <c r="G123" t="n">
-        <v>375.55</v>
+        <v>374.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4974,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>372</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4994,19 +4706,19 @@
         <v>375</v>
       </c>
       <c r="C124" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D124" t="n">
         <v>375</v>
       </c>
       <c r="E124" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>395.6195</v>
       </c>
       <c r="G124" t="n">
-        <v>375.65</v>
+        <v>374.6833333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5015,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>372</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5032,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C125" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D125" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E125" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F125" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>375.6</v>
+        <v>374.65</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5056,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>372</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5076,19 +4776,19 @@
         <v>374</v>
       </c>
       <c r="C126" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D126" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E126" t="n">
         <v>374</v>
       </c>
       <c r="F126" t="n">
-        <v>1394.6669</v>
+        <v>50</v>
       </c>
       <c r="G126" t="n">
-        <v>375.55</v>
+        <v>374.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5097,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>372</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5114,7 +4808,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C127" t="n">
         <v>375</v>
@@ -5123,13 +4817,13 @@
         <v>375</v>
       </c>
       <c r="E127" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F127" t="n">
-        <v>82.56</v>
+        <v>1394.6669</v>
       </c>
       <c r="G127" t="n">
-        <v>375.55</v>
+        <v>374.65</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5138,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>372</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5155,7 +4843,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C128" t="n">
         <v>375</v>
@@ -5164,13 +4852,13 @@
         <v>375</v>
       </c>
       <c r="E128" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F128" t="n">
-        <v>3561.6985</v>
+        <v>82.56</v>
       </c>
       <c r="G128" t="n">
-        <v>375.25</v>
+        <v>374.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5179,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>372</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5196,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C129" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D129" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E129" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F129" t="n">
-        <v>229.767</v>
+        <v>3561.6985</v>
       </c>
       <c r="G129" t="n">
-        <v>375.05</v>
+        <v>374.75</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5220,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>372</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5249,10 +4925,10 @@
         <v>376</v>
       </c>
       <c r="F130" t="n">
-        <v>754</v>
+        <v>229.767</v>
       </c>
       <c r="G130" t="n">
-        <v>374.85</v>
+        <v>374.8166666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5261,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>372</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5290,10 +4960,10 @@
         <v>376</v>
       </c>
       <c r="F131" t="n">
-        <v>4917.3019</v>
+        <v>754</v>
       </c>
       <c r="G131" t="n">
-        <v>374.8</v>
+        <v>374.8833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5302,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>372</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5319,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C132" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D132" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E132" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F132" t="n">
-        <v>818.9605</v>
+        <v>4917.3019</v>
       </c>
       <c r="G132" t="n">
-        <v>374.7</v>
+        <v>374.95</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5343,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>372</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5360,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C133" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D133" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E133" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>818.9605</v>
       </c>
       <c r="G133" t="n">
-        <v>375.05</v>
+        <v>375.0333333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5384,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>372</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5413,10 +5065,10 @@
         <v>379</v>
       </c>
       <c r="F134" t="n">
-        <v>719</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>375.1</v>
+        <v>375.1666666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5425,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>372</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5454,10 +5100,10 @@
         <v>379</v>
       </c>
       <c r="F135" t="n">
-        <v>80.8009</v>
+        <v>719</v>
       </c>
       <c r="G135" t="n">
-        <v>375.6</v>
+        <v>375.2833333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5466,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>372</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5483,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C136" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D136" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E136" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F136" t="n">
-        <v>363</v>
+        <v>80.8009</v>
       </c>
       <c r="G136" t="n">
-        <v>375.85</v>
+        <v>375.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5507,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>372</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5527,19 +5161,19 @@
         <v>380</v>
       </c>
       <c r="C137" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D137" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E137" t="n">
         <v>380</v>
       </c>
       <c r="F137" t="n">
-        <v>1005.9019</v>
+        <v>363</v>
       </c>
       <c r="G137" t="n">
-        <v>376.15</v>
+        <v>375.5333333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5548,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>372</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5565,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>380</v>
+      </c>
+      <c r="C138" t="n">
         <v>381</v>
       </c>
-      <c r="C138" t="n">
-        <v>383</v>
-      </c>
       <c r="D138" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E138" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F138" t="n">
-        <v>1180.3871</v>
+        <v>1005.9019</v>
       </c>
       <c r="G138" t="n">
-        <v>376.5</v>
+        <v>375.6833333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5589,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>372</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5606,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C139" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D139" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E139" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F139" t="n">
-        <v>82</v>
+        <v>1180.3871</v>
       </c>
       <c r="G139" t="n">
-        <v>376.85</v>
+        <v>375.8833333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5630,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>372</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5647,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C140" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D140" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E140" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F140" t="n">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="G140" t="n">
-        <v>377.3</v>
+        <v>376.0833333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5671,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>372</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5688,7 +5298,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C141" t="n">
         <v>383</v>
@@ -5697,13 +5307,13 @@
         <v>383</v>
       </c>
       <c r="E141" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F141" t="n">
-        <v>940</v>
+        <v>3</v>
       </c>
       <c r="G141" t="n">
-        <v>377.5</v>
+        <v>376.2666666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5712,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>372</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5729,38 +5333,32 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C142" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D142" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E142" t="n">
         <v>379</v>
       </c>
       <c r="F142" t="n">
-        <v>374.3572</v>
+        <v>940</v>
       </c>
       <c r="G142" t="n">
-        <v>377.7</v>
+        <v>376.45</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>372</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5773,35 +5371,29 @@
         <v>379</v>
       </c>
       <c r="C143" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D143" t="n">
         <v>379</v>
       </c>
       <c r="E143" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F143" t="n">
-        <v>1216.8465</v>
+        <v>374.3572</v>
       </c>
       <c r="G143" t="n">
-        <v>377.9</v>
+        <v>376.5666666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>372</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5814,19 +5406,19 @@
         <v>379</v>
       </c>
       <c r="C144" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D144" t="n">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E144" t="n">
         <v>378</v>
       </c>
       <c r="F144" t="n">
-        <v>1764.8431</v>
+        <v>1216.8465</v>
       </c>
       <c r="G144" t="n">
-        <v>378.1</v>
+        <v>376.6666666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5835,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>372</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5852,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C145" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D145" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E145" t="n">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F145" t="n">
-        <v>784.6875</v>
+        <v>1764.8431</v>
       </c>
       <c r="G145" t="n">
-        <v>378.6</v>
+        <v>376.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5876,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>372</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5905,10 +5485,10 @@
         <v>384</v>
       </c>
       <c r="F146" t="n">
-        <v>8</v>
+        <v>784.6875</v>
       </c>
       <c r="G146" t="n">
-        <v>379.1</v>
+        <v>376.95</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5917,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>372</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5934,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C147" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D147" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E147" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F147" t="n">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="G147" t="n">
-        <v>379.6</v>
+        <v>377.0166666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5958,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>372</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5975,7 +5543,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C148" t="n">
         <v>385</v>
@@ -5984,13 +5552,13 @@
         <v>385</v>
       </c>
       <c r="E148" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F148" t="n">
-        <v>116.2384</v>
+        <v>91</v>
       </c>
       <c r="G148" t="n">
-        <v>379.95</v>
+        <v>377.1833333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5999,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>372</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6016,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>381</v>
+      </c>
+      <c r="C149" t="n">
         <v>385</v>
       </c>
-      <c r="C149" t="n">
-        <v>388</v>
-      </c>
       <c r="D149" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E149" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F149" t="n">
-        <v>4185.0727</v>
+        <v>116.2384</v>
       </c>
       <c r="G149" t="n">
-        <v>380.4</v>
+        <v>377.35</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6040,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>372</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6057,7 +5613,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C150" t="n">
         <v>388</v>
@@ -6066,13 +5622,13 @@
         <v>388</v>
       </c>
       <c r="E150" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F150" t="n">
-        <v>7367.4275</v>
+        <v>4185.0727</v>
       </c>
       <c r="G150" t="n">
-        <v>380.9</v>
+        <v>377.5666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6081,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>372</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6098,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C151" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D151" t="n">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E151" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F151" t="n">
-        <v>2259.9099</v>
+        <v>7367.4275</v>
       </c>
       <c r="G151" t="n">
-        <v>381.45</v>
+        <v>377.7833333333334</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6122,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>372</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6139,10 +5683,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C152" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D152" t="n">
         <v>395</v>
@@ -6151,26 +5695,20 @@
         <v>385</v>
       </c>
       <c r="F152" t="n">
-        <v>2108.1269</v>
+        <v>2259.9099</v>
       </c>
       <c r="G152" t="n">
-        <v>382.3</v>
+        <v>377.9666666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>372</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6180,38 +5718,32 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C153" t="n">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D153" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E153" t="n">
         <v>385</v>
       </c>
       <c r="F153" t="n">
-        <v>570.8462</v>
+        <v>2108.1269</v>
       </c>
       <c r="G153" t="n">
-        <v>382.7</v>
+        <v>378.1333333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>372</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6221,38 +5753,32 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>387</v>
+      </c>
+      <c r="C154" t="n">
         <v>393</v>
       </c>
-      <c r="C154" t="n">
-        <v>396</v>
-      </c>
       <c r="D154" t="n">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E154" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F154" t="n">
-        <v>1558.6500904</v>
+        <v>570.8462</v>
       </c>
       <c r="G154" t="n">
-        <v>383.4</v>
+        <v>378.3666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>372</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6262,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C155" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D155" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E155" t="n">
         <v>386</v>
       </c>
       <c r="F155" t="n">
-        <v>152</v>
+        <v>1558.6500904</v>
       </c>
       <c r="G155" t="n">
-        <v>383.85</v>
+        <v>378.7333333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6286,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>372</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6303,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C156" t="n">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D156" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E156" t="n">
         <v>386</v>
       </c>
       <c r="F156" t="n">
-        <v>610</v>
+        <v>152</v>
       </c>
       <c r="G156" t="n">
-        <v>384.35</v>
+        <v>379.0833333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6327,16 +5847,10 @@
         <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>372</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>1.032634408602151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -6344,28 +5858,28 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C157" t="n">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D157" t="n">
         <v>396</v>
       </c>
       <c r="E157" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F157" t="n">
-        <v>3501.5232</v>
+        <v>610</v>
       </c>
       <c r="G157" t="n">
-        <v>385.1</v>
+        <v>379.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6382,19 +5896,19 @@
         <v>395</v>
       </c>
       <c r="C158" t="n">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D158" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E158" t="n">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F158" t="n">
-        <v>571</v>
+        <v>3501.5232</v>
       </c>
       <c r="G158" t="n">
-        <v>385.8</v>
+        <v>379.5666666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6414,7 +5928,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C159" t="n">
         <v>397</v>
@@ -6426,10 +5940,10 @@
         <v>390</v>
       </c>
       <c r="F159" t="n">
-        <v>5966.9255</v>
+        <v>571</v>
       </c>
       <c r="G159" t="n">
-        <v>386.2</v>
+        <v>379.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6449,28 +5963,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C160" t="n">
         <v>397</v>
       </c>
       <c r="D160" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E160" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F160" t="n">
-        <v>3602.9435096</v>
+        <v>5966.9255</v>
       </c>
       <c r="G160" t="n">
-        <v>386.8</v>
+        <v>380.2666666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6484,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
+        <v>395</v>
+      </c>
+      <c r="C161" t="n">
         <v>397</v>
-      </c>
-      <c r="C161" t="n">
-        <v>398</v>
       </c>
       <c r="D161" t="n">
         <v>398</v>
       </c>
       <c r="E161" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F161" t="n">
-        <v>3267.4155</v>
+        <v>3602.9435096</v>
       </c>
       <c r="G161" t="n">
-        <v>387.65</v>
+        <v>380.65</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6519,10 +6033,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C162" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D162" t="n">
         <v>398</v>
@@ -6531,10 +6045,10 @@
         <v>392</v>
       </c>
       <c r="F162" t="n">
-        <v>1086.6467</v>
+        <v>3267.4155</v>
       </c>
       <c r="G162" t="n">
-        <v>388.3</v>
+        <v>381</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6560,16 +6074,16 @@
         <v>397</v>
       </c>
       <c r="D163" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E163" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F163" t="n">
-        <v>6062.83</v>
+        <v>1086.6467</v>
       </c>
       <c r="G163" t="n">
-        <v>388.95</v>
+        <v>381.3666666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6589,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C164" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D164" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E164" t="n">
         <v>390</v>
       </c>
       <c r="F164" t="n">
-        <v>107.1559904</v>
+        <v>6062.83</v>
       </c>
       <c r="G164" t="n">
-        <v>389.5</v>
+        <v>381.7333333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6627,19 +6141,19 @@
         <v>390</v>
       </c>
       <c r="C165" t="n">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D165" t="n">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E165" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F165" t="n">
-        <v>614.5713</v>
+        <v>107.1559904</v>
       </c>
       <c r="G165" t="n">
-        <v>389.8</v>
+        <v>382.0166666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6659,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C166" t="n">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="D166" t="n">
         <v>396</v>
       </c>
       <c r="E166" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F166" t="n">
-        <v>14867.7867</v>
+        <v>614.5713</v>
       </c>
       <c r="G166" t="n">
-        <v>389.95</v>
+        <v>382.3333333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6694,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
+        <v>387</v>
+      </c>
+      <c r="C167" t="n">
         <v>386</v>
       </c>
-      <c r="C167" t="n">
-        <v>393</v>
-      </c>
       <c r="D167" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E167" t="n">
         <v>386</v>
       </c>
       <c r="F167" t="n">
-        <v>1509.7506</v>
+        <v>14867.7867</v>
       </c>
       <c r="G167" t="n">
-        <v>390</v>
+        <v>382.4333333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6729,7 +6243,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C168" t="n">
         <v>393</v>
@@ -6738,13 +6252,13 @@
         <v>393</v>
       </c>
       <c r="E168" t="n">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F168" t="n">
-        <v>46</v>
+        <v>1509.7506</v>
       </c>
       <c r="G168" t="n">
-        <v>390.6</v>
+        <v>382.7333333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6764,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C169" t="n">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D169" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E169" t="n">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="F169" t="n">
-        <v>10886.4674</v>
+        <v>46</v>
       </c>
       <c r="G169" t="n">
-        <v>390.65</v>
+        <v>382.95</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6799,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C170" t="n">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D170" t="n">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E170" t="n">
         <v>384</v>
       </c>
       <c r="F170" t="n">
-        <v>503.4153</v>
+        <v>10886.4674</v>
       </c>
       <c r="G170" t="n">
-        <v>390.6</v>
+        <v>383.0166666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6834,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C171" t="n">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D171" t="n">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E171" t="n">
         <v>384</v>
       </c>
       <c r="F171" t="n">
-        <v>99.9999</v>
+        <v>503.4153</v>
       </c>
       <c r="G171" t="n">
-        <v>390.45</v>
+        <v>383.2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6881,10 +6395,10 @@
         <v>384</v>
       </c>
       <c r="F172" t="n">
-        <v>3936.0167</v>
+        <v>99.9999</v>
       </c>
       <c r="G172" t="n">
-        <v>389.95</v>
+        <v>383.3166666666667</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6904,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C173" t="n">
         <v>384</v>
       </c>
       <c r="D173" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E173" t="n">
         <v>384</v>
       </c>
       <c r="F173" t="n">
-        <v>3417.8888</v>
+        <v>3936.0167</v>
       </c>
       <c r="G173" t="n">
-        <v>389.85</v>
+        <v>383.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6939,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C174" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D174" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E174" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F174" t="n">
-        <v>1975.9347</v>
+        <v>3417.8888</v>
       </c>
       <c r="G174" t="n">
-        <v>389.35</v>
+        <v>383.4833333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6974,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C175" t="n">
         <v>383</v>
       </c>
       <c r="D175" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E175" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F175" t="n">
-        <v>275.5614</v>
+        <v>1975.9347</v>
       </c>
       <c r="G175" t="n">
-        <v>389.2</v>
+        <v>383.5833333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7009,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C176" t="n">
         <v>383</v>
       </c>
       <c r="D176" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E176" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F176" t="n">
-        <v>53.1305</v>
+        <v>275.5614</v>
       </c>
       <c r="G176" t="n">
-        <v>388.85</v>
+        <v>383.8166666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7047,19 +6561,19 @@
         <v>383</v>
       </c>
       <c r="C177" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D177" t="n">
         <v>383</v>
       </c>
       <c r="E177" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F177" t="n">
-        <v>2224.09</v>
+        <v>53.1305</v>
       </c>
       <c r="G177" t="n">
-        <v>388.25</v>
+        <v>383.95</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7079,32 +6593,38 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C178" t="n">
         <v>381</v>
       </c>
       <c r="D178" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E178" t="n">
         <v>381</v>
       </c>
       <c r="F178" t="n">
-        <v>2778.4218</v>
+        <v>2224.09</v>
       </c>
       <c r="G178" t="n">
-        <v>387.55</v>
+        <v>384.0666666666667</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>383</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7114,32 +6634,38 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C179" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D179" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E179" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F179" t="n">
-        <v>150</v>
+        <v>2778.4218</v>
       </c>
       <c r="G179" t="n">
-        <v>387.2</v>
+        <v>384.1833333333333</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>381</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7149,32 +6675,38 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C180" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D180" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E180" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="G180" t="n">
-        <v>386.8</v>
+        <v>384.3666666666667</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>381</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7184,32 +6716,38 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C181" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D181" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E181" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F181" t="n">
-        <v>312.2438</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>386.15</v>
+        <v>384.5833333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>386</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7219,22 +6757,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C182" t="n">
         <v>384</v>
       </c>
       <c r="D182" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E182" t="n">
         <v>384</v>
       </c>
       <c r="F182" t="n">
-        <v>292.8699</v>
+        <v>312.2438</v>
       </c>
       <c r="G182" t="n">
-        <v>385.8</v>
+        <v>384.7166666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7244,7 +6782,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7257,19 +6799,19 @@
         <v>385</v>
       </c>
       <c r="C183" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D183" t="n">
         <v>385</v>
       </c>
       <c r="E183" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F183" t="n">
-        <v>1.8701</v>
+        <v>292.8699</v>
       </c>
       <c r="G183" t="n">
-        <v>385.45</v>
+        <v>384.8666666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7279,7 +6821,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7301,10 +6847,10 @@
         <v>385</v>
       </c>
       <c r="F184" t="n">
-        <v>2830.2863</v>
+        <v>1.8701</v>
       </c>
       <c r="G184" t="n">
-        <v>385.2</v>
+        <v>385.05</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7314,7 +6860,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7324,22 +6874,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C185" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D185" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E185" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F185" t="n">
-        <v>113</v>
+        <v>2830.2863</v>
       </c>
       <c r="G185" t="n">
-        <v>384.8</v>
+        <v>385.2166666666666</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7349,7 +6899,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7371,10 +6925,10 @@
         <v>382</v>
       </c>
       <c r="F186" t="n">
-        <v>1910.6159</v>
+        <v>113</v>
       </c>
       <c r="G186" t="n">
-        <v>384.55</v>
+        <v>385.35</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7384,7 +6938,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7406,10 +6964,10 @@
         <v>382</v>
       </c>
       <c r="F187" t="n">
-        <v>1989.4407</v>
+        <v>1910.6159</v>
       </c>
       <c r="G187" t="n">
-        <v>384.35</v>
+        <v>385.4666666666666</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7419,7 +6977,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7429,22 +6991,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C188" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D188" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E188" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F188" t="n">
-        <v>1273.6123</v>
+        <v>1989.4407</v>
       </c>
       <c r="G188" t="n">
-        <v>383.75</v>
+        <v>385.5833333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7454,7 +7016,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7464,22 +7030,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C189" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D189" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E189" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>1273.6123</v>
       </c>
       <c r="G189" t="n">
-        <v>383.6</v>
+        <v>385.6833333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7489,7 +7055,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7511,10 +7081,10 @@
         <v>383</v>
       </c>
       <c r="F190" t="n">
-        <v>31.5248</v>
+        <v>1</v>
       </c>
       <c r="G190" t="n">
-        <v>383.5</v>
+        <v>385.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7524,7 +7094,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7546,10 +7120,10 @@
         <v>383</v>
       </c>
       <c r="F191" t="n">
-        <v>56.7232</v>
+        <v>31.5248</v>
       </c>
       <c r="G191" t="n">
-        <v>383.45</v>
+        <v>385.9166666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7559,7 +7133,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7569,22 +7147,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C192" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D192" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E192" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F192" t="n">
-        <v>10441.5284</v>
+        <v>56.7232</v>
       </c>
       <c r="G192" t="n">
-        <v>383.3</v>
+        <v>386.0333333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7594,7 +7172,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7607,19 +7189,19 @@
         <v>381</v>
       </c>
       <c r="C193" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D193" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E193" t="n">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F193" t="n">
-        <v>63.0689</v>
+        <v>10441.5284</v>
       </c>
       <c r="G193" t="n">
-        <v>383.1</v>
+        <v>386.15</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7629,7 +7211,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7648,13 +7234,13 @@
         <v>381</v>
       </c>
       <c r="E194" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F194" t="n">
-        <v>2730.8019</v>
+        <v>63.0689</v>
       </c>
       <c r="G194" t="n">
-        <v>383</v>
+        <v>386.1833333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7664,7 +7250,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7677,19 +7267,19 @@
         <v>381</v>
       </c>
       <c r="C195" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D195" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E195" t="n">
         <v>380</v>
       </c>
       <c r="F195" t="n">
-        <v>5607.4142</v>
+        <v>2730.8019</v>
       </c>
       <c r="G195" t="n">
-        <v>382.8</v>
+        <v>386.2166666666666</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7699,7 +7289,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7709,22 +7303,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C196" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D196" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E196" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F196" t="n">
-        <v>1717.1945</v>
+        <v>5607.4142</v>
       </c>
       <c r="G196" t="n">
-        <v>382.75</v>
+        <v>386.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7734,7 +7328,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7744,22 +7342,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
+        <v>382</v>
+      </c>
+      <c r="C197" t="n">
         <v>381</v>
       </c>
-      <c r="C197" t="n">
-        <v>383</v>
-      </c>
       <c r="D197" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E197" t="n">
         <v>381</v>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>1717.1945</v>
       </c>
       <c r="G197" t="n">
-        <v>382.65</v>
+        <v>386.3166666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7769,7 +7367,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7779,22 +7381,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C198" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D198" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E198" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F198" t="n">
-        <v>1035.4485</v>
+        <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>382.6</v>
+        <v>386.35</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7804,7 +7406,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7826,10 +7432,10 @@
         <v>380</v>
       </c>
       <c r="F199" t="n">
-        <v>3896.8311</v>
+        <v>1035.4485</v>
       </c>
       <c r="G199" t="n">
-        <v>382.45</v>
+        <v>386.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7839,7 +7445,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7861,10 +7471,10 @@
         <v>380</v>
       </c>
       <c r="F200" t="n">
-        <v>1592.6917</v>
+        <v>3896.8311</v>
       </c>
       <c r="G200" t="n">
-        <v>382.1</v>
+        <v>386.2333333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7874,7 +7484,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7884,22 +7498,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C201" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D201" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E201" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F201" t="n">
-        <v>439.3517</v>
+        <v>1592.6917</v>
       </c>
       <c r="G201" t="n">
-        <v>381.95</v>
+        <v>386.1833333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7909,7 +7523,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7931,10 +7549,10 @@
         <v>381</v>
       </c>
       <c r="F202" t="n">
-        <v>71.9973</v>
+        <v>439.3517</v>
       </c>
       <c r="G202" t="n">
-        <v>381.75</v>
+        <v>386.15</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7944,7 +7562,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7957,19 +7579,19 @@
         <v>381</v>
       </c>
       <c r="C203" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D203" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E203" t="n">
         <v>381</v>
       </c>
       <c r="F203" t="n">
-        <v>101</v>
+        <v>71.9973</v>
       </c>
       <c r="G203" t="n">
-        <v>381.55</v>
+        <v>386.1833333333333</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7979,7 +7601,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7989,7 +7615,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C204" t="n">
         <v>382</v>
@@ -7998,13 +7624,13 @@
         <v>382</v>
       </c>
       <c r="E204" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F204" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G204" t="n">
-        <v>381.4</v>
+        <v>386.25</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8014,7 +7640,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8024,22 +7654,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C205" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D205" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E205" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G205" t="n">
-        <v>381.45</v>
+        <v>386.2333333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8049,7 +7679,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8071,10 +7705,10 @@
         <v>383</v>
       </c>
       <c r="F206" t="n">
-        <v>1179.3245</v>
+        <v>1</v>
       </c>
       <c r="G206" t="n">
-        <v>381.5</v>
+        <v>386.2166666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8084,7 +7718,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8106,10 +7744,10 @@
         <v>383</v>
       </c>
       <c r="F207" t="n">
-        <v>209</v>
+        <v>1179.3245</v>
       </c>
       <c r="G207" t="n">
-        <v>381.55</v>
+        <v>386.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8119,7 +7757,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8141,10 +7783,10 @@
         <v>383</v>
       </c>
       <c r="F208" t="n">
-        <v>254.5661</v>
+        <v>209</v>
       </c>
       <c r="G208" t="n">
-        <v>381.65</v>
+        <v>386.1666666666667</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8154,7 +7796,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8176,10 +7822,10 @@
         <v>383</v>
       </c>
       <c r="F209" t="n">
-        <v>486.2007</v>
+        <v>254.5661</v>
       </c>
       <c r="G209" t="n">
-        <v>381.65</v>
+        <v>386.1333333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8189,7 +7835,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8199,22 +7849,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C210" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D210" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E210" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F210" t="n">
-        <v>1</v>
+        <v>486.2007</v>
       </c>
       <c r="G210" t="n">
-        <v>381.7</v>
+        <v>386.05</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8224,7 +7874,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8234,7 +7888,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C211" t="n">
         <v>384</v>
@@ -8243,13 +7897,13 @@
         <v>384</v>
       </c>
       <c r="E211" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F211" t="n">
-        <v>155.5937</v>
+        <v>1</v>
       </c>
       <c r="G211" t="n">
-        <v>381.7</v>
+        <v>385.9833333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8259,7 +7913,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8269,22 +7927,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C212" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D212" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E212" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F212" t="n">
-        <v>1023.9768</v>
+        <v>155.5937</v>
       </c>
       <c r="G212" t="n">
-        <v>381.65</v>
+        <v>385.95</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8294,7 +7952,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8304,22 +7966,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C213" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D213" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E213" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F213" t="n">
-        <v>1</v>
+        <v>1023.9768</v>
       </c>
       <c r="G213" t="n">
-        <v>381.75</v>
+        <v>385.8666666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8329,7 +7991,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8342,19 +8008,19 @@
         <v>383</v>
       </c>
       <c r="C214" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D214" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E214" t="n">
         <v>383</v>
       </c>
       <c r="F214" t="n">
-        <v>583.9392</v>
+        <v>1</v>
       </c>
       <c r="G214" t="n">
-        <v>381.85</v>
+        <v>385.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8364,7 +8030,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8374,22 +8044,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C215" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D215" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E215" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F215" t="n">
-        <v>530.5144</v>
+        <v>583.9392</v>
       </c>
       <c r="G215" t="n">
-        <v>381.85</v>
+        <v>385.5166666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8399,7 +8069,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8409,22 +8083,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C216" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D216" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E216" t="n">
         <v>380</v>
       </c>
       <c r="F216" t="n">
-        <v>419.1718</v>
+        <v>530.5144</v>
       </c>
       <c r="G216" t="n">
-        <v>381.75</v>
+        <v>385.3333333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8434,7 +8108,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8456,10 +8134,10 @@
         <v>380</v>
       </c>
       <c r="F217" t="n">
-        <v>144.0144</v>
+        <v>419.1718</v>
       </c>
       <c r="G217" t="n">
-        <v>381.7</v>
+        <v>385.2333333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8469,7 +8147,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8482,19 +8164,19 @@
         <v>380</v>
       </c>
       <c r="C218" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D218" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E218" t="n">
         <v>380</v>
       </c>
       <c r="F218" t="n">
-        <v>116.3963</v>
+        <v>144.0144</v>
       </c>
       <c r="G218" t="n">
-        <v>381.7</v>
+        <v>384.9833333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8504,7 +8186,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8514,22 +8200,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C219" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D219" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E219" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F219" t="n">
-        <v>863.9092000000001</v>
+        <v>116.3963</v>
       </c>
       <c r="G219" t="n">
-        <v>381.65</v>
+        <v>384.7333333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8539,7 +8225,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8549,22 +8239,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C220" t="n">
         <v>381</v>
       </c>
       <c r="D220" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E220" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F220" t="n">
-        <v>427</v>
+        <v>863.9092000000001</v>
       </c>
       <c r="G220" t="n">
-        <v>381.7</v>
+        <v>384.4666666666666</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8574,7 +8264,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8584,22 +8278,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C221" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D221" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E221" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F221" t="n">
-        <v>3371.1848</v>
+        <v>427</v>
       </c>
       <c r="G221" t="n">
-        <v>381.6</v>
+        <v>384.2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8609,7 +8303,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8619,22 +8317,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C222" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D222" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E222" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F222" t="n">
-        <v>1.8701</v>
+        <v>3371.1848</v>
       </c>
       <c r="G222" t="n">
-        <v>381.45</v>
+        <v>383.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8644,7 +8342,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8666,10 +8368,10 @@
         <v>378</v>
       </c>
       <c r="F223" t="n">
-        <v>767.9826</v>
+        <v>1.8701</v>
       </c>
       <c r="G223" t="n">
-        <v>381.3</v>
+        <v>383.5833333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8679,7 +8381,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8689,22 +8395,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C224" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D224" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E224" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F224" t="n">
-        <v>300</v>
+        <v>767.9826</v>
       </c>
       <c r="G224" t="n">
-        <v>381.15</v>
+        <v>383.2666666666667</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8714,7 +8420,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8730,16 +8440,16 @@
         <v>379</v>
       </c>
       <c r="D225" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E225" t="n">
         <v>379</v>
       </c>
       <c r="F225" t="n">
-        <v>179.5479</v>
+        <v>300</v>
       </c>
       <c r="G225" t="n">
-        <v>380.95</v>
+        <v>383.0833333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8749,7 +8459,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8759,22 +8473,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
+        <v>379</v>
+      </c>
+      <c r="C226" t="n">
+        <v>379</v>
+      </c>
+      <c r="D226" t="n">
         <v>380</v>
       </c>
-      <c r="C226" t="n">
-        <v>380</v>
-      </c>
-      <c r="D226" t="n">
-        <v>391</v>
-      </c>
       <c r="E226" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F226" t="n">
-        <v>16026.6485</v>
+        <v>179.5479</v>
       </c>
       <c r="G226" t="n">
-        <v>380.8</v>
+        <v>382.8333333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8784,7 +8498,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8794,22 +8512,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C227" t="n">
         <v>380</v>
       </c>
       <c r="D227" t="n">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E227" t="n">
         <v>380</v>
       </c>
       <c r="F227" t="n">
-        <v>126</v>
+        <v>16026.6485</v>
       </c>
       <c r="G227" t="n">
-        <v>380.7</v>
+        <v>382.7333333333333</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8819,7 +8537,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8841,10 +8563,10 @@
         <v>380</v>
       </c>
       <c r="F228" t="n">
-        <v>183.542</v>
+        <v>126</v>
       </c>
       <c r="G228" t="n">
-        <v>380.6</v>
+        <v>382.5166666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8854,7 +8576,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8864,22 +8590,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C229" t="n">
         <v>380</v>
       </c>
       <c r="D229" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E229" t="n">
         <v>380</v>
       </c>
       <c r="F229" t="n">
-        <v>6915.2101</v>
+        <v>183.542</v>
       </c>
       <c r="G229" t="n">
-        <v>380.45</v>
+        <v>382.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8889,7 +8615,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8899,22 +8629,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C230" t="n">
         <v>380</v>
       </c>
       <c r="D230" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E230" t="n">
         <v>380</v>
       </c>
       <c r="F230" t="n">
-        <v>494.8391</v>
+        <v>6915.2101</v>
       </c>
       <c r="G230" t="n">
-        <v>380.3</v>
+        <v>382.2333333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8924,7 +8654,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8934,22 +8668,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C231" t="n">
         <v>380</v>
       </c>
       <c r="D231" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E231" t="n">
         <v>380</v>
       </c>
       <c r="F231" t="n">
-        <v>317.385</v>
+        <v>494.8391</v>
       </c>
       <c r="G231" t="n">
-        <v>380.15</v>
+        <v>382.05</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8959,7 +8693,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8981,10 +8719,10 @@
         <v>380</v>
       </c>
       <c r="F232" t="n">
-        <v>67.72499999999999</v>
+        <v>317.385</v>
       </c>
       <c r="G232" t="n">
-        <v>380.15</v>
+        <v>381.9833333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8994,7 +8732,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9016,10 +8758,10 @@
         <v>380</v>
       </c>
       <c r="F233" t="n">
-        <v>67.7236</v>
+        <v>67.72499999999999</v>
       </c>
       <c r="G233" t="n">
-        <v>380</v>
+        <v>381.9166666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9029,7 +8771,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9042,19 +8788,19 @@
         <v>380</v>
       </c>
       <c r="C234" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D234" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E234" t="n">
         <v>380</v>
       </c>
       <c r="F234" t="n">
-        <v>6856.1435</v>
+        <v>67.7236</v>
       </c>
       <c r="G234" t="n">
-        <v>379.85</v>
+        <v>381.85</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9064,8 +8810,51 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>380</v>
+      </c>
+      <c r="C235" t="n">
+        <v>389</v>
+      </c>
+      <c r="D235" t="n">
+        <v>389</v>
+      </c>
+      <c r="E235" t="n">
+        <v>380</v>
+      </c>
+      <c r="F235" t="n">
+        <v>6856.1435</v>
+      </c>
+      <c r="G235" t="n">
+        <v>381.95</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-29 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:N245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1474.8622</v>
       </c>
       <c r="G2" t="n">
+        <v>380.8</v>
+      </c>
+      <c r="H2" t="n">
         <v>383.7166666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>3048.0685</v>
       </c>
       <c r="G3" t="n">
+        <v>381.2666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>383.7666666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>5042.8853</v>
       </c>
       <c r="G4" t="n">
+        <v>381.7333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>383.8333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>382.3333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>383.9333333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
+        <v>382.8666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>383.9833333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>8029.3274</v>
       </c>
       <c r="G7" t="n">
+        <v>383.3333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>384.0333333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1012.6599</v>
       </c>
       <c r="G8" t="n">
+        <v>383.8</v>
+      </c>
+      <c r="H8" t="n">
         <v>383.9</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>2333.0981</v>
       </c>
       <c r="G9" t="n">
+        <v>384</v>
+      </c>
+      <c r="H9" t="n">
         <v>383.9</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>139.9506</v>
       </c>
       <c r="G10" t="n">
+        <v>384.2</v>
+      </c>
+      <c r="H10" t="n">
         <v>383.9166666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1789.5597</v>
       </c>
       <c r="G11" t="n">
+        <v>384.5333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>383.9</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>48.4963</v>
       </c>
       <c r="G12" t="n">
+        <v>384.8666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>383.8833333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>832.9969</v>
       </c>
       <c r="G13" t="n">
+        <v>385.1333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>383.8666666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>150</v>
       </c>
       <c r="G14" t="n">
+        <v>385.4</v>
+      </c>
+      <c r="H14" t="n">
         <v>383.7666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>159.9805</v>
       </c>
       <c r="G15" t="n">
+        <v>385.3333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>383.6833333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>8875.7096</v>
       </c>
       <c r="G16" t="n">
+        <v>385.2</v>
+      </c>
+      <c r="H16" t="n">
         <v>383.4833333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>192.2183</v>
       </c>
       <c r="G17" t="n">
+        <v>384.9333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>383.3666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1392.2361</v>
       </c>
       <c r="G18" t="n">
+        <v>384.7333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>383.2666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1045</v>
       </c>
       <c r="G19" t="n">
+        <v>384.8</v>
+      </c>
+      <c r="H19" t="n">
         <v>383.1166666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>88.6109</v>
       </c>
       <c r="G20" t="n">
+        <v>384.5333333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>382.8833333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>26.1096</v>
       </c>
       <c r="G21" t="n">
+        <v>384.4666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>382.6833333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>1445.3787</v>
       </c>
       <c r="G22" t="n">
+        <v>384.2</v>
+      </c>
+      <c r="H22" t="n">
         <v>382.4833333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>17650.5877</v>
       </c>
       <c r="G23" t="n">
+        <v>383.9333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>382.35</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>249.891</v>
       </c>
       <c r="G24" t="n">
+        <v>383.7333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>382.35</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>994.0432</v>
       </c>
       <c r="G25" t="n">
+        <v>383.2666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>382.25</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1886.9873</v>
       </c>
       <c r="G26" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="H26" t="n">
         <v>382.25</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>50</v>
       </c>
       <c r="G27" t="n">
+        <v>382.8666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>382.2</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>1241.4879</v>
       </c>
       <c r="G28" t="n">
+        <v>382.6</v>
+      </c>
+      <c r="H28" t="n">
         <v>382.0833333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>820</v>
       </c>
       <c r="G29" t="n">
+        <v>382.5333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>382.1333333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>926</v>
       </c>
       <c r="G30" t="n">
+        <v>382.6666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>382.1666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>154</v>
       </c>
       <c r="G31" t="n">
+        <v>382.8666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>382.1</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1528</v>
       </c>
       <c r="G32" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="H32" t="n">
         <v>382.15</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>200</v>
       </c>
       <c r="G33" t="n">
+        <v>383.4666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>382.2333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>25.9067</v>
       </c>
       <c r="G34" t="n">
+        <v>383.4666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>382.2833333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1601</v>
       </c>
       <c r="G35" t="n">
+        <v>383.6666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>382.3333333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>187</v>
       </c>
       <c r="G36" t="n">
+        <v>383.7333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>382.35</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>345</v>
       </c>
       <c r="G37" t="n">
+        <v>384.0666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>382.4166666666667</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>630</v>
       </c>
       <c r="G38" t="n">
+        <v>384.4</v>
+      </c>
+      <c r="H38" t="n">
         <v>382.5166666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>522</v>
       </c>
       <c r="G39" t="n">
+        <v>384.7333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>382.5833333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>86</v>
       </c>
       <c r="G40" t="n">
+        <v>385.4</v>
+      </c>
+      <c r="H40" t="n">
         <v>382.7666666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>91.053</v>
       </c>
       <c r="G41" t="n">
+        <v>385.6666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>382.9166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>3264.1353</v>
       </c>
       <c r="G42" t="n">
+        <v>386</v>
+      </c>
+      <c r="H42" t="n">
         <v>383.0666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>12.1</v>
       </c>
       <c r="G43" t="n">
+        <v>386.2666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>383.2333333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>182.1</v>
       </c>
       <c r="G44" t="n">
+        <v>386.3333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>383.4</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>38.9</v>
       </c>
       <c r="G45" t="n">
+        <v>386.4</v>
+      </c>
+      <c r="H45" t="n">
         <v>383.5666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>47.9</v>
       </c>
       <c r="G46" t="n">
+        <v>386.4666666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>383.7166666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>3908.2327</v>
       </c>
       <c r="G47" t="n">
+        <v>386.2666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>383.8</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>5483.7728</v>
       </c>
       <c r="G48" t="n">
+        <v>385.9333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>383.85</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>609.3244999999999</v>
       </c>
       <c r="G49" t="n">
+        <v>385.6666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>383.9166666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>6315.6376</v>
       </c>
       <c r="G50" t="n">
+        <v>385.4</v>
+      </c>
+      <c r="H50" t="n">
         <v>383.9833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>103.4097</v>
       </c>
       <c r="G51" t="n">
+        <v>385.1333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>384.05</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>4712.8552</v>
       </c>
       <c r="G52" t="n">
+        <v>384.5333333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>384.0333333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>14326.6553</v>
       </c>
       <c r="G53" t="n">
+        <v>383.9333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>384.0166666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>31</v>
       </c>
       <c r="G54" t="n">
+        <v>383.4666666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>383.9833333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>2283.6</v>
       </c>
       <c r="G55" t="n">
+        <v>383.0666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>383.9833333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>1344.9934</v>
       </c>
       <c r="G56" t="n">
+        <v>382.6666666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>384.0166666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>1611.0418</v>
       </c>
       <c r="G57" t="n">
+        <v>382.3333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>384.0166666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>1208.0288</v>
       </c>
       <c r="G58" t="n">
+        <v>381.6666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>383.9166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>279</v>
       </c>
       <c r="G59" t="n">
+        <v>381</v>
+      </c>
+      <c r="H59" t="n">
         <v>383.8166666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>1012.9712</v>
       </c>
       <c r="G60" t="n">
+        <v>380.3333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>383.6833333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,25 @@
         <v>4111.3228</v>
       </c>
       <c r="G61" t="n">
+        <v>379.4666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>383.5</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>377</v>
+      </c>
+      <c r="L61" t="n">
+        <v>377</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2737,29 @@
         <v>385.6123</v>
       </c>
       <c r="G62" t="n">
+        <v>378.8</v>
+      </c>
+      <c r="H62" t="n">
         <v>383.3</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>374</v>
+      </c>
+      <c r="L62" t="n">
+        <v>377</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2783,29 @@
         <v>251</v>
       </c>
       <c r="G63" t="n">
+        <v>378.3333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>383.1166666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>373</v>
+      </c>
+      <c r="L63" t="n">
+        <v>377</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2829,29 @@
         <v>50</v>
       </c>
       <c r="G64" t="n">
+        <v>378.2666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>383.05</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>374</v>
+      </c>
+      <c r="L64" t="n">
+        <v>377</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2875,27 @@
         <v>26.2467</v>
       </c>
       <c r="G65" t="n">
+        <v>377.9333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>382.8833333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>377</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2919,27 @@
         <v>790.4751</v>
       </c>
       <c r="G66" t="n">
+        <v>377.6</v>
+      </c>
+      <c r="H66" t="n">
         <v>382.7333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>377</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2963,27 @@
         <v>17175.6139</v>
       </c>
       <c r="G67" t="n">
+        <v>377.2666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>382.5166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>377</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3007,27 @@
         <v>2541.1399</v>
       </c>
       <c r="G68" t="n">
+        <v>376.9333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>382.3</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>377</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3051,27 @@
         <v>1100</v>
       </c>
       <c r="G69" t="n">
+        <v>376.4666666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>382.1</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>377</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3095,29 @@
         <v>600</v>
       </c>
       <c r="G70" t="n">
+        <v>375.8666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>381.9</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>372</v>
+      </c>
+      <c r="L70" t="n">
+        <v>377</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3141,29 @@
         <v>1383.6738</v>
       </c>
       <c r="G71" t="n">
+        <v>375.2666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>381.7</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>372</v>
+      </c>
+      <c r="L71" t="n">
+        <v>377</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3187,29 @@
         <v>578</v>
       </c>
       <c r="G72" t="n">
+        <v>374.6</v>
+      </c>
+      <c r="H72" t="n">
         <v>381.45</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>372</v>
+      </c>
+      <c r="L72" t="n">
+        <v>377</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3233,29 @@
         <v>830</v>
       </c>
       <c r="G73" t="n">
+        <v>374.2666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>381.2</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>372</v>
+      </c>
+      <c r="L73" t="n">
+        <v>377</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3279,29 @@
         <v>506.33</v>
       </c>
       <c r="G74" t="n">
+        <v>373.8666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>380.9333333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>372</v>
+      </c>
+      <c r="L74" t="n">
+        <v>377</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3325,29 @@
         <v>1768.3548</v>
       </c>
       <c r="G75" t="n">
+        <v>373.5333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>380.7333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>371</v>
+      </c>
+      <c r="L75" t="n">
+        <v>377</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3371,29 @@
         <v>915.9815</v>
       </c>
       <c r="G76" t="n">
+        <v>373.4</v>
+      </c>
+      <c r="H76" t="n">
         <v>380.55</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>372</v>
+      </c>
+      <c r="L76" t="n">
+        <v>377</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3417,29 @@
         <v>141.293</v>
       </c>
       <c r="G77" t="n">
+        <v>373.3333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>380.4</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>372</v>
+      </c>
+      <c r="L77" t="n">
+        <v>377</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3463,29 @@
         <v>141.293</v>
       </c>
       <c r="G78" t="n">
+        <v>373.2</v>
+      </c>
+      <c r="H78" t="n">
         <v>380.2333333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>372</v>
+      </c>
+      <c r="L78" t="n">
+        <v>377</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3509,29 @@
         <v>1185.9371</v>
       </c>
       <c r="G79" t="n">
+        <v>372.5333333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>379.9833333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>372</v>
+      </c>
+      <c r="L79" t="n">
+        <v>377</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3555,29 @@
         <v>2946.0271</v>
       </c>
       <c r="G80" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="H80" t="n">
         <v>379.8</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>371</v>
+      </c>
+      <c r="L80" t="n">
+        <v>377</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3601,29 @@
         <v>2152.5099</v>
       </c>
       <c r="G81" t="n">
+        <v>371.8666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>379.5833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>372</v>
+      </c>
+      <c r="L81" t="n">
+        <v>377</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3647,29 @@
         <v>93.56999999999999</v>
       </c>
       <c r="G82" t="n">
+        <v>371.8666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>379.4333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>372</v>
+      </c>
+      <c r="L82" t="n">
+        <v>377</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3693,27 @@
         <v>303</v>
       </c>
       <c r="G83" t="n">
+        <v>371.8666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>379.2833333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>377</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3737,27 @@
         <v>871.4166</v>
       </c>
       <c r="G84" t="n">
+        <v>371.8666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>379.1333333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>377</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3781,27 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
+        <v>372.0666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>379.1</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>377</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3825,27 @@
         <v>166.72</v>
       </c>
       <c r="G86" t="n">
+        <v>372.2666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>378.9666666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>377</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3869,27 @@
         <v>1</v>
       </c>
       <c r="G87" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="H87" t="n">
         <v>378.9333333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>377</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3913,27 @@
         <v>305.7705</v>
       </c>
       <c r="G88" t="n">
+        <v>373</v>
+      </c>
+      <c r="H88" t="n">
         <v>378.8</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>377</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3957,27 @@
         <v>292.6999</v>
       </c>
       <c r="G89" t="n">
+        <v>373.2666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>378.6166666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>377</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4001,27 @@
         <v>585.4003</v>
       </c>
       <c r="G90" t="n">
+        <v>373.4666666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>378.4333333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>377</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4045,27 @@
         <v>274.8634</v>
       </c>
       <c r="G91" t="n">
+        <v>373.6666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>378.25</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>377</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4089,27 @@
         <v>292.6998</v>
       </c>
       <c r="G92" t="n">
+        <v>373.8666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>378.0666666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>377</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4133,27 @@
         <v>625.9405</v>
       </c>
       <c r="G93" t="n">
+        <v>374.0666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>377.8833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>377</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4177,27 @@
         <v>26.6666</v>
       </c>
       <c r="G94" t="n">
+        <v>374.6</v>
+      </c>
+      <c r="H94" t="n">
         <v>377.7666666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>377</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4221,27 @@
         <v>153.2</v>
       </c>
       <c r="G95" t="n">
+        <v>374.7333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>377.5666666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>377</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4265,27 @@
         <v>1615.9266</v>
       </c>
       <c r="G96" t="n">
+        <v>374.8666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>377.3666666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>377</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4309,27 @@
         <v>2699</v>
       </c>
       <c r="G97" t="n">
+        <v>375.3333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>377.25</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>377</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4353,27 @@
         <v>4970.9301</v>
       </c>
       <c r="G98" t="n">
+        <v>375.4</v>
+      </c>
+      <c r="H98" t="n">
         <v>377.0333333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>377</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4397,27 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
+        <v>375.7333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>376.8833333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>377</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4441,27 @@
         <v>2020</v>
       </c>
       <c r="G100" t="n">
+        <v>375.7333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>376.6833333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>377</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4485,27 @@
         <v>3206.5361</v>
       </c>
       <c r="G101" t="n">
+        <v>375.6666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>376.4666666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>377</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4529,27 @@
         <v>1070.9266</v>
       </c>
       <c r="G102" t="n">
+        <v>375.4666666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>376.3</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>377</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4573,27 @@
         <v>2823.361</v>
       </c>
       <c r="G103" t="n">
+        <v>375.4666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>376.1</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>377</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4617,27 @@
         <v>26.6666</v>
       </c>
       <c r="G104" t="n">
+        <v>375.4666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>375.9</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>377</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4661,27 @@
         <v>3905.097</v>
       </c>
       <c r="G105" t="n">
+        <v>375.3333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>375.6666666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>377</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4705,27 @@
         <v>144</v>
       </c>
       <c r="G106" t="n">
+        <v>375.3333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>375.4666666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>377</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4749,27 @@
         <v>2009</v>
       </c>
       <c r="G107" t="n">
+        <v>375.6666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>375.4166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>377</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4793,27 @@
         <v>185.7204</v>
       </c>
       <c r="G108" t="n">
+        <v>375.6666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>375.3166666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>377</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4837,27 @@
         <v>66</v>
       </c>
       <c r="G109" t="n">
+        <v>375.7333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>375.2833333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>377</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4881,27 @@
         <v>50.1789</v>
       </c>
       <c r="G110" t="n">
+        <v>376.1333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>375.25</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>377</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4925,27 @@
         <v>26.3157</v>
       </c>
       <c r="G111" t="n">
+        <v>376.5333333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>375.2166666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>377</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4969,27 @@
         <v>171</v>
       </c>
       <c r="G112" t="n">
+        <v>376.4</v>
+      </c>
+      <c r="H112" t="n">
         <v>375.2166666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>377</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +5013,27 @@
         <v>13</v>
       </c>
       <c r="G113" t="n">
+        <v>376.8</v>
+      </c>
+      <c r="H113" t="n">
         <v>375.25</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>377</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +5057,27 @@
         <v>1859.7856</v>
       </c>
       <c r="G114" t="n">
+        <v>376.9333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>375.25</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>377</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +5101,27 @@
         <v>118.9483</v>
       </c>
       <c r="G115" t="n">
+        <v>377.0666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>375.1833333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>377</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5145,27 @@
         <v>4100</v>
       </c>
       <c r="G116" t="n">
+        <v>376.7333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>374.9833333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>377</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5189,27 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
+        <v>376.6</v>
+      </c>
+      <c r="H117" t="n">
         <v>374.8666666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>377</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5233,27 @@
         <v>1186</v>
       </c>
       <c r="G118" t="n">
+        <v>376.5333333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>374.8166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>377</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5277,27 @@
         <v>2218.3651</v>
       </c>
       <c r="G119" t="n">
+        <v>376.4666666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>374.7666666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>377</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5321,27 @@
         <v>22</v>
       </c>
       <c r="G120" t="n">
+        <v>376.6</v>
+      </c>
+      <c r="H120" t="n">
         <v>374.7333333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>377</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5365,27 @@
         <v>1047.4367</v>
       </c>
       <c r="G121" t="n">
+        <v>376.5333333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>374.7333333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>377</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5409,27 @@
         <v>33</v>
       </c>
       <c r="G122" t="n">
+        <v>376.2666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>374.7833333333334</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>377</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5453,27 @@
         <v>50</v>
       </c>
       <c r="G123" t="n">
+        <v>376.2666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>374.8</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>377</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5497,27 @@
         <v>395.6195</v>
       </c>
       <c r="G124" t="n">
+        <v>375.8666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>374.6833333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>377</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5541,27 @@
         <v>1</v>
       </c>
       <c r="G125" t="n">
+        <v>375.5333333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>374.65</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>377</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5585,27 @@
         <v>50</v>
       </c>
       <c r="G126" t="n">
+        <v>375.1333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>374.6</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>377</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5629,27 @@
         <v>1394.6669</v>
       </c>
       <c r="G127" t="n">
+        <v>375</v>
+      </c>
+      <c r="H127" t="n">
         <v>374.65</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>377</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5673,27 @@
         <v>82.56</v>
       </c>
       <c r="G128" t="n">
+        <v>374.7333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>374.7</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>377</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5717,27 @@
         <v>3561.6985</v>
       </c>
       <c r="G129" t="n">
+        <v>374.4666666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>374.75</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>377</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5761,29 @@
         <v>229.767</v>
       </c>
       <c r="G130" t="n">
+        <v>374.4</v>
+      </c>
+      <c r="H130" t="n">
         <v>374.8166666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>375</v>
+      </c>
+      <c r="L130" t="n">
+        <v>377</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5807,29 @@
         <v>754</v>
       </c>
       <c r="G131" t="n">
+        <v>374.8666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>374.8833333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>376</v>
+      </c>
+      <c r="L131" t="n">
+        <v>377</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5853,27 @@
         <v>4917.3019</v>
       </c>
       <c r="G132" t="n">
+        <v>374.9333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>374.95</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>377</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5897,27 @@
         <v>818.9605</v>
       </c>
       <c r="G133" t="n">
+        <v>375.1333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>375.0333333333334</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>377</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5941,27 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
+        <v>375.4666666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>375.1666666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>377</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5985,27 @@
         <v>719</v>
       </c>
       <c r="G135" t="n">
+        <v>375.7333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>375.2833333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>377</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +6029,27 @@
         <v>80.8009</v>
       </c>
       <c r="G136" t="n">
+        <v>376.0666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>375.4</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>377</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +6073,27 @@
         <v>363</v>
       </c>
       <c r="G137" t="n">
+        <v>376.3333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>375.5333333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>377</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +6117,27 @@
         <v>1005.9019</v>
       </c>
       <c r="G138" t="n">
+        <v>376.7333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>375.6833333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>377</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +6161,27 @@
         <v>1180.3871</v>
       </c>
       <c r="G139" t="n">
+        <v>377.3333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>375.8833333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>377</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +6205,27 @@
         <v>82</v>
       </c>
       <c r="G140" t="n">
+        <v>377.9333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>376.0833333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>377</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +6249,27 @@
         <v>3</v>
       </c>
       <c r="G141" t="n">
+        <v>378.5333333333334</v>
+      </c>
+      <c r="H141" t="n">
         <v>376.2666666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>377</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6293,27 @@
         <v>940</v>
       </c>
       <c r="G142" t="n">
+        <v>379.0666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>376.45</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>377</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6337,27 @@
         <v>374.3572</v>
       </c>
       <c r="G143" t="n">
+        <v>379.3333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>376.5666666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>377</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6381,27 @@
         <v>1216.8465</v>
       </c>
       <c r="G144" t="n">
+        <v>379.5333333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>376.6666666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>377</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6425,27 @@
         <v>1764.8431</v>
       </c>
       <c r="G145" t="n">
+        <v>380</v>
+      </c>
+      <c r="H145" t="n">
         <v>376.8</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>377</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6469,27 @@
         <v>784.6875</v>
       </c>
       <c r="G146" t="n">
+        <v>380.5333333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>376.95</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>377</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6513,27 @@
         <v>8</v>
       </c>
       <c r="G147" t="n">
+        <v>381.0666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>377.0166666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>377</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6557,27 @@
         <v>91</v>
       </c>
       <c r="G148" t="n">
+        <v>381.6</v>
+      </c>
+      <c r="H148" t="n">
         <v>377.1833333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>377</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6601,27 @@
         <v>116.2384</v>
       </c>
       <c r="G149" t="n">
+        <v>382</v>
+      </c>
+      <c r="H149" t="n">
         <v>377.35</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>377</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6645,27 @@
         <v>4185.0727</v>
       </c>
       <c r="G150" t="n">
+        <v>382.6</v>
+      </c>
+      <c r="H150" t="n">
         <v>377.5666666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>377</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6689,27 @@
         <v>7367.4275</v>
       </c>
       <c r="G151" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="H151" t="n">
         <v>377.7833333333334</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>377</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6733,27 @@
         <v>2259.9099</v>
       </c>
       <c r="G152" t="n">
+        <v>383.6</v>
+      </c>
+      <c r="H152" t="n">
         <v>377.9666666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>377</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6777,27 @@
         <v>2108.1269</v>
       </c>
       <c r="G153" t="n">
+        <v>383.8666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>378.1333333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>377</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6821,27 @@
         <v>570.8462</v>
       </c>
       <c r="G154" t="n">
+        <v>384.5333333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>378.3666666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>1</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>377</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6865,27 @@
         <v>1558.6500904</v>
       </c>
       <c r="G155" t="n">
+        <v>385.3333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>378.7333333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>377</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6909,27 @@
         <v>152</v>
       </c>
       <c r="G156" t="n">
+        <v>386.1333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>379.0833333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>377</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6953,27 @@
         <v>610</v>
       </c>
       <c r="G157" t="n">
+        <v>386.3333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>379.2</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>377</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6997,27 @@
         <v>3501.5232</v>
       </c>
       <c r="G158" t="n">
+        <v>387.4</v>
+      </c>
+      <c r="H158" t="n">
         <v>379.5666666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>377</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +7041,27 @@
         <v>571</v>
       </c>
       <c r="G159" t="n">
+        <v>388.6666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>379.9</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>377</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +7085,27 @@
         <v>5966.9255</v>
       </c>
       <c r="G160" t="n">
+        <v>389.6</v>
+      </c>
+      <c r="H160" t="n">
         <v>380.2666666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>377</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +7129,27 @@
         <v>3602.9435096</v>
       </c>
       <c r="G161" t="n">
+        <v>390.4666666666666</v>
+      </c>
+      <c r="H161" t="n">
         <v>380.65</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>377</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +7173,27 @@
         <v>3267.4155</v>
       </c>
       <c r="G162" t="n">
+        <v>391.4</v>
+      </c>
+      <c r="H162" t="n">
         <v>381</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>377</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,19 +7217,28 @@
         <v>1086.6467</v>
       </c>
       <c r="G163" t="n">
+        <v>392.2</v>
+      </c>
+      <c r="H163" t="n">
         <v>381.3666666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
+      <c r="L163" t="n">
+        <v>377</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>1.048050397877984</v>
       </c>
     </row>
     <row r="164">
@@ -6118,18 +7261,21 @@
         <v>6062.83</v>
       </c>
       <c r="G164" t="n">
+        <v>393</v>
+      </c>
+      <c r="H164" t="n">
         <v>381.7333333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +7299,21 @@
         <v>107.1559904</v>
       </c>
       <c r="G165" t="n">
+        <v>393.1333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>382.0166666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7337,21 @@
         <v>614.5713</v>
       </c>
       <c r="G166" t="n">
+        <v>393.5333333333334</v>
+      </c>
+      <c r="H166" t="n">
         <v>382.3333333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7375,21 @@
         <v>14867.7867</v>
       </c>
       <c r="G167" t="n">
+        <v>393.5333333333334</v>
+      </c>
+      <c r="H167" t="n">
         <v>382.4333333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7413,21 @@
         <v>1509.7506</v>
       </c>
       <c r="G168" t="n">
+        <v>394.0666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>382.7333333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7451,21 @@
         <v>46</v>
       </c>
       <c r="G169" t="n">
+        <v>394.0666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>382.95</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7489,21 @@
         <v>10886.4674</v>
       </c>
       <c r="G170" t="n">
+        <v>393.2666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>383.0166666666667</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7527,21 @@
         <v>503.4153</v>
       </c>
       <c r="G171" t="n">
+        <v>393</v>
+      </c>
+      <c r="H171" t="n">
         <v>383.2</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7565,21 @@
         <v>99.9999</v>
       </c>
       <c r="G172" t="n">
+        <v>392.8666666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>383.3166666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7603,21 @@
         <v>3936.0167</v>
       </c>
       <c r="G173" t="n">
+        <v>392.1333333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>383.4</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7641,21 @@
         <v>3417.8888</v>
       </c>
       <c r="G174" t="n">
+        <v>391.2666666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>383.4833333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7679,21 @@
         <v>1975.9347</v>
       </c>
       <c r="G175" t="n">
+        <v>390.3333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>383.5833333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7717,21 @@
         <v>275.5614</v>
       </c>
       <c r="G176" t="n">
+        <v>389.4</v>
+      </c>
+      <c r="H176" t="n">
         <v>383.8166666666667</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7755,21 @@
         <v>53.1305</v>
       </c>
       <c r="G177" t="n">
+        <v>388.4</v>
+      </c>
+      <c r="H177" t="n">
         <v>383.95</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,24 +7793,21 @@
         <v>2224.09</v>
       </c>
       <c r="G178" t="n">
+        <v>387.3333333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>384.0666666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6649,24 +7831,21 @@
         <v>2778.4218</v>
       </c>
       <c r="G179" t="n">
+        <v>386.2666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>384.1833333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6690,24 +7869,21 @@
         <v>150</v>
       </c>
       <c r="G180" t="n">
+        <v>386</v>
+      </c>
+      <c r="H180" t="n">
         <v>384.3666666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6731,24 +7907,21 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
+        <v>385.5333333333334</v>
+      </c>
+      <c r="H181" t="n">
         <v>384.5833333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,22 +7945,21 @@
         <v>312.2438</v>
       </c>
       <c r="G182" t="n">
+        <v>385.4</v>
+      </c>
+      <c r="H182" t="n">
         <v>384.7166666666666</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6811,22 +7983,21 @@
         <v>292.8699</v>
       </c>
       <c r="G183" t="n">
+        <v>384.8</v>
+      </c>
+      <c r="H183" t="n">
         <v>384.8666666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6850,22 +8021,21 @@
         <v>1.8701</v>
       </c>
       <c r="G184" t="n">
+        <v>384.2666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>385.05</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6889,22 +8059,21 @@
         <v>2830.2863</v>
       </c>
       <c r="G185" t="n">
+        <v>384.3333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>385.2166666666666</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6928,22 +8097,21 @@
         <v>113</v>
       </c>
       <c r="G186" t="n">
+        <v>383.7333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>385.35</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6967,22 +8135,21 @@
         <v>1910.6159</v>
       </c>
       <c r="G187" t="n">
+        <v>383.6</v>
+      </c>
+      <c r="H187" t="n">
         <v>385.4666666666666</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7006,22 +8173,21 @@
         <v>1989.4407</v>
       </c>
       <c r="G188" t="n">
+        <v>383.4666666666666</v>
+      </c>
+      <c r="H188" t="n">
         <v>385.5833333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7045,22 +8211,21 @@
         <v>1273.6123</v>
       </c>
       <c r="G189" t="n">
+        <v>383.2666666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>385.6833333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7084,22 +8249,21 @@
         <v>1</v>
       </c>
       <c r="G190" t="n">
+        <v>383.2666666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>385.8</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7123,22 +8287,21 @@
         <v>31.5248</v>
       </c>
       <c r="G191" t="n">
+        <v>383.2666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>385.9166666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7162,22 +8325,21 @@
         <v>56.7232</v>
       </c>
       <c r="G192" t="n">
+        <v>383.2666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>386.0333333333334</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7201,22 +8363,21 @@
         <v>10441.5284</v>
       </c>
       <c r="G193" t="n">
+        <v>383.4666666666666</v>
+      </c>
+      <c r="H193" t="n">
         <v>386.15</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7240,22 +8401,21 @@
         <v>63.0689</v>
       </c>
       <c r="G194" t="n">
+        <v>383.4666666666666</v>
+      </c>
+      <c r="H194" t="n">
         <v>386.1833333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7279,22 +8439,21 @@
         <v>2730.8019</v>
       </c>
       <c r="G195" t="n">
+        <v>383.1333333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>386.2166666666666</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7318,22 +8477,21 @@
         <v>5607.4142</v>
       </c>
       <c r="G196" t="n">
+        <v>382.9333333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>386.3</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7357,22 +8515,21 @@
         <v>1717.1945</v>
       </c>
       <c r="G197" t="n">
+        <v>382.7333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>386.3166666666667</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7396,22 +8553,21 @@
         <v>1</v>
       </c>
       <c r="G198" t="n">
+        <v>382.6666666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>386.35</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,22 +8591,21 @@
         <v>1035.4485</v>
       </c>
       <c r="G199" t="n">
+        <v>382.3333333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>386.3</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7474,22 +8629,21 @@
         <v>3896.8311</v>
       </c>
       <c r="G200" t="n">
+        <v>382</v>
+      </c>
+      <c r="H200" t="n">
         <v>386.2333333333333</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7513,22 +8667,21 @@
         <v>1592.6917</v>
       </c>
       <c r="G201" t="n">
+        <v>381.8666666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>386.1833333333333</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7552,22 +8705,21 @@
         <v>439.3517</v>
       </c>
       <c r="G202" t="n">
+        <v>381.8</v>
+      </c>
+      <c r="H202" t="n">
         <v>386.15</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7591,22 +8743,21 @@
         <v>71.9973</v>
       </c>
       <c r="G203" t="n">
+        <v>381.7333333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>386.1833333333333</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7630,22 +8781,21 @@
         <v>101</v>
       </c>
       <c r="G204" t="n">
+        <v>381.8</v>
+      </c>
+      <c r="H204" t="n">
         <v>386.25</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7669,22 +8819,21 @@
         <v>99</v>
       </c>
       <c r="G205" t="n">
+        <v>381.7333333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>386.2333333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7708,22 +8857,21 @@
         <v>1</v>
       </c>
       <c r="G206" t="n">
+        <v>381.7333333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>386.2166666666666</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7747,22 +8895,21 @@
         <v>1179.3245</v>
       </c>
       <c r="G207" t="n">
+        <v>381.7333333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>386.2</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7786,22 +8933,21 @@
         <v>209</v>
       </c>
       <c r="G208" t="n">
+        <v>381.6666666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>386.1666666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7825,22 +8971,21 @@
         <v>254.5661</v>
       </c>
       <c r="G209" t="n">
+        <v>381.8</v>
+      </c>
+      <c r="H209" t="n">
         <v>386.1333333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7864,22 +9009,21 @@
         <v>486.2007</v>
       </c>
       <c r="G210" t="n">
+        <v>381.9333333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>386.05</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,22 +9047,21 @@
         <v>1</v>
       </c>
       <c r="G211" t="n">
+        <v>381.9333333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>385.9833333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7942,22 +9085,21 @@
         <v>155.5937</v>
       </c>
       <c r="G212" t="n">
+        <v>382.1333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>385.95</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7981,22 +9123,21 @@
         <v>1023.9768</v>
       </c>
       <c r="G213" t="n">
+        <v>381.9333333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>385.8666666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8020,22 +9161,21 @@
         <v>1</v>
       </c>
       <c r="G214" t="n">
+        <v>382.1333333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>385.7</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8059,22 +9199,21 @@
         <v>583.9392</v>
       </c>
       <c r="G215" t="n">
+        <v>382.4666666666666</v>
+      </c>
+      <c r="H215" t="n">
         <v>385.5166666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,22 +9237,21 @@
         <v>530.5144</v>
       </c>
       <c r="G216" t="n">
+        <v>382.7333333333333</v>
+      </c>
+      <c r="H216" t="n">
         <v>385.3333333333333</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8137,22 +9275,21 @@
         <v>419.1718</v>
       </c>
       <c r="G217" t="n">
+        <v>382.6666666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>385.2333333333333</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8176,22 +9313,21 @@
         <v>144.0144</v>
       </c>
       <c r="G218" t="n">
+        <v>382.6</v>
+      </c>
+      <c r="H218" t="n">
         <v>384.9833333333333</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8215,22 +9351,21 @@
         <v>116.3963</v>
       </c>
       <c r="G219" t="n">
+        <v>382.6</v>
+      </c>
+      <c r="H219" t="n">
         <v>384.7333333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8254,22 +9389,21 @@
         <v>863.9092000000001</v>
       </c>
       <c r="G220" t="n">
+        <v>382.5333333333334</v>
+      </c>
+      <c r="H220" t="n">
         <v>384.4666666666666</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8293,22 +9427,21 @@
         <v>427</v>
       </c>
       <c r="G221" t="n">
+        <v>382.4</v>
+      </c>
+      <c r="H221" t="n">
         <v>384.2</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8332,22 +9465,21 @@
         <v>3371.1848</v>
       </c>
       <c r="G222" t="n">
+        <v>382.2</v>
+      </c>
+      <c r="H222" t="n">
         <v>383.9</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8371,22 +9503,21 @@
         <v>1.8701</v>
       </c>
       <c r="G223" t="n">
+        <v>381.8666666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>383.5833333333333</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8410,22 +9541,21 @@
         <v>767.9826</v>
       </c>
       <c r="G224" t="n">
+        <v>381.5333333333334</v>
+      </c>
+      <c r="H224" t="n">
         <v>383.2666666666667</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8449,22 +9579,25 @@
         <v>300</v>
       </c>
       <c r="G225" t="n">
+        <v>381.2666666666667</v>
+      </c>
+      <c r="H225" t="n">
         <v>383.0833333333333</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>378</v>
+      </c>
+      <c r="L225" t="n">
+        <v>378</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8488,22 +9621,29 @@
         <v>179.5479</v>
       </c>
       <c r="G226" t="n">
+        <v>380.9333333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>382.8333333333333</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>379</v>
+      </c>
+      <c r="L226" t="n">
+        <v>378</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8527,22 +9667,29 @@
         <v>16026.6485</v>
       </c>
       <c r="G227" t="n">
+        <v>380.6666666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>382.7333333333333</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>379</v>
+      </c>
+      <c r="L227" t="n">
+        <v>378</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8566,22 +9713,21 @@
         <v>126</v>
       </c>
       <c r="G228" t="n">
+        <v>380.6666666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>382.5166666666667</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8605,22 +9751,21 @@
         <v>183.542</v>
       </c>
       <c r="G229" t="n">
+        <v>380.4666666666666</v>
+      </c>
+      <c r="H229" t="n">
         <v>382.3</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8644,22 +9789,21 @@
         <v>6915.2101</v>
       </c>
       <c r="G230" t="n">
+        <v>380.1333333333333</v>
+      </c>
+      <c r="H230" t="n">
         <v>382.2333333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8683,22 +9827,21 @@
         <v>494.8391</v>
       </c>
       <c r="G231" t="n">
+        <v>379.8666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>382.05</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8722,22 +9865,21 @@
         <v>317.385</v>
       </c>
       <c r="G232" t="n">
+        <v>379.8666666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>381.9833333333333</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,22 +9903,21 @@
         <v>67.72499999999999</v>
       </c>
       <c r="G233" t="n">
+        <v>379.8666666666667</v>
+      </c>
+      <c r="H233" t="n">
         <v>381.9166666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8800,22 +9941,21 @@
         <v>67.7236</v>
       </c>
       <c r="G234" t="n">
+        <v>379.7333333333333</v>
+      </c>
+      <c r="H234" t="n">
         <v>381.85</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8839,22 +9979,401 @@
         <v>6856.1435</v>
       </c>
       <c r="G235" t="n">
+        <v>380.2666666666667</v>
+      </c>
+      <c r="H235" t="n">
         <v>381.95</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>389</v>
+      </c>
+      <c r="C236" t="n">
+        <v>390</v>
+      </c>
+      <c r="D236" t="n">
+        <v>390</v>
+      </c>
+      <c r="E236" t="n">
+        <v>389</v>
+      </c>
+      <c r="F236" t="n">
+        <v>519.0559</v>
+      </c>
+      <c r="G236" t="n">
+        <v>380.8666666666667</v>
+      </c>
+      <c r="H236" t="n">
+        <v>382.0666666666667</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>389</v>
+      </c>
+      <c r="C237" t="n">
+        <v>389</v>
+      </c>
+      <c r="D237" t="n">
+        <v>389</v>
+      </c>
+      <c r="E237" t="n">
+        <v>389</v>
+      </c>
+      <c r="F237" t="n">
+        <v>97</v>
+      </c>
+      <c r="G237" t="n">
+        <v>381.4666666666666</v>
+      </c>
+      <c r="H237" t="n">
+        <v>382.1666666666667</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>390</v>
+      </c>
+      <c r="C238" t="n">
+        <v>390</v>
+      </c>
+      <c r="D238" t="n">
+        <v>390</v>
+      </c>
+      <c r="E238" t="n">
+        <v>390</v>
+      </c>
+      <c r="F238" t="n">
+        <v>25.7069</v>
+      </c>
+      <c r="G238" t="n">
+        <v>382.2666666666667</v>
+      </c>
+      <c r="H238" t="n">
+        <v>382.3166666666667</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>390</v>
+      </c>
+      <c r="C239" t="n">
+        <v>390</v>
+      </c>
+      <c r="D239" t="n">
+        <v>390</v>
+      </c>
+      <c r="E239" t="n">
+        <v>390</v>
+      </c>
+      <c r="F239" t="n">
+        <v>9936.034799999999</v>
+      </c>
+      <c r="G239" t="n">
+        <v>383.0666666666667</v>
+      </c>
+      <c r="H239" t="n">
+        <v>382.4666666666666</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>390</v>
+      </c>
+      <c r="C240" t="n">
+        <v>390</v>
+      </c>
+      <c r="D240" t="n">
+        <v>390</v>
+      </c>
+      <c r="E240" t="n">
+        <v>390</v>
+      </c>
+      <c r="F240" t="n">
+        <v>50</v>
+      </c>
+      <c r="G240" t="n">
+        <v>383.8</v>
+      </c>
+      <c r="H240" t="n">
+        <v>382.5333333333334</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>390</v>
+      </c>
+      <c r="C241" t="n">
+        <v>390</v>
+      </c>
+      <c r="D241" t="n">
+        <v>390</v>
+      </c>
+      <c r="E241" t="n">
+        <v>390</v>
+      </c>
+      <c r="F241" t="n">
+        <v>13.9652</v>
+      </c>
+      <c r="G241" t="n">
+        <v>384.5333333333334</v>
+      </c>
+      <c r="H241" t="n">
+        <v>382.5833333333333</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>391</v>
+      </c>
+      <c r="C242" t="n">
+        <v>391</v>
+      </c>
+      <c r="D242" t="n">
+        <v>391</v>
+      </c>
+      <c r="E242" t="n">
+        <v>391</v>
+      </c>
+      <c r="F242" t="n">
+        <v>255.102</v>
+      </c>
+      <c r="G242" t="n">
+        <v>385.2666666666667</v>
+      </c>
+      <c r="H242" t="n">
+        <v>382.7</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>391</v>
+      </c>
+      <c r="C243" t="n">
+        <v>391</v>
+      </c>
+      <c r="D243" t="n">
+        <v>391</v>
+      </c>
+      <c r="E243" t="n">
+        <v>391</v>
+      </c>
+      <c r="F243" t="n">
+        <v>928.1141</v>
+      </c>
+      <c r="G243" t="n">
+        <v>386</v>
+      </c>
+      <c r="H243" t="n">
+        <v>382.8166666666667</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>391</v>
+      </c>
+      <c r="C244" t="n">
+        <v>391</v>
+      </c>
+      <c r="D244" t="n">
+        <v>391</v>
+      </c>
+      <c r="E244" t="n">
+        <v>391</v>
+      </c>
+      <c r="F244" t="n">
+        <v>112.6787</v>
+      </c>
+      <c r="G244" t="n">
+        <v>386.7333333333333</v>
+      </c>
+      <c r="H244" t="n">
+        <v>382.9166666666667</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>388</v>
+      </c>
+      <c r="C245" t="n">
+        <v>388</v>
+      </c>
+      <c r="D245" t="n">
+        <v>388</v>
+      </c>
+      <c r="E245" t="n">
+        <v>388</v>
+      </c>
+      <c r="F245" t="n">
+        <v>64.9847</v>
+      </c>
+      <c r="G245" t="n">
+        <v>387.2666666666667</v>
+      </c>
+      <c r="H245" t="n">
+        <v>382.9666666666666</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-29 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N303"/>
+  <dimension ref="A1:M303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-40371.43800000002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-40371.43800000002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-40370.43800000002</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-40380.43800000002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-48409.76540000002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-48409.76540000002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-50742.86350000002</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-50742.86350000002</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-50742.86350000002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-50854.34770000002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-59730.05730000002</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-57573.65040000002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3355,15 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3784,15 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>-59910.72020000002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4048,15 @@
         <v>-69498.02370000002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4081,15 @@
         <v>-69467.02370000002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,15 @@
         <v>-67183.42370000001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4147,15 @@
         <v>-67183.42370000001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4180,15 @@
         <v>-65572.38190000001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4279,15 @@
         <v>-66780.41070000001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4312,15 @@
         <v>-70891.7335</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4345,15 @@
         <v>-71277.3458</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +4378,15 @@
         <v>-71026.3458</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4411,15 @@
         <v>-70976.3458</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4444,15 @@
         <v>-71002.5925</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,22 +4774,15 @@
         <v>-86916.1816</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>371</v>
-      </c>
-      <c r="K133" t="n">
-        <v>371</v>
-      </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5212,26 +4807,15 @@
         <v>-86916.1816</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>372</v>
-      </c>
-      <c r="K134" t="n">
-        <v>371</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5256,26 +4840,15 @@
         <v>-86916.1816</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>372</v>
-      </c>
-      <c r="K135" t="n">
-        <v>371</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5300,22 +4873,15 @@
         <v>-86916.1816</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>372</v>
-      </c>
-      <c r="K136" t="n">
-        <v>372</v>
-      </c>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5340,26 +4906,21 @@
         <v>-88102.11869999999</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
         <v>372</v>
       </c>
-      <c r="K137" t="n">
-        <v>372</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5384,26 +4945,19 @@
         <v>-85156.09159999999</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>371</v>
-      </c>
-      <c r="K138" t="n">
-        <v>372</v>
-      </c>
-      <c r="L138" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5428,26 +4982,19 @@
         <v>-85156.09159999999</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>372</v>
-      </c>
-      <c r="K139" t="n">
-        <v>372</v>
-      </c>
-      <c r="L139" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5472,26 +5019,19 @@
         <v>-85156.09159999999</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>372</v>
-      </c>
-      <c r="K140" t="n">
-        <v>372</v>
-      </c>
-      <c r="L140" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5516,26 +5056,19 @@
         <v>-85156.09159999999</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>372</v>
-      </c>
-      <c r="K141" t="n">
-        <v>372</v>
-      </c>
-      <c r="L141" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5562,22 +5095,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>372</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5602,26 +5130,19 @@
         <v>-85155.09159999999</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>372</v>
-      </c>
-      <c r="K143" t="n">
-        <v>372</v>
-      </c>
-      <c r="L143" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5648,22 +5169,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>372</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5690,22 +5206,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>372</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5732,22 +5243,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>372</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5774,22 +5280,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>372</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5816,22 +5317,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>372</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5858,22 +5354,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>372</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5900,22 +5391,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>372</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5942,22 +5428,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>372</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5984,22 +5465,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>372</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6026,22 +5502,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>372</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6068,22 +5539,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>372</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6110,22 +5576,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>372</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6152,22 +5613,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>372</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6194,22 +5650,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>372</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6236,22 +5687,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>372</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6278,22 +5724,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>372</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6320,22 +5761,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>372</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6362,22 +5798,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>372</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6404,22 +5835,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>372</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6446,22 +5872,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>372</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6488,22 +5909,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>372</v>
-      </c>
-      <c r="L164" t="inlineStr">
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6528,24 +5944,19 @@
         <v>-96588.39309999997</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>372</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6572,22 +5983,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>372</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6614,22 +6020,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>372</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6656,22 +6057,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>372</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6698,22 +6094,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>372</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6740,22 +6131,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>372</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6782,22 +6168,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>372</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6824,22 +6205,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>372</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6866,22 +6242,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>372</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6908,22 +6279,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>372</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6950,22 +6316,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>372</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6992,22 +6353,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>372</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7034,22 +6390,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>372</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7074,26 +6425,19 @@
         <v>-102248.0618</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>374</v>
-      </c>
-      <c r="K178" t="n">
-        <v>372</v>
-      </c>
-      <c r="L178" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7118,26 +6462,21 @@
         <v>-103295.4985</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
         <v>375</v>
       </c>
-      <c r="K179" t="n">
-        <v>372</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7162,26 +6501,19 @@
         <v>-103262.4985</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>374</v>
-      </c>
-      <c r="K180" t="n">
-        <v>372</v>
-      </c>
-      <c r="L180" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7206,26 +6538,19 @@
         <v>-103312.4985</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>376</v>
-      </c>
-      <c r="K181" t="n">
-        <v>372</v>
-      </c>
-      <c r="L181" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7250,26 +6575,21 @@
         <v>-103708.118</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
         <v>375</v>
       </c>
-      <c r="K182" t="n">
-        <v>372</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7294,26 +6614,21 @@
         <v>-103707.118</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
         <v>374</v>
       </c>
-      <c r="K183" t="n">
-        <v>372</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7338,26 +6653,21 @@
         <v>-103757.118</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
         <v>375</v>
       </c>
-      <c r="K184" t="n">
-        <v>372</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7382,26 +6692,21 @@
         <v>-102362.4511</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
         <v>374</v>
       </c>
-      <c r="K185" t="n">
-        <v>372</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7426,26 +6731,19 @@
         <v>-102362.4511</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>375</v>
-      </c>
-      <c r="K186" t="n">
-        <v>372</v>
-      </c>
-      <c r="L186" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7470,26 +6768,21 @@
         <v>-102362.4511</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
         <v>375</v>
       </c>
-      <c r="K187" t="n">
-        <v>372</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7514,26 +6807,19 @@
         <v>-102132.6841</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>375</v>
-      </c>
-      <c r="K188" t="n">
-        <v>372</v>
-      </c>
-      <c r="L188" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7558,26 +6844,19 @@
         <v>-102132.6841</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>376</v>
-      </c>
-      <c r="K189" t="n">
-        <v>372</v>
-      </c>
-      <c r="L189" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7602,26 +6881,19 @@
         <v>-102132.6841</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>376</v>
-      </c>
-      <c r="K190" t="n">
-        <v>372</v>
-      </c>
-      <c r="L190" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7646,26 +6918,19 @@
         <v>-101313.7236</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>376</v>
-      </c>
-      <c r="K191" t="n">
-        <v>372</v>
-      </c>
-      <c r="L191" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7692,22 +6957,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>372</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7734,22 +6994,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>372</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7776,22 +7031,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>372</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7818,22 +7068,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>372</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7860,22 +7105,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>372</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7902,22 +7142,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>372</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7944,22 +7179,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>372</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7986,22 +7216,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>372</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8028,22 +7253,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>372</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8070,22 +7290,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>372</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8112,22 +7327,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>372</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8154,22 +7364,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>372</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8196,22 +7401,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>372</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8238,22 +7438,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>372</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8280,22 +7475,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>372</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8322,22 +7512,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>372</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8364,22 +7549,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>372</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8406,22 +7586,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>372</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8448,22 +7623,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>372</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8490,22 +7660,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>372</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8532,22 +7697,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>372</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8574,22 +7734,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>372</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8616,22 +7771,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>372</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8658,22 +7808,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>372</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8700,22 +7845,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>372</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8740,24 +7880,17 @@
         <v>-92378.05230959998</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>372</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="K217" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8782,24 +7915,15 @@
         <v>-92378.05230959998</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>372</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8824,24 +7948,15 @@
         <v>-92378.05230959998</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>372</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8866,24 +7981,15 @@
         <v>-89110.63680959998</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>372</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8908,26 +8014,15 @@
         <v>-90197.28350959998</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>372</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1.062204301075269</v>
-      </c>
-      <c r="N221" t="n">
-        <v>1.075471698113208</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8952,18 +8047,15 @@
         <v>-90197.28350959998</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8988,18 +8080,15 @@
         <v>-90304.43949999998</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9024,18 +8113,15 @@
         <v>-89689.86819999998</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9062,16 +8148,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9098,16 +8181,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9134,16 +8214,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9170,16 +8247,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9206,16 +8280,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9242,16 +8313,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9278,16 +8346,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9314,16 +8379,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9350,16 +8412,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9386,16 +8445,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9422,16 +8478,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9458,16 +8511,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9494,16 +8544,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9530,16 +8577,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9564,18 +8608,15 @@
         <v>-117579.981</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9602,16 +8643,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9638,16 +8676,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9674,16 +8709,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9710,16 +8742,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9746,16 +8775,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9782,16 +8808,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9818,16 +8841,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9854,16 +8874,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9890,16 +8907,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9926,16 +8940,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9962,16 +8973,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9998,16 +9006,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10034,16 +9039,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10070,16 +9072,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10106,16 +9105,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10142,16 +9138,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10178,16 +9171,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10214,16 +9204,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10250,16 +9237,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10286,16 +9270,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10322,16 +9303,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10358,16 +9336,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10394,16 +9369,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10430,16 +9402,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10466,16 +9435,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10502,16 +9468,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10538,16 +9501,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10574,16 +9534,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10610,16 +9567,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10646,16 +9600,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10682,16 +9633,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10718,16 +9666,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10754,16 +9699,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10790,16 +9732,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10826,16 +9765,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10862,16 +9798,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10898,16 +9831,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10934,16 +9864,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10970,16 +9897,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11006,16 +9930,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11042,16 +9963,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11078,16 +9996,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11114,16 +10029,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11150,16 +10062,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11186,16 +10095,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11222,16 +10128,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11258,16 +10161,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11294,16 +10194,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11330,16 +10227,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11366,16 +10260,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11402,16 +10293,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11438,16 +10326,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11474,16 +10359,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11510,16 +10392,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11546,16 +10425,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11582,16 +10458,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11618,16 +10491,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11654,16 +10524,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11690,16 +10557,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11726,16 +10590,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11762,16 +10623,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11798,16 +10656,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11834,16 +10689,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11870,18 +10722,15 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-29 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>-50182.5235</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-39362.3452</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-34443.5298</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-34443.5298</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-38378.611</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-41924.0986</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-52010.2236</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-50737.81630000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-50737.81630000001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-50719.21430000001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-49759.85800000001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-49909.85800000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-22999.10870000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-21955.10870000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-26291.72880000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-30250.85740000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-41995.71880000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-41994.71880000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-43811.34790000002</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-43811.34790000002</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-44037.34790000002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-44037.34790000002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-44037.34790000002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-43726.34790000002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-40371.43800000002</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-40371.43800000002</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-40370.43800000002</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-40380.43800000002</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-48409.76540000002</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-48409.76540000002</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-50742.86350000002</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-50742.86350000002</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-50742.86350000002</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-50854.34770000002</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-59730.05730000002</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-57573.65040000002</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-59910.72020000002</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-69498.02370000002</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-69467.02370000002</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-67183.42370000001</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-67183.42370000001</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-65572.38190000001</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-66780.41070000001</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-70891.7335</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-71277.3458</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-71026.3458</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-70976.3458</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-71002.5925</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4873,10 +4873,14 @@
         <v>-86916.1816</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>372</v>
+      </c>
+      <c r="J136" t="n">
+        <v>372</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
@@ -4906,12 +4910,14 @@
         <v>-88102.11869999999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>372</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>372</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -4945,10 +4951,14 @@
         <v>-85156.09159999999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>371</v>
+      </c>
+      <c r="J138" t="n">
+        <v>372</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4985,7 +4995,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>372</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5022,7 +5034,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>372</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5059,7 +5073,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>372</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5096,7 +5112,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>372</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5133,7 +5151,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>372</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,7 +5190,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>372</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5207,7 +5229,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>372</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5244,7 +5268,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>372</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5281,7 +5307,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>372</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5318,7 +5346,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>372</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5355,7 +5385,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>372</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5392,7 +5424,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>372</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5429,7 +5463,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>372</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5466,7 +5502,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>372</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5503,7 +5541,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>372</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5540,7 +5580,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>372</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5577,7 +5619,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>372</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5614,7 +5658,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>372</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5651,7 +5697,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>372</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5688,7 +5736,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>372</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5725,7 +5775,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>372</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5762,7 +5814,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>372</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5799,7 +5853,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>372</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5836,7 +5892,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>372</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5873,7 +5931,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>372</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5910,7 +5970,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>372</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5944,10 +6006,12 @@
         <v>-96588.39309999997</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>372</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5984,7 +6048,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>372</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6021,7 +6087,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>372</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6058,7 +6126,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>372</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6095,7 +6165,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>372</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6132,7 +6204,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>372</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6169,7 +6243,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>372</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6206,7 +6282,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>372</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6243,7 +6321,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>372</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6280,7 +6360,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>372</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6317,7 +6399,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>372</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6354,7 +6438,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>372</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6391,7 +6477,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>372</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6428,7 +6516,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>372</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6462,12 +6552,14 @@
         <v>-103295.4985</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>375</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>372</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6501,10 +6593,14 @@
         <v>-103262.4985</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>374</v>
+      </c>
+      <c r="J180" t="n">
+        <v>372</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6538,10 +6634,14 @@
         <v>-103312.4985</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>376</v>
+      </c>
+      <c r="J181" t="n">
+        <v>372</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6575,12 +6675,14 @@
         <v>-103708.118</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>375</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>372</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6614,12 +6716,14 @@
         <v>-103707.118</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>374</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>372</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6653,12 +6757,14 @@
         <v>-103757.118</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>375</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>372</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6692,12 +6798,14 @@
         <v>-102362.4511</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>374</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>372</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6731,10 +6839,14 @@
         <v>-102362.4511</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>375</v>
+      </c>
+      <c r="J186" t="n">
+        <v>372</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6768,12 +6880,14 @@
         <v>-102362.4511</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>375</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>372</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6807,10 +6921,14 @@
         <v>-102132.6841</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>375</v>
+      </c>
+      <c r="J188" t="n">
+        <v>372</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6844,10 +6962,14 @@
         <v>-102132.6841</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>376</v>
+      </c>
+      <c r="J189" t="n">
+        <v>372</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6881,10 +7003,14 @@
         <v>-102132.6841</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>376</v>
+      </c>
+      <c r="J190" t="n">
+        <v>372</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6918,10 +7044,14 @@
         <v>-101313.7236</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>376</v>
+      </c>
+      <c r="J191" t="n">
+        <v>372</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6955,10 +7085,14 @@
         <v>-101312.7236</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>377</v>
+      </c>
+      <c r="J192" t="n">
+        <v>372</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6995,7 +7129,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>372</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7032,7 +7168,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>372</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7069,7 +7207,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>372</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7106,7 +7246,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>372</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7143,7 +7285,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>372</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7180,7 +7324,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>372</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7217,7 +7363,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>372</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7254,7 +7402,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>372</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7291,7 +7441,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>372</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7328,7 +7480,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>372</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7365,7 +7519,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>372</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7402,7 +7558,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>372</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7439,7 +7597,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>372</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7476,7 +7636,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>372</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7513,7 +7675,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>372</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7550,7 +7714,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>372</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7587,7 +7753,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>372</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7624,7 +7792,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>372</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7661,7 +7831,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>372</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7698,7 +7870,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>372</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7735,7 +7909,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>372</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7772,7 +7948,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>372</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7809,7 +7987,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>372</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7846,7 +8026,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>372</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7880,16 +8062,20 @@
         <v>-92378.05230959998</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>372</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L217" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
       <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
@@ -7915,11 +8101,17 @@
         <v>-92378.05230959998</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>372</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7948,11 +8140,17 @@
         <v>-92378.05230959998</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>372</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7981,11 +8179,17 @@
         <v>-89110.63680959998</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>372</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8014,11 +8218,17 @@
         <v>-90197.28350959998</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>372</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8047,11 +8257,17 @@
         <v>-90197.28350959998</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>372</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8080,11 +8296,17 @@
         <v>-90304.43949999998</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>372</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8113,11 +8335,17 @@
         <v>-89689.86819999998</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>372</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8149,8 +8377,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>372</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8182,8 +8416,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>372</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8215,8 +8455,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>372</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8248,8 +8494,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>372</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8281,8 +8533,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>372</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8314,8 +8572,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>372</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8347,8 +8611,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>372</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8380,8 +8650,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>372</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8413,8 +8689,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>372</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8446,8 +8728,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>372</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8476,11 +8764,19 @@
         <v>-115506.891</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>383</v>
+      </c>
+      <c r="J235" t="n">
+        <v>372</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8509,11 +8805,19 @@
         <v>-117730.981</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>383</v>
+      </c>
+      <c r="J236" t="n">
+        <v>372</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8542,11 +8846,19 @@
         <v>-117730.981</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>381</v>
+      </c>
+      <c r="J237" t="n">
+        <v>372</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8575,11 +8887,19 @@
         <v>-117580.981</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>381</v>
+      </c>
+      <c r="J238" t="n">
+        <v>372</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8610,9 +8930,17 @@
       <c r="H239" t="n">
         <v>1</v>
       </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>386</v>
+      </c>
+      <c r="J239" t="n">
+        <v>372</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8644,8 +8972,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>372</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8677,8 +9011,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>372</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8710,8 +9050,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>372</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8743,8 +9089,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>372</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8776,8 +9128,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>372</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8809,8 +9167,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>372</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8842,8 +9206,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>372</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8875,8 +9245,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>372</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8908,8 +9284,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>372</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8941,8 +9323,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>372</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8974,8 +9362,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>372</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9007,8 +9401,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>372</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9040,8 +9440,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>372</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9073,8 +9479,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>372</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9106,8 +9518,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>372</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9139,8 +9557,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>372</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9172,8 +9596,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>372</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9205,8 +9635,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>372</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9238,8 +9674,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>372</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9271,8 +9713,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>372</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9304,8 +9752,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>372</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9337,8 +9791,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>372</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9370,8 +9830,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>372</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9403,8 +9869,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>372</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9436,8 +9908,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>372</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9469,8 +9947,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>372</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9502,8 +9986,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>372</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9535,8 +10025,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>372</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9568,8 +10064,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>372</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9601,8 +10103,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>372</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9634,8 +10142,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>372</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9667,8 +10181,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>372</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9700,8 +10220,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>372</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9733,8 +10259,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>372</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9766,8 +10298,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>372</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9799,8 +10337,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>372</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9832,8 +10376,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>372</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9865,8 +10415,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>372</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9898,8 +10454,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>372</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9931,8 +10493,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>372</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9964,8 +10532,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>372</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9997,8 +10571,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>372</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10027,11 +10607,19 @@
         <v>-111008.6762</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>378</v>
+      </c>
+      <c r="J282" t="n">
+        <v>372</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10060,11 +10648,19 @@
         <v>-110708.6762</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>378</v>
+      </c>
+      <c r="J283" t="n">
+        <v>372</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10093,11 +10689,19 @@
         <v>-110708.6762</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>379</v>
+      </c>
+      <c r="J284" t="n">
+        <v>372</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10126,11 +10730,19 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>379</v>
+      </c>
+      <c r="J285" t="n">
+        <v>372</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10162,8 +10774,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>372</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10195,8 +10813,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>372</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10228,8 +10852,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>372</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10261,8 +10891,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>372</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10291,11 +10927,19 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>380</v>
+      </c>
+      <c r="J290" t="n">
+        <v>372</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10327,8 +10971,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>372</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10360,8 +11010,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>372</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10393,8 +11049,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>372</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10426,8 +11088,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>372</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10459,8 +11127,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>372</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10492,8 +11166,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>372</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10525,8 +11205,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>372</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10558,8 +11244,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>372</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10591,8 +11283,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>372</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10624,8 +11322,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>372</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10657,8 +11361,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>372</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10690,8 +11400,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>372</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10723,14 +11439,20 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>372</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
       <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-29 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>-50182.5235</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-39362.3452</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-34443.5298</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-34443.5298</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-38378.611</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-41924.0986</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-52010.2236</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-50737.81630000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-50737.81630000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-50719.21430000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-49759.85800000001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-41995.71880000001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-41994.71880000001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-43811.34790000002</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-43811.34790000002</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-44037.34790000002</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-44037.34790000002</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-44037.34790000002</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-43726.34790000002</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-50742.86350000002</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -4873,14 +4873,10 @@
         <v>-86916.1816</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>372</v>
-      </c>
-      <c r="J136" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
@@ -4910,4934 +4906,4158 @@
         <v>-88102.11869999999</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
         <v>372</v>
       </c>
-      <c r="J137" t="n">
+      <c r="C138" t="n">
         <v>372</v>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="D138" t="n">
+        <v>372</v>
+      </c>
+      <c r="E138" t="n">
+        <v>372</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2946.0271</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-85156.09159999999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>372</v>
+      </c>
+      <c r="C139" t="n">
+        <v>372</v>
+      </c>
+      <c r="D139" t="n">
+        <v>372</v>
+      </c>
+      <c r="E139" t="n">
+        <v>372</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2152.5099</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-85156.09159999999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>372</v>
+      </c>
+      <c r="C140" t="n">
+        <v>372</v>
+      </c>
+      <c r="D140" t="n">
+        <v>372</v>
+      </c>
+      <c r="E140" t="n">
+        <v>372</v>
+      </c>
+      <c r="F140" t="n">
+        <v>93.56999999999999</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-85156.09159999999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>372</v>
+      </c>
+      <c r="C141" t="n">
+        <v>372</v>
+      </c>
+      <c r="D141" t="n">
+        <v>372</v>
+      </c>
+      <c r="E141" t="n">
+        <v>372</v>
+      </c>
+      <c r="F141" t="n">
+        <v>303</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-85156.09159999999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>372</v>
+      </c>
+      <c r="C142" t="n">
+        <v>372</v>
+      </c>
+      <c r="D142" t="n">
+        <v>372</v>
+      </c>
+      <c r="E142" t="n">
+        <v>372</v>
+      </c>
+      <c r="F142" t="n">
+        <v>871.4166</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-85156.09159999999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>372</v>
+      </c>
+      <c r="J142" t="n">
+        <v>372</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>375</v>
+      </c>
+      <c r="C143" t="n">
+        <v>375</v>
+      </c>
+      <c r="D143" t="n">
+        <v>375</v>
+      </c>
+      <c r="E143" t="n">
+        <v>375</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-85155.09159999999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>372</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>375</v>
+      </c>
+      <c r="C144" t="n">
+        <v>375</v>
+      </c>
+      <c r="D144" t="n">
+        <v>375</v>
+      </c>
+      <c r="E144" t="n">
+        <v>375</v>
+      </c>
+      <c r="F144" t="n">
+        <v>166.72</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-85155.09159999999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>372</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>380</v>
+      </c>
+      <c r="C145" t="n">
+        <v>380</v>
+      </c>
+      <c r="D145" t="n">
+        <v>380</v>
+      </c>
+      <c r="E145" t="n">
+        <v>380</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-85154.09159999999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>375</v>
+      </c>
+      <c r="C146" t="n">
+        <v>375</v>
+      </c>
+      <c r="D146" t="n">
+        <v>375</v>
+      </c>
+      <c r="E146" t="n">
+        <v>375</v>
+      </c>
+      <c r="F146" t="n">
+        <v>305.7705</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-85459.86209999998</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>375</v>
+      </c>
+      <c r="C147" t="n">
+        <v>375</v>
+      </c>
+      <c r="D147" t="n">
+        <v>375</v>
+      </c>
+      <c r="E147" t="n">
+        <v>375</v>
+      </c>
+      <c r="F147" t="n">
+        <v>292.6999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-85459.86209999998</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>375</v>
+      </c>
+      <c r="C148" t="n">
+        <v>375</v>
+      </c>
+      <c r="D148" t="n">
+        <v>375</v>
+      </c>
+      <c r="E148" t="n">
+        <v>375</v>
+      </c>
+      <c r="F148" t="n">
+        <v>585.4003</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-85459.86209999998</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>375</v>
+      </c>
+      <c r="C149" t="n">
+        <v>375</v>
+      </c>
+      <c r="D149" t="n">
+        <v>375</v>
+      </c>
+      <c r="E149" t="n">
+        <v>375</v>
+      </c>
+      <c r="F149" t="n">
+        <v>274.8634</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-85459.86209999998</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>375</v>
+      </c>
+      <c r="C150" t="n">
+        <v>375</v>
+      </c>
+      <c r="D150" t="n">
+        <v>375</v>
+      </c>
+      <c r="E150" t="n">
+        <v>375</v>
+      </c>
+      <c r="F150" t="n">
+        <v>292.6998</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-85459.86209999998</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>375</v>
+      </c>
+      <c r="C151" t="n">
+        <v>375</v>
+      </c>
+      <c r="D151" t="n">
+        <v>375</v>
+      </c>
+      <c r="E151" t="n">
+        <v>375</v>
+      </c>
+      <c r="F151" t="n">
+        <v>625.9405</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-85459.86209999998</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>379</v>
+      </c>
+      <c r="C152" t="n">
+        <v>379</v>
+      </c>
+      <c r="D152" t="n">
+        <v>379</v>
+      </c>
+      <c r="E152" t="n">
+        <v>379</v>
+      </c>
+      <c r="F152" t="n">
+        <v>26.6666</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-85433.19549999999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>374</v>
+      </c>
+      <c r="C153" t="n">
+        <v>374</v>
+      </c>
+      <c r="D153" t="n">
+        <v>374</v>
+      </c>
+      <c r="E153" t="n">
+        <v>374</v>
+      </c>
+      <c r="F153" t="n">
+        <v>153.2</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-85586.39549999998</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>378</v>
+      </c>
+      <c r="C154" t="n">
+        <v>374</v>
+      </c>
+      <c r="D154" t="n">
+        <v>378</v>
+      </c>
+      <c r="E154" t="n">
+        <v>374</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1615.9266</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-85586.39549999998</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>379</v>
+      </c>
+      <c r="C155" t="n">
+        <v>379</v>
+      </c>
+      <c r="D155" t="n">
+        <v>379</v>
+      </c>
+      <c r="E155" t="n">
+        <v>379</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2699</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-82887.39549999998</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>378</v>
+      </c>
+      <c r="C156" t="n">
+        <v>373</v>
+      </c>
+      <c r="D156" t="n">
+        <v>378</v>
+      </c>
+      <c r="E156" t="n">
+        <v>373</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4970.9301</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-87858.32559999998</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>377</v>
+      </c>
+      <c r="C157" t="n">
+        <v>377</v>
+      </c>
+      <c r="D157" t="n">
+        <v>377</v>
+      </c>
+      <c r="E157" t="n">
+        <v>377</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-87857.32559999998</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>375</v>
+      </c>
+      <c r="C158" t="n">
+        <v>375</v>
+      </c>
+      <c r="D158" t="n">
+        <v>375</v>
+      </c>
+      <c r="E158" t="n">
+        <v>375</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-89877.32559999998</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>374</v>
+      </c>
+      <c r="C159" t="n">
+        <v>374</v>
+      </c>
+      <c r="D159" t="n">
+        <v>374</v>
+      </c>
+      <c r="E159" t="n">
+        <v>374</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3206.5361</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-93083.86169999998</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>372</v>
+      </c>
+      <c r="C160" t="n">
+        <v>377</v>
+      </c>
+      <c r="D160" t="n">
+        <v>377</v>
+      </c>
+      <c r="E160" t="n">
+        <v>372</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1070.9266</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-92012.93509999997</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>371</v>
+      </c>
+      <c r="C161" t="n">
+        <v>375</v>
+      </c>
+      <c r="D161" t="n">
+        <v>375</v>
+      </c>
+      <c r="E161" t="n">
+        <v>371</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2823.361</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-94836.29609999998</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>375</v>
+      </c>
+      <c r="C162" t="n">
+        <v>375</v>
+      </c>
+      <c r="D162" t="n">
+        <v>375</v>
+      </c>
+      <c r="E162" t="n">
+        <v>375</v>
+      </c>
+      <c r="F162" t="n">
+        <v>26.6666</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-94836.29609999998</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>373</v>
+      </c>
+      <c r="C163" t="n">
+        <v>373</v>
+      </c>
+      <c r="D163" t="n">
+        <v>374</v>
+      </c>
+      <c r="E163" t="n">
+        <v>368</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3905.097</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-98741.39309999997</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>375</v>
+      </c>
+      <c r="C164" t="n">
+        <v>375</v>
+      </c>
+      <c r="D164" t="n">
+        <v>375</v>
+      </c>
+      <c r="E164" t="n">
+        <v>375</v>
+      </c>
+      <c r="F164" t="n">
+        <v>144</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-98597.39309999997</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>375</v>
+      </c>
+      <c r="C165" t="n">
+        <v>380</v>
+      </c>
+      <c r="D165" t="n">
+        <v>380</v>
+      </c>
+      <c r="E165" t="n">
+        <v>375</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2009</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-96588.39309999997</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>375</v>
+      </c>
+      <c r="C166" t="n">
+        <v>375</v>
+      </c>
+      <c r="D166" t="n">
+        <v>375</v>
+      </c>
+      <c r="E166" t="n">
+        <v>375</v>
+      </c>
+      <c r="F166" t="n">
+        <v>185.7204</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-96774.11349999998</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>380</v>
+      </c>
+      <c r="C167" t="n">
+        <v>380</v>
+      </c>
+      <c r="D167" t="n">
+        <v>380</v>
+      </c>
+      <c r="E167" t="n">
+        <v>380</v>
+      </c>
+      <c r="F167" t="n">
+        <v>66</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-96708.11349999998</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>380</v>
+      </c>
+      <c r="C168" t="n">
+        <v>380</v>
+      </c>
+      <c r="D168" t="n">
+        <v>380</v>
+      </c>
+      <c r="E168" t="n">
+        <v>380</v>
+      </c>
+      <c r="F168" t="n">
+        <v>50.1789</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-96708.11349999998</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>380</v>
+      </c>
+      <c r="C169" t="n">
+        <v>380</v>
+      </c>
+      <c r="D169" t="n">
+        <v>380</v>
+      </c>
+      <c r="E169" t="n">
+        <v>380</v>
+      </c>
+      <c r="F169" t="n">
+        <v>26.3157</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-96708.11349999998</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>377</v>
+      </c>
+      <c r="C170" t="n">
+        <v>377</v>
+      </c>
+      <c r="D170" t="n">
+        <v>377</v>
+      </c>
+      <c r="E170" t="n">
+        <v>374</v>
+      </c>
+      <c r="F170" t="n">
+        <v>171</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-96879.11349999998</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>379</v>
+      </c>
+      <c r="C171" t="n">
+        <v>379</v>
+      </c>
+      <c r="D171" t="n">
+        <v>379</v>
+      </c>
+      <c r="E171" t="n">
+        <v>379</v>
+      </c>
+      <c r="F171" t="n">
+        <v>13</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-96866.11349999998</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>372</v>
+      </c>
+      <c r="C172" t="n">
+        <v>379</v>
+      </c>
+      <c r="D172" t="n">
+        <v>379</v>
+      </c>
+      <c r="E172" t="n">
+        <v>372</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1859.7856</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-96866.11349999998</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>378</v>
+      </c>
+      <c r="C173" t="n">
+        <v>377</v>
+      </c>
+      <c r="D173" t="n">
+        <v>378</v>
+      </c>
+      <c r="E173" t="n">
+        <v>369</v>
+      </c>
+      <c r="F173" t="n">
+        <v>118.9483</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-96985.06179999998</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>369</v>
+      </c>
+      <c r="C174" t="n">
+        <v>369</v>
+      </c>
+      <c r="D174" t="n">
+        <v>369</v>
+      </c>
+      <c r="E174" t="n">
+        <v>369</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4100</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-101085.0618</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>375</v>
+      </c>
+      <c r="C175" t="n">
+        <v>375</v>
+      </c>
+      <c r="D175" t="n">
+        <v>375</v>
+      </c>
+      <c r="E175" t="n">
+        <v>375</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-101084.0618</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>374</v>
+      </c>
+      <c r="C176" t="n">
+        <v>374</v>
+      </c>
+      <c r="D176" t="n">
+        <v>374</v>
+      </c>
+      <c r="E176" t="n">
+        <v>374</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1186</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-102270.0618</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>374</v>
+      </c>
+      <c r="C177" t="n">
+        <v>374</v>
+      </c>
+      <c r="D177" t="n">
+        <v>374</v>
+      </c>
+      <c r="E177" t="n">
+        <v>374</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2218.3651</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-102270.0618</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>375</v>
+      </c>
+      <c r="C178" t="n">
+        <v>375</v>
+      </c>
+      <c r="D178" t="n">
+        <v>375</v>
+      </c>
+      <c r="E178" t="n">
+        <v>375</v>
+      </c>
+      <c r="F178" t="n">
+        <v>22</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-102248.0618</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>374</v>
+      </c>
+      <c r="C179" t="n">
+        <v>374</v>
+      </c>
+      <c r="D179" t="n">
+        <v>374</v>
+      </c>
+      <c r="E179" t="n">
+        <v>374</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1047.4367</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-103295.4985</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>376</v>
+      </c>
+      <c r="C180" t="n">
+        <v>376</v>
+      </c>
+      <c r="D180" t="n">
+        <v>376</v>
+      </c>
+      <c r="E180" t="n">
+        <v>376</v>
+      </c>
+      <c r="F180" t="n">
+        <v>33</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-103262.4985</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>375</v>
+      </c>
+      <c r="C181" t="n">
+        <v>375</v>
+      </c>
+      <c r="D181" t="n">
+        <v>375</v>
+      </c>
+      <c r="E181" t="n">
+        <v>375</v>
+      </c>
+      <c r="F181" t="n">
+        <v>50</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-103312.4985</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>375</v>
+      </c>
+      <c r="C182" t="n">
+        <v>374</v>
+      </c>
+      <c r="D182" t="n">
+        <v>375</v>
+      </c>
+      <c r="E182" t="n">
+        <v>374</v>
+      </c>
+      <c r="F182" t="n">
+        <v>395.6195</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-103708.118</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>375</v>
+      </c>
+      <c r="C183" t="n">
+        <v>375</v>
+      </c>
+      <c r="D183" t="n">
+        <v>375</v>
+      </c>
+      <c r="E183" t="n">
+        <v>375</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-103707.118</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>374</v>
+      </c>
+      <c r="C184" t="n">
+        <v>374</v>
+      </c>
+      <c r="D184" t="n">
+        <v>374</v>
+      </c>
+      <c r="E184" t="n">
+        <v>374</v>
+      </c>
+      <c r="F184" t="n">
+        <v>50</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-103757.118</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>374</v>
+      </c>
+      <c r="C185" t="n">
+        <v>375</v>
+      </c>
+      <c r="D185" t="n">
+        <v>375</v>
+      </c>
+      <c r="E185" t="n">
+        <v>374</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1394.6669</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-102362.4511</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>375</v>
+      </c>
+      <c r="C186" t="n">
+        <v>375</v>
+      </c>
+      <c r="D186" t="n">
+        <v>375</v>
+      </c>
+      <c r="E186" t="n">
+        <v>375</v>
+      </c>
+      <c r="F186" t="n">
+        <v>82.56</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-102362.4511</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>374</v>
+      </c>
+      <c r="C187" t="n">
+        <v>375</v>
+      </c>
+      <c r="D187" t="n">
+        <v>375</v>
+      </c>
+      <c r="E187" t="n">
+        <v>374</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3561.6985</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-102362.4511</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>376</v>
+      </c>
+      <c r="C188" t="n">
+        <v>376</v>
+      </c>
+      <c r="D188" t="n">
+        <v>376</v>
+      </c>
+      <c r="E188" t="n">
+        <v>376</v>
+      </c>
+      <c r="F188" t="n">
+        <v>229.767</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-102132.6841</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>376</v>
+      </c>
+      <c r="C189" t="n">
+        <v>376</v>
+      </c>
+      <c r="D189" t="n">
+        <v>376</v>
+      </c>
+      <c r="E189" t="n">
+        <v>376</v>
+      </c>
+      <c r="F189" t="n">
+        <v>754</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-102132.6841</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>376</v>
+      </c>
+      <c r="C190" t="n">
+        <v>376</v>
+      </c>
+      <c r="D190" t="n">
+        <v>376</v>
+      </c>
+      <c r="E190" t="n">
+        <v>376</v>
+      </c>
+      <c r="F190" t="n">
+        <v>4917.3019</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-102132.6841</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>377</v>
+      </c>
+      <c r="C191" t="n">
+        <v>377</v>
+      </c>
+      <c r="D191" t="n">
+        <v>377</v>
+      </c>
+      <c r="E191" t="n">
+        <v>377</v>
+      </c>
+      <c r="F191" t="n">
+        <v>818.9605</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-101313.7236</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>379</v>
+      </c>
+      <c r="C192" t="n">
+        <v>379</v>
+      </c>
+      <c r="D192" t="n">
+        <v>379</v>
+      </c>
+      <c r="E192" t="n">
+        <v>379</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-101312.7236</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>379</v>
+      </c>
+      <c r="C193" t="n">
+        <v>379</v>
+      </c>
+      <c r="D193" t="n">
+        <v>379</v>
+      </c>
+      <c r="E193" t="n">
+        <v>379</v>
+      </c>
+      <c r="F193" t="n">
+        <v>719</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-101312.7236</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>379</v>
+      </c>
+      <c r="C194" t="n">
+        <v>379</v>
+      </c>
+      <c r="D194" t="n">
+        <v>379</v>
+      </c>
+      <c r="E194" t="n">
+        <v>379</v>
+      </c>
+      <c r="F194" t="n">
+        <v>80.8009</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-101312.7236</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>380</v>
+      </c>
+      <c r="C195" t="n">
+        <v>380</v>
+      </c>
+      <c r="D195" t="n">
+        <v>380</v>
+      </c>
+      <c r="E195" t="n">
+        <v>380</v>
+      </c>
+      <c r="F195" t="n">
+        <v>363</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-100949.7236</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>380</v>
+      </c>
+      <c r="C196" t="n">
+        <v>381</v>
+      </c>
+      <c r="D196" t="n">
+        <v>381</v>
+      </c>
+      <c r="E196" t="n">
+        <v>380</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1005.9019</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-99943.82169999999</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>381</v>
+      </c>
+      <c r="C197" t="n">
+        <v>383</v>
+      </c>
+      <c r="D197" t="n">
+        <v>383</v>
+      </c>
+      <c r="E197" t="n">
+        <v>381</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1180.3871</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-98763.43459999998</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>382</v>
+      </c>
+      <c r="C198" t="n">
+        <v>384</v>
+      </c>
+      <c r="D198" t="n">
+        <v>384</v>
+      </c>
+      <c r="E198" t="n">
+        <v>382</v>
+      </c>
+      <c r="F198" t="n">
+        <v>82</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-98681.43459999998</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>383</v>
+      </c>
+      <c r="C199" t="n">
+        <v>383</v>
+      </c>
+      <c r="D199" t="n">
+        <v>383</v>
+      </c>
+      <c r="E199" t="n">
+        <v>383</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-98684.43459999998</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>380</v>
+      </c>
+      <c r="C200" t="n">
+        <v>383</v>
+      </c>
+      <c r="D200" t="n">
+        <v>383</v>
+      </c>
+      <c r="E200" t="n">
+        <v>379</v>
+      </c>
+      <c r="F200" t="n">
+        <v>940</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-98684.43459999998</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>379</v>
+      </c>
+      <c r="C201" t="n">
+        <v>379</v>
+      </c>
+      <c r="D201" t="n">
+        <v>379</v>
+      </c>
+      <c r="E201" t="n">
+        <v>379</v>
+      </c>
+      <c r="F201" t="n">
+        <v>374.3572</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-99058.79179999998</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>379</v>
+      </c>
+      <c r="C202" t="n">
+        <v>378</v>
+      </c>
+      <c r="D202" t="n">
+        <v>379</v>
+      </c>
+      <c r="E202" t="n">
+        <v>378</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1216.8465</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-100275.6383</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>379</v>
+      </c>
+      <c r="C203" t="n">
+        <v>383</v>
+      </c>
+      <c r="D203" t="n">
+        <v>383</v>
+      </c>
+      <c r="E203" t="n">
+        <v>378</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1764.8431</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-98510.79519999998</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>384</v>
+      </c>
+      <c r="C204" t="n">
+        <v>384</v>
+      </c>
+      <c r="D204" t="n">
+        <v>384</v>
+      </c>
+      <c r="E204" t="n">
+        <v>384</v>
+      </c>
+      <c r="F204" t="n">
+        <v>784.6875</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-97726.10769999998</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>384</v>
+      </c>
+      <c r="C205" t="n">
+        <v>384</v>
+      </c>
+      <c r="D205" t="n">
+        <v>384</v>
+      </c>
+      <c r="E205" t="n">
+        <v>384</v>
+      </c>
+      <c r="F205" t="n">
+        <v>8</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-97726.10769999998</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>385</v>
+      </c>
+      <c r="C206" t="n">
+        <v>385</v>
+      </c>
+      <c r="D206" t="n">
+        <v>385</v>
+      </c>
+      <c r="E206" t="n">
+        <v>385</v>
+      </c>
+      <c r="F206" t="n">
+        <v>91</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-97635.10769999998</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>381</v>
+      </c>
+      <c r="C207" t="n">
+        <v>385</v>
+      </c>
+      <c r="D207" t="n">
+        <v>385</v>
+      </c>
+      <c r="E207" t="n">
+        <v>381</v>
+      </c>
+      <c r="F207" t="n">
+        <v>116.2384</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-97635.10769999998</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>385</v>
+      </c>
+      <c r="C208" t="n">
+        <v>388</v>
+      </c>
+      <c r="D208" t="n">
+        <v>388</v>
+      </c>
+      <c r="E208" t="n">
+        <v>385</v>
+      </c>
+      <c r="F208" t="n">
+        <v>4185.0727</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-93450.03499999997</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>386</v>
+      </c>
+      <c r="C209" t="n">
+        <v>388</v>
+      </c>
+      <c r="D209" t="n">
+        <v>388</v>
+      </c>
+      <c r="E209" t="n">
+        <v>381</v>
+      </c>
+      <c r="F209" t="n">
+        <v>7367.4275</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-93450.03499999997</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>387</v>
+      </c>
+      <c r="C210" t="n">
+        <v>386</v>
+      </c>
+      <c r="D210" t="n">
+        <v>395</v>
+      </c>
+      <c r="E210" t="n">
+        <v>385</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2259.9099</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-95709.94489999997</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>394</v>
+      </c>
+      <c r="C211" t="n">
+        <v>385</v>
+      </c>
+      <c r="D211" t="n">
+        <v>395</v>
+      </c>
+      <c r="E211" t="n">
+        <v>385</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2108.1269</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-97818.07179999998</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>387</v>
+      </c>
+      <c r="C212" t="n">
+        <v>393</v>
+      </c>
+      <c r="D212" t="n">
+        <v>393</v>
+      </c>
+      <c r="E212" t="n">
+        <v>385</v>
+      </c>
+      <c r="F212" t="n">
+        <v>570.8462</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-97247.22559999998</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>393</v>
+      </c>
+      <c r="C213" t="n">
+        <v>396</v>
+      </c>
+      <c r="D213" t="n">
+        <v>396</v>
+      </c>
+      <c r="E213" t="n">
+        <v>386</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1558.6500904</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-95688.57550959998</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>388</v>
+      </c>
+      <c r="C214" t="n">
+        <v>395</v>
+      </c>
+      <c r="D214" t="n">
+        <v>395</v>
+      </c>
+      <c r="E214" t="n">
+        <v>386</v>
+      </c>
+      <c r="F214" t="n">
+        <v>152</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-95840.57550959998</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>390</v>
+      </c>
+      <c r="C215" t="n">
+        <v>386</v>
+      </c>
+      <c r="D215" t="n">
+        <v>396</v>
+      </c>
+      <c r="E215" t="n">
+        <v>386</v>
+      </c>
+      <c r="F215" t="n">
+        <v>610</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-96450.57550959998</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>395</v>
+      </c>
+      <c r="C216" t="n">
+        <v>395</v>
+      </c>
+      <c r="D216" t="n">
+        <v>396</v>
+      </c>
+      <c r="E216" t="n">
+        <v>388</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3501.5232</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-92949.05230959998</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>395</v>
+      </c>
+      <c r="C217" t="n">
+        <v>397</v>
+      </c>
+      <c r="D217" t="n">
+        <v>397</v>
+      </c>
+      <c r="E217" t="n">
+        <v>390</v>
+      </c>
+      <c r="F217" t="n">
+        <v>571</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-92378.05230959998</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>390</v>
+      </c>
+      <c r="C218" t="n">
+        <v>397</v>
+      </c>
+      <c r="D218" t="n">
+        <v>397</v>
+      </c>
+      <c r="E218" t="n">
+        <v>390</v>
+      </c>
+      <c r="F218" t="n">
+        <v>5966.9255</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-92378.05230959998</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>395</v>
+      </c>
+      <c r="C219" t="n">
+        <v>397</v>
+      </c>
+      <c r="D219" t="n">
+        <v>398</v>
+      </c>
+      <c r="E219" t="n">
+        <v>391</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3602.9435096</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-92378.05230959998</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>397</v>
+      </c>
+      <c r="C220" t="n">
+        <v>398</v>
+      </c>
+      <c r="D220" t="n">
+        <v>398</v>
+      </c>
+      <c r="E220" t="n">
+        <v>392</v>
+      </c>
+      <c r="F220" t="n">
+        <v>3267.4155</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-89110.63680959998</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>392</v>
+      </c>
+      <c r="C221" t="n">
+        <v>397</v>
+      </c>
+      <c r="D221" t="n">
+        <v>398</v>
+      </c>
+      <c r="E221" t="n">
+        <v>392</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1086.6467</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-90197.28350959998</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>392</v>
+      </c>
+      <c r="C222" t="n">
+        <v>397</v>
+      </c>
+      <c r="D222" t="n">
+        <v>397</v>
+      </c>
+      <c r="E222" t="n">
+        <v>390</v>
+      </c>
+      <c r="F222" t="n">
+        <v>6062.83</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-90197.28350959998</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>390</v>
+      </c>
+      <c r="C223" t="n">
+        <v>390</v>
+      </c>
+      <c r="D223" t="n">
+        <v>390</v>
+      </c>
+      <c r="E223" t="n">
+        <v>390</v>
+      </c>
+      <c r="F223" t="n">
+        <v>107.1559904</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-90304.43949999998</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>390</v>
+      </c>
+      <c r="C224" t="n">
+        <v>394</v>
+      </c>
+      <c r="D224" t="n">
+        <v>396</v>
+      </c>
+      <c r="E224" t="n">
+        <v>387</v>
+      </c>
+      <c r="F224" t="n">
+        <v>614.5713</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-89689.86819999998</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>387</v>
+      </c>
+      <c r="C225" t="n">
+        <v>386</v>
+      </c>
+      <c r="D225" t="n">
+        <v>396</v>
+      </c>
+      <c r="E225" t="n">
+        <v>386</v>
+      </c>
+      <c r="F225" t="n">
+        <v>14867.7867</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-104557.6549</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>386</v>
+      </c>
+      <c r="C226" t="n">
+        <v>393</v>
+      </c>
+      <c r="D226" t="n">
+        <v>393</v>
+      </c>
+      <c r="E226" t="n">
+        <v>386</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1509.7506</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-103047.9043</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>393</v>
+      </c>
+      <c r="C227" t="n">
+        <v>393</v>
+      </c>
+      <c r="D227" t="n">
+        <v>393</v>
+      </c>
+      <c r="E227" t="n">
+        <v>393</v>
+      </c>
+      <c r="F227" t="n">
+        <v>46</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-103047.9043</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>386</v>
+      </c>
+      <c r="C228" t="n">
+        <v>384</v>
+      </c>
+      <c r="D228" t="n">
+        <v>386</v>
+      </c>
+      <c r="E228" t="n">
+        <v>384</v>
+      </c>
+      <c r="F228" t="n">
+        <v>10886.4674</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-113934.3717</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>385</v>
+      </c>
+      <c r="C229" t="n">
+        <v>391</v>
+      </c>
+      <c r="D229" t="n">
+        <v>391</v>
+      </c>
+      <c r="E229" t="n">
+        <v>384</v>
+      </c>
+      <c r="F229" t="n">
+        <v>503.4153</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-113430.9564</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>384</v>
+      </c>
+      <c r="C230" t="n">
+        <v>384</v>
+      </c>
+      <c r="D230" t="n">
+        <v>384</v>
+      </c>
+      <c r="E230" t="n">
+        <v>384</v>
+      </c>
+      <c r="F230" t="n">
+        <v>99.9999</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-113530.9563</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>384</v>
+      </c>
+      <c r="C231" t="n">
+        <v>384</v>
+      </c>
+      <c r="D231" t="n">
+        <v>384</v>
+      </c>
+      <c r="E231" t="n">
+        <v>384</v>
+      </c>
+      <c r="F231" t="n">
+        <v>3936.0167</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-113530.9563</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>385</v>
+      </c>
+      <c r="C232" t="n">
+        <v>384</v>
+      </c>
+      <c r="D232" t="n">
+        <v>385</v>
+      </c>
+      <c r="E232" t="n">
+        <v>384</v>
+      </c>
+      <c r="F232" t="n">
+        <v>3417.8888</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-113530.9563</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>383</v>
+      </c>
+      <c r="C233" t="n">
+        <v>383</v>
+      </c>
+      <c r="D233" t="n">
+        <v>383</v>
+      </c>
+      <c r="E233" t="n">
+        <v>383</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1975.9347</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-115506.891</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>385</v>
+      </c>
+      <c r="C234" t="n">
+        <v>383</v>
+      </c>
+      <c r="D234" t="n">
+        <v>386</v>
+      </c>
+      <c r="E234" t="n">
+        <v>382</v>
+      </c>
+      <c r="F234" t="n">
+        <v>275.5614</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-115506.891</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>383</v>
+      </c>
+      <c r="C235" t="n">
+        <v>383</v>
+      </c>
+      <c r="D235" t="n">
+        <v>383</v>
+      </c>
+      <c r="E235" t="n">
+        <v>383</v>
+      </c>
+      <c r="F235" t="n">
+        <v>53.1305</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-115506.891</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>383</v>
+      </c>
+      <c r="C236" t="n">
+        <v>381</v>
+      </c>
+      <c r="D236" t="n">
+        <v>383</v>
+      </c>
+      <c r="E236" t="n">
+        <v>381</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2224.09</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-117730.981</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>381</v>
+      </c>
+      <c r="C237" t="n">
+        <v>381</v>
+      </c>
+      <c r="D237" t="n">
+        <v>381</v>
+      </c>
+      <c r="E237" t="n">
+        <v>381</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2778.4218</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-117730.981</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>383</v>
+      </c>
+      <c r="C238" t="n">
+        <v>386</v>
+      </c>
+      <c r="D238" t="n">
+        <v>386</v>
+      </c>
+      <c r="E238" t="n">
+        <v>383</v>
+      </c>
+      <c r="F238" t="n">
+        <v>150</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-117580.981</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>387</v>
+      </c>
+      <c r="C239" t="n">
+        <v>387</v>
+      </c>
+      <c r="D239" t="n">
+        <v>387</v>
+      </c>
+      <c r="E239" t="n">
+        <v>387</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-117579.981</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>384</v>
+      </c>
+      <c r="C240" t="n">
+        <v>384</v>
+      </c>
+      <c r="D240" t="n">
+        <v>384</v>
+      </c>
+      <c r="E240" t="n">
+        <v>384</v>
+      </c>
+      <c r="F240" t="n">
+        <v>312.2438</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-117892.2248</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>385</v>
+      </c>
+      <c r="C241" t="n">
+        <v>384</v>
+      </c>
+      <c r="D241" t="n">
+        <v>385</v>
+      </c>
+      <c r="E241" t="n">
+        <v>384</v>
+      </c>
+      <c r="F241" t="n">
+        <v>292.8699</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-117892.2248</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>385</v>
+      </c>
+      <c r="C242" t="n">
+        <v>385</v>
+      </c>
+      <c r="D242" t="n">
+        <v>385</v>
+      </c>
+      <c r="E242" t="n">
+        <v>385</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1.8701</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-117890.3547</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>385</v>
+      </c>
+      <c r="C243" t="n">
+        <v>385</v>
+      </c>
+      <c r="D243" t="n">
+        <v>385</v>
+      </c>
+      <c r="E243" t="n">
+        <v>385</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2830.2863</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-117890.3547</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>382</v>
+      </c>
+      <c r="C244" t="n">
+        <v>382</v>
+      </c>
+      <c r="D244" t="n">
+        <v>382</v>
+      </c>
+      <c r="E244" t="n">
+        <v>382</v>
+      </c>
+      <c r="F244" t="n">
+        <v>113</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-118003.3547</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>382</v>
+      </c>
+      <c r="C245" t="n">
+        <v>382</v>
+      </c>
+      <c r="D245" t="n">
+        <v>382</v>
+      </c>
+      <c r="E245" t="n">
+        <v>382</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1910.6159</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-118003.3547</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>382</v>
+      </c>
+      <c r="C246" t="n">
+        <v>382</v>
+      </c>
+      <c r="D246" t="n">
+        <v>382</v>
+      </c>
+      <c r="E246" t="n">
+        <v>382</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1989.4407</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-118003.3547</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>381</v>
+      </c>
+      <c r="C247" t="n">
+        <v>381</v>
+      </c>
+      <c r="D247" t="n">
+        <v>381</v>
+      </c>
+      <c r="E247" t="n">
+        <v>381</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1273.6123</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-119276.967</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>383</v>
+      </c>
+      <c r="C248" t="n">
+        <v>383</v>
+      </c>
+      <c r="D248" t="n">
+        <v>383</v>
+      </c>
+      <c r="E248" t="n">
+        <v>383</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-119275.967</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>383</v>
+      </c>
+      <c r="C249" t="n">
+        <v>383</v>
+      </c>
+      <c r="D249" t="n">
+        <v>383</v>
+      </c>
+      <c r="E249" t="n">
+        <v>383</v>
+      </c>
+      <c r="F249" t="n">
+        <v>31.5248</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-119275.967</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>383</v>
+      </c>
+      <c r="C250" t="n">
+        <v>383</v>
+      </c>
+      <c r="D250" t="n">
+        <v>383</v>
+      </c>
+      <c r="E250" t="n">
+        <v>383</v>
+      </c>
+      <c r="F250" t="n">
+        <v>56.7232</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-119275.967</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>381</v>
+      </c>
+      <c r="C251" t="n">
+        <v>384</v>
+      </c>
+      <c r="D251" t="n">
+        <v>384</v>
+      </c>
+      <c r="E251" t="n">
+        <v>377</v>
+      </c>
+      <c r="F251" t="n">
+        <v>10441.5284</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-108834.4386</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>381</v>
+      </c>
+      <c r="C252" t="n">
+        <v>381</v>
+      </c>
+      <c r="D252" t="n">
+        <v>381</v>
+      </c>
+      <c r="E252" t="n">
+        <v>381</v>
+      </c>
+      <c r="F252" t="n">
+        <v>63.0689</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-108897.5075</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>381</v>
+      </c>
+      <c r="C253" t="n">
+        <v>381</v>
+      </c>
+      <c r="D253" t="n">
+        <v>381</v>
+      </c>
+      <c r="E253" t="n">
+        <v>380</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2730.8019</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-108897.5075</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>381</v>
+      </c>
+      <c r="C254" t="n">
+        <v>384</v>
+      </c>
+      <c r="D254" t="n">
+        <v>384</v>
+      </c>
+      <c r="E254" t="n">
+        <v>380</v>
+      </c>
+      <c r="F254" t="n">
+        <v>5607.4142</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-103290.0933</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>382</v>
+      </c>
+      <c r="C255" t="n">
+        <v>381</v>
+      </c>
+      <c r="D255" t="n">
+        <v>382</v>
+      </c>
+      <c r="E255" t="n">
+        <v>381</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1717.1945</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-105007.2878</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>381</v>
+      </c>
+      <c r="C256" t="n">
+        <v>383</v>
+      </c>
+      <c r="D256" t="n">
+        <v>383</v>
+      </c>
+      <c r="E256" t="n">
+        <v>381</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-105006.2878</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>380</v>
+      </c>
+      <c r="C257" t="n">
+        <v>380</v>
+      </c>
+      <c r="D257" t="n">
+        <v>380</v>
+      </c>
+      <c r="E257" t="n">
+        <v>380</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1035.4485</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-106041.7363</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>380</v>
+      </c>
+      <c r="C258" t="n">
+        <v>380</v>
+      </c>
+      <c r="D258" t="n">
+        <v>380</v>
+      </c>
+      <c r="E258" t="n">
+        <v>380</v>
+      </c>
+      <c r="F258" t="n">
+        <v>3896.8311</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-106041.7363</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>380</v>
+      </c>
+      <c r="C259" t="n">
+        <v>380</v>
+      </c>
+      <c r="D259" t="n">
+        <v>380</v>
+      </c>
+      <c r="E259" t="n">
+        <v>380</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1592.6917</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-106041.7363</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>381</v>
+      </c>
+      <c r="C260" t="n">
+        <v>381</v>
+      </c>
+      <c r="D260" t="n">
+        <v>381</v>
+      </c>
+      <c r="E260" t="n">
+        <v>381</v>
+      </c>
+      <c r="F260" t="n">
+        <v>439.3517</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-105602.3846</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>381</v>
+      </c>
+      <c r="C261" t="n">
+        <v>381</v>
+      </c>
+      <c r="D261" t="n">
+        <v>381</v>
+      </c>
+      <c r="E261" t="n">
+        <v>381</v>
+      </c>
+      <c r="F261" t="n">
+        <v>71.9973</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-105602.3846</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>381</v>
+      </c>
+      <c r="C262" t="n">
+        <v>382</v>
+      </c>
+      <c r="D262" t="n">
+        <v>382</v>
+      </c>
+      <c r="E262" t="n">
+        <v>381</v>
+      </c>
+      <c r="F262" t="n">
+        <v>101</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-105501.3846</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>381</v>
+      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>372</v>
-      </c>
-      <c r="C138" t="n">
-        <v>372</v>
-      </c>
-      <c r="D138" t="n">
-        <v>372</v>
-      </c>
-      <c r="E138" t="n">
-        <v>372</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2946.0271</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-85156.09159999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>371</v>
-      </c>
-      <c r="J138" t="n">
-        <v>372</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>372</v>
-      </c>
-      <c r="C139" t="n">
-        <v>372</v>
-      </c>
-      <c r="D139" t="n">
-        <v>372</v>
-      </c>
-      <c r="E139" t="n">
-        <v>372</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2152.5099</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-85156.09159999999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>372</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>372</v>
-      </c>
-      <c r="C140" t="n">
-        <v>372</v>
-      </c>
-      <c r="D140" t="n">
-        <v>372</v>
-      </c>
-      <c r="E140" t="n">
-        <v>372</v>
-      </c>
-      <c r="F140" t="n">
-        <v>93.56999999999999</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-85156.09159999999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>372</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>372</v>
-      </c>
-      <c r="C141" t="n">
-        <v>372</v>
-      </c>
-      <c r="D141" t="n">
-        <v>372</v>
-      </c>
-      <c r="E141" t="n">
-        <v>372</v>
-      </c>
-      <c r="F141" t="n">
-        <v>303</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-85156.09159999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>372</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>372</v>
-      </c>
-      <c r="C142" t="n">
-        <v>372</v>
-      </c>
-      <c r="D142" t="n">
-        <v>372</v>
-      </c>
-      <c r="E142" t="n">
-        <v>372</v>
-      </c>
-      <c r="F142" t="n">
-        <v>871.4166</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-85156.09159999999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>372</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>375</v>
-      </c>
-      <c r="C143" t="n">
-        <v>375</v>
-      </c>
-      <c r="D143" t="n">
-        <v>375</v>
-      </c>
-      <c r="E143" t="n">
-        <v>375</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-85155.09159999999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>372</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>375</v>
-      </c>
-      <c r="C144" t="n">
-        <v>375</v>
-      </c>
-      <c r="D144" t="n">
-        <v>375</v>
-      </c>
-      <c r="E144" t="n">
-        <v>375</v>
-      </c>
-      <c r="F144" t="n">
-        <v>166.72</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-85155.09159999999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>372</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>380</v>
-      </c>
-      <c r="C145" t="n">
-        <v>380</v>
-      </c>
-      <c r="D145" t="n">
-        <v>380</v>
-      </c>
-      <c r="E145" t="n">
-        <v>380</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-85154.09159999999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>372</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>375</v>
-      </c>
-      <c r="C146" t="n">
-        <v>375</v>
-      </c>
-      <c r="D146" t="n">
-        <v>375</v>
-      </c>
-      <c r="E146" t="n">
-        <v>375</v>
-      </c>
-      <c r="F146" t="n">
-        <v>305.7705</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-85459.86209999998</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>372</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>375</v>
-      </c>
-      <c r="C147" t="n">
-        <v>375</v>
-      </c>
-      <c r="D147" t="n">
-        <v>375</v>
-      </c>
-      <c r="E147" t="n">
-        <v>375</v>
-      </c>
-      <c r="F147" t="n">
-        <v>292.6999</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-85459.86209999998</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>372</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>375</v>
-      </c>
-      <c r="C148" t="n">
-        <v>375</v>
-      </c>
-      <c r="D148" t="n">
-        <v>375</v>
-      </c>
-      <c r="E148" t="n">
-        <v>375</v>
-      </c>
-      <c r="F148" t="n">
-        <v>585.4003</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-85459.86209999998</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>372</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>375</v>
-      </c>
-      <c r="C149" t="n">
-        <v>375</v>
-      </c>
-      <c r="D149" t="n">
-        <v>375</v>
-      </c>
-      <c r="E149" t="n">
-        <v>375</v>
-      </c>
-      <c r="F149" t="n">
-        <v>274.8634</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-85459.86209999998</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>372</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>375</v>
-      </c>
-      <c r="C150" t="n">
-        <v>375</v>
-      </c>
-      <c r="D150" t="n">
-        <v>375</v>
-      </c>
-      <c r="E150" t="n">
-        <v>375</v>
-      </c>
-      <c r="F150" t="n">
-        <v>292.6998</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-85459.86209999998</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>372</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>375</v>
-      </c>
-      <c r="C151" t="n">
-        <v>375</v>
-      </c>
-      <c r="D151" t="n">
-        <v>375</v>
-      </c>
-      <c r="E151" t="n">
-        <v>375</v>
-      </c>
-      <c r="F151" t="n">
-        <v>625.9405</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-85459.86209999998</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>372</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>379</v>
-      </c>
-      <c r="C152" t="n">
-        <v>379</v>
-      </c>
-      <c r="D152" t="n">
-        <v>379</v>
-      </c>
-      <c r="E152" t="n">
-        <v>379</v>
-      </c>
-      <c r="F152" t="n">
-        <v>26.6666</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-85433.19549999999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>372</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>374</v>
-      </c>
-      <c r="C153" t="n">
-        <v>374</v>
-      </c>
-      <c r="D153" t="n">
-        <v>374</v>
-      </c>
-      <c r="E153" t="n">
-        <v>374</v>
-      </c>
-      <c r="F153" t="n">
-        <v>153.2</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-85586.39549999998</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>372</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>378</v>
-      </c>
-      <c r="C154" t="n">
-        <v>374</v>
-      </c>
-      <c r="D154" t="n">
-        <v>378</v>
-      </c>
-      <c r="E154" t="n">
-        <v>374</v>
-      </c>
-      <c r="F154" t="n">
-        <v>1615.9266</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-85586.39549999998</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>372</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>379</v>
-      </c>
-      <c r="C155" t="n">
-        <v>379</v>
-      </c>
-      <c r="D155" t="n">
-        <v>379</v>
-      </c>
-      <c r="E155" t="n">
-        <v>379</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2699</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-82887.39549999998</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>372</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>378</v>
-      </c>
-      <c r="C156" t="n">
-        <v>373</v>
-      </c>
-      <c r="D156" t="n">
-        <v>378</v>
-      </c>
-      <c r="E156" t="n">
-        <v>373</v>
-      </c>
-      <c r="F156" t="n">
-        <v>4970.9301</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-87858.32559999998</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>372</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>377</v>
-      </c>
-      <c r="C157" t="n">
-        <v>377</v>
-      </c>
-      <c r="D157" t="n">
-        <v>377</v>
-      </c>
-      <c r="E157" t="n">
-        <v>377</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-87857.32559999998</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>372</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>375</v>
-      </c>
-      <c r="C158" t="n">
-        <v>375</v>
-      </c>
-      <c r="D158" t="n">
-        <v>375</v>
-      </c>
-      <c r="E158" t="n">
-        <v>375</v>
-      </c>
-      <c r="F158" t="n">
-        <v>2020</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-89877.32559999998</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>372</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>374</v>
-      </c>
-      <c r="C159" t="n">
-        <v>374</v>
-      </c>
-      <c r="D159" t="n">
-        <v>374</v>
-      </c>
-      <c r="E159" t="n">
-        <v>374</v>
-      </c>
-      <c r="F159" t="n">
-        <v>3206.5361</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-93083.86169999998</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>372</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>372</v>
-      </c>
-      <c r="C160" t="n">
-        <v>377</v>
-      </c>
-      <c r="D160" t="n">
-        <v>377</v>
-      </c>
-      <c r="E160" t="n">
-        <v>372</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1070.9266</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-92012.93509999997</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>372</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>371</v>
-      </c>
-      <c r="C161" t="n">
-        <v>375</v>
-      </c>
-      <c r="D161" t="n">
-        <v>375</v>
-      </c>
-      <c r="E161" t="n">
-        <v>371</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2823.361</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-94836.29609999998</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>372</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>375</v>
-      </c>
-      <c r="C162" t="n">
-        <v>375</v>
-      </c>
-      <c r="D162" t="n">
-        <v>375</v>
-      </c>
-      <c r="E162" t="n">
-        <v>375</v>
-      </c>
-      <c r="F162" t="n">
-        <v>26.6666</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-94836.29609999998</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>372</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>373</v>
-      </c>
-      <c r="C163" t="n">
-        <v>373</v>
-      </c>
-      <c r="D163" t="n">
-        <v>374</v>
-      </c>
-      <c r="E163" t="n">
-        <v>368</v>
-      </c>
-      <c r="F163" t="n">
-        <v>3905.097</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-98741.39309999997</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>372</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>375</v>
-      </c>
-      <c r="C164" t="n">
-        <v>375</v>
-      </c>
-      <c r="D164" t="n">
-        <v>375</v>
-      </c>
-      <c r="E164" t="n">
-        <v>375</v>
-      </c>
-      <c r="F164" t="n">
-        <v>144</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-98597.39309999997</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>372</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>375</v>
-      </c>
-      <c r="C165" t="n">
-        <v>380</v>
-      </c>
-      <c r="D165" t="n">
-        <v>380</v>
-      </c>
-      <c r="E165" t="n">
-        <v>375</v>
-      </c>
-      <c r="F165" t="n">
-        <v>2009</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-96588.39309999997</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>372</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>375</v>
-      </c>
-      <c r="C166" t="n">
-        <v>375</v>
-      </c>
-      <c r="D166" t="n">
-        <v>375</v>
-      </c>
-      <c r="E166" t="n">
-        <v>375</v>
-      </c>
-      <c r="F166" t="n">
-        <v>185.7204</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-96774.11349999998</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>372</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>380</v>
-      </c>
-      <c r="C167" t="n">
-        <v>380</v>
-      </c>
-      <c r="D167" t="n">
-        <v>380</v>
-      </c>
-      <c r="E167" t="n">
-        <v>380</v>
-      </c>
-      <c r="F167" t="n">
-        <v>66</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-96708.11349999998</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>372</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>380</v>
-      </c>
-      <c r="C168" t="n">
-        <v>380</v>
-      </c>
-      <c r="D168" t="n">
-        <v>380</v>
-      </c>
-      <c r="E168" t="n">
-        <v>380</v>
-      </c>
-      <c r="F168" t="n">
-        <v>50.1789</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-96708.11349999998</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>372</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>380</v>
-      </c>
-      <c r="C169" t="n">
-        <v>380</v>
-      </c>
-      <c r="D169" t="n">
-        <v>380</v>
-      </c>
-      <c r="E169" t="n">
-        <v>380</v>
-      </c>
-      <c r="F169" t="n">
-        <v>26.3157</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-96708.11349999998</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>372</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>377</v>
-      </c>
-      <c r="C170" t="n">
-        <v>377</v>
-      </c>
-      <c r="D170" t="n">
-        <v>377</v>
-      </c>
-      <c r="E170" t="n">
-        <v>374</v>
-      </c>
-      <c r="F170" t="n">
-        <v>171</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-96879.11349999998</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>372</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>379</v>
-      </c>
-      <c r="C171" t="n">
-        <v>379</v>
-      </c>
-      <c r="D171" t="n">
-        <v>379</v>
-      </c>
-      <c r="E171" t="n">
-        <v>379</v>
-      </c>
-      <c r="F171" t="n">
-        <v>13</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-96866.11349999998</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>372</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>372</v>
-      </c>
-      <c r="C172" t="n">
-        <v>379</v>
-      </c>
-      <c r="D172" t="n">
-        <v>379</v>
-      </c>
-      <c r="E172" t="n">
-        <v>372</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1859.7856</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-96866.11349999998</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>372</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>378</v>
-      </c>
-      <c r="C173" t="n">
-        <v>377</v>
-      </c>
-      <c r="D173" t="n">
-        <v>378</v>
-      </c>
-      <c r="E173" t="n">
-        <v>369</v>
-      </c>
-      <c r="F173" t="n">
-        <v>118.9483</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-96985.06179999998</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>372</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>369</v>
-      </c>
-      <c r="C174" t="n">
-        <v>369</v>
-      </c>
-      <c r="D174" t="n">
-        <v>369</v>
-      </c>
-      <c r="E174" t="n">
-        <v>369</v>
-      </c>
-      <c r="F174" t="n">
-        <v>4100</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-101085.0618</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>372</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>375</v>
-      </c>
-      <c r="C175" t="n">
-        <v>375</v>
-      </c>
-      <c r="D175" t="n">
-        <v>375</v>
-      </c>
-      <c r="E175" t="n">
-        <v>375</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-101084.0618</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>372</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>374</v>
-      </c>
-      <c r="C176" t="n">
-        <v>374</v>
-      </c>
-      <c r="D176" t="n">
-        <v>374</v>
-      </c>
-      <c r="E176" t="n">
-        <v>374</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1186</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-102270.0618</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>372</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>374</v>
-      </c>
-      <c r="C177" t="n">
-        <v>374</v>
-      </c>
-      <c r="D177" t="n">
-        <v>374</v>
-      </c>
-      <c r="E177" t="n">
-        <v>374</v>
-      </c>
-      <c r="F177" t="n">
-        <v>2218.3651</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-102270.0618</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>372</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>375</v>
-      </c>
-      <c r="C178" t="n">
-        <v>375</v>
-      </c>
-      <c r="D178" t="n">
-        <v>375</v>
-      </c>
-      <c r="E178" t="n">
-        <v>375</v>
-      </c>
-      <c r="F178" t="n">
-        <v>22</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-102248.0618</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>372</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>374</v>
-      </c>
-      <c r="C179" t="n">
-        <v>374</v>
-      </c>
-      <c r="D179" t="n">
-        <v>374</v>
-      </c>
-      <c r="E179" t="n">
-        <v>374</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1047.4367</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-103295.4985</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>375</v>
-      </c>
-      <c r="J179" t="n">
-        <v>372</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>376</v>
-      </c>
-      <c r="C180" t="n">
-        <v>376</v>
-      </c>
-      <c r="D180" t="n">
-        <v>376</v>
-      </c>
-      <c r="E180" t="n">
-        <v>376</v>
-      </c>
-      <c r="F180" t="n">
-        <v>33</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-103262.4985</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>374</v>
-      </c>
-      <c r="J180" t="n">
-        <v>372</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>375</v>
-      </c>
-      <c r="C181" t="n">
-        <v>375</v>
-      </c>
-      <c r="D181" t="n">
-        <v>375</v>
-      </c>
-      <c r="E181" t="n">
-        <v>375</v>
-      </c>
-      <c r="F181" t="n">
-        <v>50</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-103312.4985</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>376</v>
-      </c>
-      <c r="J181" t="n">
-        <v>372</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>375</v>
-      </c>
-      <c r="C182" t="n">
-        <v>374</v>
-      </c>
-      <c r="D182" t="n">
-        <v>375</v>
-      </c>
-      <c r="E182" t="n">
-        <v>374</v>
-      </c>
-      <c r="F182" t="n">
-        <v>395.6195</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-103708.118</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>375</v>
-      </c>
-      <c r="J182" t="n">
-        <v>372</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>375</v>
-      </c>
-      <c r="C183" t="n">
-        <v>375</v>
-      </c>
-      <c r="D183" t="n">
-        <v>375</v>
-      </c>
-      <c r="E183" t="n">
-        <v>375</v>
-      </c>
-      <c r="F183" t="n">
-        <v>1</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-103707.118</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>374</v>
-      </c>
-      <c r="J183" t="n">
-        <v>372</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>374</v>
-      </c>
-      <c r="C184" t="n">
-        <v>374</v>
-      </c>
-      <c r="D184" t="n">
-        <v>374</v>
-      </c>
-      <c r="E184" t="n">
-        <v>374</v>
-      </c>
-      <c r="F184" t="n">
-        <v>50</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-103757.118</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>375</v>
-      </c>
-      <c r="J184" t="n">
-        <v>372</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>374</v>
-      </c>
-      <c r="C185" t="n">
-        <v>375</v>
-      </c>
-      <c r="D185" t="n">
-        <v>375</v>
-      </c>
-      <c r="E185" t="n">
-        <v>374</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1394.6669</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-102362.4511</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>374</v>
-      </c>
-      <c r="J185" t="n">
-        <v>372</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>375</v>
-      </c>
-      <c r="C186" t="n">
-        <v>375</v>
-      </c>
-      <c r="D186" t="n">
-        <v>375</v>
-      </c>
-      <c r="E186" t="n">
-        <v>375</v>
-      </c>
-      <c r="F186" t="n">
-        <v>82.56</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-102362.4511</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>375</v>
-      </c>
-      <c r="J186" t="n">
-        <v>372</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>374</v>
-      </c>
-      <c r="C187" t="n">
-        <v>375</v>
-      </c>
-      <c r="D187" t="n">
-        <v>375</v>
-      </c>
-      <c r="E187" t="n">
-        <v>374</v>
-      </c>
-      <c r="F187" t="n">
-        <v>3561.6985</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-102362.4511</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>375</v>
-      </c>
-      <c r="J187" t="n">
-        <v>372</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>376</v>
-      </c>
-      <c r="C188" t="n">
-        <v>376</v>
-      </c>
-      <c r="D188" t="n">
-        <v>376</v>
-      </c>
-      <c r="E188" t="n">
-        <v>376</v>
-      </c>
-      <c r="F188" t="n">
-        <v>229.767</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-102132.6841</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>375</v>
-      </c>
-      <c r="J188" t="n">
-        <v>372</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>376</v>
-      </c>
-      <c r="C189" t="n">
-        <v>376</v>
-      </c>
-      <c r="D189" t="n">
-        <v>376</v>
-      </c>
-      <c r="E189" t="n">
-        <v>376</v>
-      </c>
-      <c r="F189" t="n">
-        <v>754</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-102132.6841</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>376</v>
-      </c>
-      <c r="J189" t="n">
-        <v>372</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>376</v>
-      </c>
-      <c r="C190" t="n">
-        <v>376</v>
-      </c>
-      <c r="D190" t="n">
-        <v>376</v>
-      </c>
-      <c r="E190" t="n">
-        <v>376</v>
-      </c>
-      <c r="F190" t="n">
-        <v>4917.3019</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-102132.6841</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>376</v>
-      </c>
-      <c r="J190" t="n">
-        <v>372</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>377</v>
-      </c>
-      <c r="C191" t="n">
-        <v>377</v>
-      </c>
-      <c r="D191" t="n">
-        <v>377</v>
-      </c>
-      <c r="E191" t="n">
-        <v>377</v>
-      </c>
-      <c r="F191" t="n">
-        <v>818.9605</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-101313.7236</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>376</v>
-      </c>
-      <c r="J191" t="n">
-        <v>372</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>379</v>
-      </c>
-      <c r="C192" t="n">
-        <v>379</v>
-      </c>
-      <c r="D192" t="n">
-        <v>379</v>
-      </c>
-      <c r="E192" t="n">
-        <v>379</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-101312.7236</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>377</v>
-      </c>
-      <c r="J192" t="n">
-        <v>372</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>379</v>
-      </c>
-      <c r="C193" t="n">
-        <v>379</v>
-      </c>
-      <c r="D193" t="n">
-        <v>379</v>
-      </c>
-      <c r="E193" t="n">
-        <v>379</v>
-      </c>
-      <c r="F193" t="n">
-        <v>719</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-101312.7236</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>372</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>379</v>
-      </c>
-      <c r="C194" t="n">
-        <v>379</v>
-      </c>
-      <c r="D194" t="n">
-        <v>379</v>
-      </c>
-      <c r="E194" t="n">
-        <v>379</v>
-      </c>
-      <c r="F194" t="n">
-        <v>80.8009</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-101312.7236</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>372</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>380</v>
-      </c>
-      <c r="C195" t="n">
-        <v>380</v>
-      </c>
-      <c r="D195" t="n">
-        <v>380</v>
-      </c>
-      <c r="E195" t="n">
-        <v>380</v>
-      </c>
-      <c r="F195" t="n">
-        <v>363</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-100949.7236</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>372</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>380</v>
-      </c>
-      <c r="C196" t="n">
-        <v>381</v>
-      </c>
-      <c r="D196" t="n">
-        <v>381</v>
-      </c>
-      <c r="E196" t="n">
-        <v>380</v>
-      </c>
-      <c r="F196" t="n">
-        <v>1005.9019</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-99943.82169999999</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>372</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>381</v>
-      </c>
-      <c r="C197" t="n">
-        <v>383</v>
-      </c>
-      <c r="D197" t="n">
-        <v>383</v>
-      </c>
-      <c r="E197" t="n">
-        <v>381</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1180.3871</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-98763.43459999998</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>372</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>382</v>
-      </c>
-      <c r="C198" t="n">
-        <v>384</v>
-      </c>
-      <c r="D198" t="n">
-        <v>384</v>
-      </c>
-      <c r="E198" t="n">
-        <v>382</v>
-      </c>
-      <c r="F198" t="n">
-        <v>82</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-98681.43459999998</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>372</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>383</v>
-      </c>
-      <c r="C199" t="n">
-        <v>383</v>
-      </c>
-      <c r="D199" t="n">
-        <v>383</v>
-      </c>
-      <c r="E199" t="n">
-        <v>383</v>
-      </c>
-      <c r="F199" t="n">
-        <v>3</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-98684.43459999998</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>372</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>380</v>
-      </c>
-      <c r="C200" t="n">
-        <v>383</v>
-      </c>
-      <c r="D200" t="n">
-        <v>383</v>
-      </c>
-      <c r="E200" t="n">
-        <v>379</v>
-      </c>
-      <c r="F200" t="n">
-        <v>940</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-98684.43459999998</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>372</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>379</v>
-      </c>
-      <c r="C201" t="n">
-        <v>379</v>
-      </c>
-      <c r="D201" t="n">
-        <v>379</v>
-      </c>
-      <c r="E201" t="n">
-        <v>379</v>
-      </c>
-      <c r="F201" t="n">
-        <v>374.3572</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-99058.79179999998</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>372</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>379</v>
-      </c>
-      <c r="C202" t="n">
-        <v>378</v>
-      </c>
-      <c r="D202" t="n">
-        <v>379</v>
-      </c>
-      <c r="E202" t="n">
-        <v>378</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1216.8465</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-100275.6383</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>372</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>379</v>
-      </c>
-      <c r="C203" t="n">
-        <v>383</v>
-      </c>
-      <c r="D203" t="n">
-        <v>383</v>
-      </c>
-      <c r="E203" t="n">
-        <v>378</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1764.8431</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-98510.79519999998</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>372</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>384</v>
-      </c>
-      <c r="C204" t="n">
-        <v>384</v>
-      </c>
-      <c r="D204" t="n">
-        <v>384</v>
-      </c>
-      <c r="E204" t="n">
-        <v>384</v>
-      </c>
-      <c r="F204" t="n">
-        <v>784.6875</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-97726.10769999998</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>372</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>384</v>
-      </c>
-      <c r="C205" t="n">
-        <v>384</v>
-      </c>
-      <c r="D205" t="n">
-        <v>384</v>
-      </c>
-      <c r="E205" t="n">
-        <v>384</v>
-      </c>
-      <c r="F205" t="n">
-        <v>8</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-97726.10769999998</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>372</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>385</v>
-      </c>
-      <c r="C206" t="n">
-        <v>385</v>
-      </c>
-      <c r="D206" t="n">
-        <v>385</v>
-      </c>
-      <c r="E206" t="n">
-        <v>385</v>
-      </c>
-      <c r="F206" t="n">
-        <v>91</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-97635.10769999998</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>372</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>381</v>
-      </c>
-      <c r="C207" t="n">
-        <v>385</v>
-      </c>
-      <c r="D207" t="n">
-        <v>385</v>
-      </c>
-      <c r="E207" t="n">
-        <v>381</v>
-      </c>
-      <c r="F207" t="n">
-        <v>116.2384</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-97635.10769999998</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>372</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>385</v>
-      </c>
-      <c r="C208" t="n">
-        <v>388</v>
-      </c>
-      <c r="D208" t="n">
-        <v>388</v>
-      </c>
-      <c r="E208" t="n">
-        <v>385</v>
-      </c>
-      <c r="F208" t="n">
-        <v>4185.0727</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-93450.03499999997</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>372</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>386</v>
-      </c>
-      <c r="C209" t="n">
-        <v>388</v>
-      </c>
-      <c r="D209" t="n">
-        <v>388</v>
-      </c>
-      <c r="E209" t="n">
-        <v>381</v>
-      </c>
-      <c r="F209" t="n">
-        <v>7367.4275</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-93450.03499999997</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>372</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>387</v>
-      </c>
-      <c r="C210" t="n">
-        <v>386</v>
-      </c>
-      <c r="D210" t="n">
-        <v>395</v>
-      </c>
-      <c r="E210" t="n">
-        <v>385</v>
-      </c>
-      <c r="F210" t="n">
-        <v>2259.9099</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-95709.94489999997</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>372</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>394</v>
-      </c>
-      <c r="C211" t="n">
-        <v>385</v>
-      </c>
-      <c r="D211" t="n">
-        <v>395</v>
-      </c>
-      <c r="E211" t="n">
-        <v>385</v>
-      </c>
-      <c r="F211" t="n">
-        <v>2108.1269</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-97818.07179999998</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>372</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>387</v>
-      </c>
-      <c r="C212" t="n">
-        <v>393</v>
-      </c>
-      <c r="D212" t="n">
-        <v>393</v>
-      </c>
-      <c r="E212" t="n">
-        <v>385</v>
-      </c>
-      <c r="F212" t="n">
-        <v>570.8462</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-97247.22559999998</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>372</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>393</v>
-      </c>
-      <c r="C213" t="n">
-        <v>396</v>
-      </c>
-      <c r="D213" t="n">
-        <v>396</v>
-      </c>
-      <c r="E213" t="n">
-        <v>386</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1558.6500904</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-95688.57550959998</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>372</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>388</v>
-      </c>
-      <c r="C214" t="n">
-        <v>395</v>
-      </c>
-      <c r="D214" t="n">
-        <v>395</v>
-      </c>
-      <c r="E214" t="n">
-        <v>386</v>
-      </c>
-      <c r="F214" t="n">
-        <v>152</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-95840.57550959998</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>372</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>390</v>
-      </c>
-      <c r="C215" t="n">
-        <v>386</v>
-      </c>
-      <c r="D215" t="n">
-        <v>396</v>
-      </c>
-      <c r="E215" t="n">
-        <v>386</v>
-      </c>
-      <c r="F215" t="n">
-        <v>610</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-96450.57550959998</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>372</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>395</v>
-      </c>
-      <c r="C216" t="n">
-        <v>395</v>
-      </c>
-      <c r="D216" t="n">
-        <v>396</v>
-      </c>
-      <c r="E216" t="n">
-        <v>388</v>
-      </c>
-      <c r="F216" t="n">
-        <v>3501.5232</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-92949.05230959998</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>372</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>395</v>
-      </c>
-      <c r="C217" t="n">
-        <v>397</v>
-      </c>
-      <c r="D217" t="n">
-        <v>397</v>
-      </c>
-      <c r="E217" t="n">
-        <v>390</v>
-      </c>
-      <c r="F217" t="n">
-        <v>571</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-92378.05230959998</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>372</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>390</v>
-      </c>
-      <c r="C218" t="n">
-        <v>397</v>
-      </c>
-      <c r="D218" t="n">
-        <v>397</v>
-      </c>
-      <c r="E218" t="n">
-        <v>390</v>
-      </c>
-      <c r="F218" t="n">
-        <v>5966.9255</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-92378.05230959998</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>372</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>395</v>
-      </c>
-      <c r="C219" t="n">
-        <v>397</v>
-      </c>
-      <c r="D219" t="n">
-        <v>398</v>
-      </c>
-      <c r="E219" t="n">
-        <v>391</v>
-      </c>
-      <c r="F219" t="n">
-        <v>3602.9435096</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-92378.05230959998</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>372</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>397</v>
-      </c>
-      <c r="C220" t="n">
-        <v>398</v>
-      </c>
-      <c r="D220" t="n">
-        <v>398</v>
-      </c>
-      <c r="E220" t="n">
-        <v>392</v>
-      </c>
-      <c r="F220" t="n">
-        <v>3267.4155</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-89110.63680959998</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>372</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>392</v>
-      </c>
-      <c r="C221" t="n">
-        <v>397</v>
-      </c>
-      <c r="D221" t="n">
-        <v>398</v>
-      </c>
-      <c r="E221" t="n">
-        <v>392</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1086.6467</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-90197.28350959998</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>372</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>392</v>
-      </c>
-      <c r="C222" t="n">
-        <v>397</v>
-      </c>
-      <c r="D222" t="n">
-        <v>397</v>
-      </c>
-      <c r="E222" t="n">
-        <v>390</v>
-      </c>
-      <c r="F222" t="n">
-        <v>6062.83</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-90197.28350959998</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>372</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>390</v>
-      </c>
-      <c r="C223" t="n">
-        <v>390</v>
-      </c>
-      <c r="D223" t="n">
-        <v>390</v>
-      </c>
-      <c r="E223" t="n">
-        <v>390</v>
-      </c>
-      <c r="F223" t="n">
-        <v>107.1559904</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-90304.43949999998</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>372</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>390</v>
-      </c>
-      <c r="C224" t="n">
-        <v>394</v>
-      </c>
-      <c r="D224" t="n">
-        <v>396</v>
-      </c>
-      <c r="E224" t="n">
-        <v>387</v>
-      </c>
-      <c r="F224" t="n">
-        <v>614.5713</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-89689.86819999998</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>372</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>387</v>
-      </c>
-      <c r="C225" t="n">
-        <v>386</v>
-      </c>
-      <c r="D225" t="n">
-        <v>396</v>
-      </c>
-      <c r="E225" t="n">
-        <v>386</v>
-      </c>
-      <c r="F225" t="n">
-        <v>14867.7867</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-104557.6549</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>372</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>386</v>
-      </c>
-      <c r="C226" t="n">
-        <v>393</v>
-      </c>
-      <c r="D226" t="n">
-        <v>393</v>
-      </c>
-      <c r="E226" t="n">
-        <v>386</v>
-      </c>
-      <c r="F226" t="n">
-        <v>1509.7506</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-103047.9043</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>372</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>393</v>
-      </c>
-      <c r="C227" t="n">
-        <v>393</v>
-      </c>
-      <c r="D227" t="n">
-        <v>393</v>
-      </c>
-      <c r="E227" t="n">
-        <v>393</v>
-      </c>
-      <c r="F227" t="n">
-        <v>46</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-103047.9043</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>372</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>386</v>
-      </c>
-      <c r="C228" t="n">
-        <v>384</v>
-      </c>
-      <c r="D228" t="n">
-        <v>386</v>
-      </c>
-      <c r="E228" t="n">
-        <v>384</v>
-      </c>
-      <c r="F228" t="n">
-        <v>10886.4674</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-113934.3717</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>372</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>385</v>
-      </c>
-      <c r="C229" t="n">
-        <v>391</v>
-      </c>
-      <c r="D229" t="n">
-        <v>391</v>
-      </c>
-      <c r="E229" t="n">
-        <v>384</v>
-      </c>
-      <c r="F229" t="n">
-        <v>503.4153</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-113430.9564</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>372</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>384</v>
-      </c>
-      <c r="C230" t="n">
-        <v>384</v>
-      </c>
-      <c r="D230" t="n">
-        <v>384</v>
-      </c>
-      <c r="E230" t="n">
-        <v>384</v>
-      </c>
-      <c r="F230" t="n">
-        <v>99.9999</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-113530.9563</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>372</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>384</v>
-      </c>
-      <c r="C231" t="n">
-        <v>384</v>
-      </c>
-      <c r="D231" t="n">
-        <v>384</v>
-      </c>
-      <c r="E231" t="n">
-        <v>384</v>
-      </c>
-      <c r="F231" t="n">
-        <v>3936.0167</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-113530.9563</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>372</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>385</v>
-      </c>
-      <c r="C232" t="n">
-        <v>384</v>
-      </c>
-      <c r="D232" t="n">
-        <v>385</v>
-      </c>
-      <c r="E232" t="n">
-        <v>384</v>
-      </c>
-      <c r="F232" t="n">
-        <v>3417.8888</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-113530.9563</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>372</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>383</v>
-      </c>
-      <c r="C233" t="n">
-        <v>383</v>
-      </c>
-      <c r="D233" t="n">
-        <v>383</v>
-      </c>
-      <c r="E233" t="n">
-        <v>383</v>
-      </c>
-      <c r="F233" t="n">
-        <v>1975.9347</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-115506.891</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>372</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>385</v>
-      </c>
-      <c r="C234" t="n">
-        <v>383</v>
-      </c>
-      <c r="D234" t="n">
-        <v>386</v>
-      </c>
-      <c r="E234" t="n">
-        <v>382</v>
-      </c>
-      <c r="F234" t="n">
-        <v>275.5614</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-115506.891</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>372</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>383</v>
-      </c>
-      <c r="C235" t="n">
-        <v>383</v>
-      </c>
-      <c r="D235" t="n">
-        <v>383</v>
-      </c>
-      <c r="E235" t="n">
-        <v>383</v>
-      </c>
-      <c r="F235" t="n">
-        <v>53.1305</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-115506.891</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>383</v>
-      </c>
-      <c r="J235" t="n">
-        <v>372</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>383</v>
-      </c>
-      <c r="C236" t="n">
-        <v>381</v>
-      </c>
-      <c r="D236" t="n">
-        <v>383</v>
-      </c>
-      <c r="E236" t="n">
-        <v>381</v>
-      </c>
-      <c r="F236" t="n">
-        <v>2224.09</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-117730.981</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>383</v>
-      </c>
-      <c r="J236" t="n">
-        <v>372</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>381</v>
-      </c>
-      <c r="C237" t="n">
-        <v>381</v>
-      </c>
-      <c r="D237" t="n">
-        <v>381</v>
-      </c>
-      <c r="E237" t="n">
-        <v>381</v>
-      </c>
-      <c r="F237" t="n">
-        <v>2778.4218</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-117730.981</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>381</v>
-      </c>
-      <c r="J237" t="n">
-        <v>372</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>383</v>
-      </c>
-      <c r="C238" t="n">
-        <v>386</v>
-      </c>
-      <c r="D238" t="n">
-        <v>386</v>
-      </c>
-      <c r="E238" t="n">
-        <v>383</v>
-      </c>
-      <c r="F238" t="n">
-        <v>150</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-117580.981</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>381</v>
-      </c>
-      <c r="J238" t="n">
-        <v>372</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>387</v>
-      </c>
-      <c r="C239" t="n">
-        <v>387</v>
-      </c>
-      <c r="D239" t="n">
-        <v>387</v>
-      </c>
-      <c r="E239" t="n">
-        <v>387</v>
-      </c>
-      <c r="F239" t="n">
-        <v>1</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-117579.981</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>386</v>
-      </c>
-      <c r="J239" t="n">
-        <v>372</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>384</v>
-      </c>
-      <c r="C240" t="n">
-        <v>384</v>
-      </c>
-      <c r="D240" t="n">
-        <v>384</v>
-      </c>
-      <c r="E240" t="n">
-        <v>384</v>
-      </c>
-      <c r="F240" t="n">
-        <v>312.2438</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-117892.2248</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>372</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>385</v>
-      </c>
-      <c r="C241" t="n">
-        <v>384</v>
-      </c>
-      <c r="D241" t="n">
-        <v>385</v>
-      </c>
-      <c r="E241" t="n">
-        <v>384</v>
-      </c>
-      <c r="F241" t="n">
-        <v>292.8699</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-117892.2248</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>372</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>385</v>
-      </c>
-      <c r="C242" t="n">
-        <v>385</v>
-      </c>
-      <c r="D242" t="n">
-        <v>385</v>
-      </c>
-      <c r="E242" t="n">
-        <v>385</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1.8701</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-117890.3547</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>372</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>385</v>
-      </c>
-      <c r="C243" t="n">
-        <v>385</v>
-      </c>
-      <c r="D243" t="n">
-        <v>385</v>
-      </c>
-      <c r="E243" t="n">
-        <v>385</v>
-      </c>
-      <c r="F243" t="n">
-        <v>2830.2863</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-117890.3547</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>372</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>382</v>
-      </c>
-      <c r="C244" t="n">
-        <v>382</v>
-      </c>
-      <c r="D244" t="n">
-        <v>382</v>
-      </c>
-      <c r="E244" t="n">
-        <v>382</v>
-      </c>
-      <c r="F244" t="n">
-        <v>113</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-118003.3547</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>372</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>382</v>
-      </c>
-      <c r="C245" t="n">
-        <v>382</v>
-      </c>
-      <c r="D245" t="n">
-        <v>382</v>
-      </c>
-      <c r="E245" t="n">
-        <v>382</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1910.6159</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-118003.3547</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>372</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>382</v>
-      </c>
-      <c r="C246" t="n">
-        <v>382</v>
-      </c>
-      <c r="D246" t="n">
-        <v>382</v>
-      </c>
-      <c r="E246" t="n">
-        <v>382</v>
-      </c>
-      <c r="F246" t="n">
-        <v>1989.4407</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-118003.3547</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>372</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>381</v>
-      </c>
-      <c r="C247" t="n">
-        <v>381</v>
-      </c>
-      <c r="D247" t="n">
-        <v>381</v>
-      </c>
-      <c r="E247" t="n">
-        <v>381</v>
-      </c>
-      <c r="F247" t="n">
-        <v>1273.6123</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-119276.967</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>372</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>383</v>
-      </c>
-      <c r="C248" t="n">
-        <v>383</v>
-      </c>
-      <c r="D248" t="n">
-        <v>383</v>
-      </c>
-      <c r="E248" t="n">
-        <v>383</v>
-      </c>
-      <c r="F248" t="n">
-        <v>1</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-119275.967</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>372</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>383</v>
-      </c>
-      <c r="C249" t="n">
-        <v>383</v>
-      </c>
-      <c r="D249" t="n">
-        <v>383</v>
-      </c>
-      <c r="E249" t="n">
-        <v>383</v>
-      </c>
-      <c r="F249" t="n">
-        <v>31.5248</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-119275.967</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>372</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>383</v>
-      </c>
-      <c r="C250" t="n">
-        <v>383</v>
-      </c>
-      <c r="D250" t="n">
-        <v>383</v>
-      </c>
-      <c r="E250" t="n">
-        <v>383</v>
-      </c>
-      <c r="F250" t="n">
-        <v>56.7232</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-119275.967</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>372</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>381</v>
-      </c>
-      <c r="C251" t="n">
-        <v>384</v>
-      </c>
-      <c r="D251" t="n">
-        <v>384</v>
-      </c>
-      <c r="E251" t="n">
-        <v>377</v>
-      </c>
-      <c r="F251" t="n">
-        <v>10441.5284</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-108834.4386</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>372</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>381</v>
-      </c>
-      <c r="C252" t="n">
-        <v>381</v>
-      </c>
-      <c r="D252" t="n">
-        <v>381</v>
-      </c>
-      <c r="E252" t="n">
-        <v>381</v>
-      </c>
-      <c r="F252" t="n">
-        <v>63.0689</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-108897.5075</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>372</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>381</v>
-      </c>
-      <c r="C253" t="n">
-        <v>381</v>
-      </c>
-      <c r="D253" t="n">
-        <v>381</v>
-      </c>
-      <c r="E253" t="n">
-        <v>380</v>
-      </c>
-      <c r="F253" t="n">
-        <v>2730.8019</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-108897.5075</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>372</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>381</v>
-      </c>
-      <c r="C254" t="n">
-        <v>384</v>
-      </c>
-      <c r="D254" t="n">
-        <v>384</v>
-      </c>
-      <c r="E254" t="n">
-        <v>380</v>
-      </c>
-      <c r="F254" t="n">
-        <v>5607.4142</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-103290.0933</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>372</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>382</v>
-      </c>
-      <c r="C255" t="n">
-        <v>381</v>
-      </c>
-      <c r="D255" t="n">
-        <v>382</v>
-      </c>
-      <c r="E255" t="n">
-        <v>381</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1717.1945</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-105007.2878</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>372</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>381</v>
-      </c>
-      <c r="C256" t="n">
-        <v>383</v>
-      </c>
-      <c r="D256" t="n">
-        <v>383</v>
-      </c>
-      <c r="E256" t="n">
-        <v>381</v>
-      </c>
-      <c r="F256" t="n">
-        <v>1</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-105006.2878</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>372</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>380</v>
-      </c>
-      <c r="C257" t="n">
-        <v>380</v>
-      </c>
-      <c r="D257" t="n">
-        <v>380</v>
-      </c>
-      <c r="E257" t="n">
-        <v>380</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1035.4485</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-106041.7363</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>372</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>380</v>
-      </c>
-      <c r="C258" t="n">
-        <v>380</v>
-      </c>
-      <c r="D258" t="n">
-        <v>380</v>
-      </c>
-      <c r="E258" t="n">
-        <v>380</v>
-      </c>
-      <c r="F258" t="n">
-        <v>3896.8311</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-106041.7363</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>372</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>380</v>
-      </c>
-      <c r="C259" t="n">
-        <v>380</v>
-      </c>
-      <c r="D259" t="n">
-        <v>380</v>
-      </c>
-      <c r="E259" t="n">
-        <v>380</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1592.6917</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-106041.7363</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>372</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>381</v>
-      </c>
-      <c r="C260" t="n">
-        <v>381</v>
-      </c>
-      <c r="D260" t="n">
-        <v>381</v>
-      </c>
-      <c r="E260" t="n">
-        <v>381</v>
-      </c>
-      <c r="F260" t="n">
-        <v>439.3517</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-105602.3846</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>372</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>381</v>
-      </c>
-      <c r="C261" t="n">
-        <v>381</v>
-      </c>
-      <c r="D261" t="n">
-        <v>381</v>
-      </c>
-      <c r="E261" t="n">
-        <v>381</v>
-      </c>
-      <c r="F261" t="n">
-        <v>71.9973</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-105602.3846</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>372</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>381</v>
-      </c>
-      <c r="C262" t="n">
-        <v>382</v>
-      </c>
-      <c r="D262" t="n">
-        <v>382</v>
-      </c>
-      <c r="E262" t="n">
-        <v>381</v>
-      </c>
-      <c r="F262" t="n">
-        <v>101</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-105501.3846</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>372</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9869,9 +9089,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>372</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9905,12 +9123,12 @@
         <v>-105500.3846</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>372</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>382</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9947,9 +9165,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>372</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9986,9 +9202,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>372</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10025,9 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>372</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10064,9 +9276,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>372</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10103,9 +9313,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>372</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10142,9 +9350,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>372</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10181,9 +9387,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>372</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10217,12 +9421,12 @@
         <v>-106522.3614</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>372</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>380</v>
+      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10256,12 +9460,12 @@
         <v>-105938.4222</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>372</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>383</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10298,9 +9502,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>372</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10337,9 +9539,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>372</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10376,9 +9576,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>372</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10415,9 +9613,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>372</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10454,9 +9650,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>372</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10490,12 +9684,12 @@
         <v>-107635.6213</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>372</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>381</v>
+      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10529,12 +9723,12 @@
         <v>-111006.8061</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>372</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>381</v>
+      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10571,9 +9765,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>372</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10607,14 +9799,10 @@
         <v>-111008.6762</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>378</v>
-      </c>
-      <c r="J282" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10648,14 +9836,10 @@
         <v>-110708.6762</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>378</v>
-      </c>
-      <c r="J283" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10689,14 +9873,10 @@
         <v>-110708.6762</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>379</v>
-      </c>
-      <c r="J284" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10735,9 +9915,7 @@
       <c r="I285" t="n">
         <v>379</v>
       </c>
-      <c r="J285" t="n">
-        <v>372</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10774,9 +9952,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>372</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10813,9 +9989,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>372</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10849,12 +10023,12 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>372</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>380</v>
+      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10891,9 +10065,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>372</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10932,9 +10104,7 @@
       <c r="I290" t="n">
         <v>380</v>
       </c>
-      <c r="J290" t="n">
-        <v>372</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10968,12 +10138,12 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>372</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>380</v>
+      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11007,12 +10177,12 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>372</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>380</v>
+      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11049,9 +10219,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>372</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11088,9 +10256,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>372</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11127,9 +10293,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>372</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11166,9 +10330,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>372</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11205,9 +10367,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>372</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11244,9 +10404,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>372</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11283,9 +10441,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>372</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11322,9 +10478,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>372</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11361,9 +10515,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>372</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11400,9 +10552,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>372</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11439,9 +10589,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>372</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11453,6 +10601,6 @@
       <c r="M303" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-29 BackTest STRAT.xlsx
@@ -1276,7 +1276,7 @@
         <v>-49909.85800000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-22999.10870000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-21955.10870000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-26291.72880000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-30250.85740000001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-50854.34770000002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-56088.48750000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-56002.48750000002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -5071,14 +5071,10 @@
         <v>-85156.09159999999</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>372</v>
-      </c>
-      <c r="J142" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
@@ -5111,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>372</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5150,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>372</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6308,10 +6292,14 @@
         <v>-103295.4985</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>375</v>
+      </c>
+      <c r="J179" t="n">
+        <v>375</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
@@ -6341,11 +6329,19 @@
         <v>-103262.4985</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>374</v>
+      </c>
+      <c r="J180" t="n">
+        <v>375</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6374,11 +6370,19 @@
         <v>-103312.4985</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>376</v>
+      </c>
+      <c r="J181" t="n">
+        <v>375</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6407,11 +6411,19 @@
         <v>-103708.118</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>375</v>
+      </c>
+      <c r="J182" t="n">
+        <v>375</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6440,11 +6452,19 @@
         <v>-103707.118</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>374</v>
+      </c>
+      <c r="J183" t="n">
+        <v>375</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6473,11 +6493,19 @@
         <v>-103757.118</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>375</v>
+      </c>
+      <c r="J184" t="n">
+        <v>375</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6506,11 +6534,19 @@
         <v>-102362.4511</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>374</v>
+      </c>
+      <c r="J185" t="n">
+        <v>375</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6539,11 +6575,19 @@
         <v>-102362.4511</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>375</v>
+      </c>
+      <c r="J186" t="n">
+        <v>375</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6572,11 +6616,19 @@
         <v>-102362.4511</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>375</v>
+      </c>
+      <c r="J187" t="n">
+        <v>375</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6605,11 +6657,19 @@
         <v>-102132.6841</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>375</v>
+      </c>
+      <c r="J188" t="n">
+        <v>375</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6638,11 +6698,19 @@
         <v>-102132.6841</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>376</v>
+      </c>
+      <c r="J189" t="n">
+        <v>375</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6671,11 +6739,19 @@
         <v>-102132.6841</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>376</v>
+      </c>
+      <c r="J190" t="n">
+        <v>375</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6704,11 +6780,19 @@
         <v>-101313.7236</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>376</v>
+      </c>
+      <c r="J191" t="n">
+        <v>375</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6737,11 +6821,19 @@
         <v>-101312.7236</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>377</v>
+      </c>
+      <c r="J192" t="n">
+        <v>375</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6773,8 +6865,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>375</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6806,8 +6904,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>375</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6839,8 +6943,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>375</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6872,8 +6982,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>375</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6905,8 +7021,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>375</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6938,8 +7060,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>375</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6971,8 +7099,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>375</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7004,8 +7138,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>375</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7037,8 +7177,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>375</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7070,8 +7216,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>375</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7103,8 +7255,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>375</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7136,8 +7294,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>375</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7169,8 +7333,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>375</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7202,8 +7372,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>375</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7235,8 +7411,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>375</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7268,8 +7450,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>375</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7301,8 +7489,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>375</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7334,8 +7528,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>375</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7367,8 +7567,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>375</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7400,8 +7606,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>375</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7433,8 +7645,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>375</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7463,13 +7681,19 @@
         <v>-95840.57550959998</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>375</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L214" t="n">
-        <v>1</v>
+        <v>1.048333333333333</v>
       </c>
       <c r="M214" t="inlineStr"/>
     </row>
@@ -7562,7 +7786,7 @@
         <v>-92378.05230959998</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7595,7 +7819,7 @@
         <v>-92378.05230959998</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7628,7 +7852,7 @@
         <v>-92378.05230959998</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7661,7 +7885,7 @@
         <v>-89110.63680959998</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7694,7 +7918,7 @@
         <v>-90197.28350959998</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7727,7 +7951,7 @@
         <v>-90197.28350959998</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7760,7 +7984,7 @@
         <v>-90304.43949999998</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7793,7 +8017,7 @@
         <v>-89689.86819999998</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7859,7 +8083,7 @@
         <v>-103047.9043</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7925,7 +8149,7 @@
         <v>-113934.3717</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9047,17 +9271,11 @@
         <v>-105501.3846</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9090,11 +9308,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9123,17 +9337,11 @@
         <v>-105500.3846</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9166,11 +9374,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9203,11 +9407,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9240,11 +9440,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9277,11 +9473,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9314,11 +9506,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9351,11 +9539,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9388,11 +9572,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9421,17 +9601,11 @@
         <v>-106522.3614</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9460,17 +9634,11 @@
         <v>-105938.4222</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9503,11 +9671,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9540,11 +9704,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9577,11 +9737,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9614,11 +9770,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9651,11 +9803,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9684,17 +9832,11 @@
         <v>-107635.6213</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9723,17 +9865,11 @@
         <v>-111006.8061</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9766,11 +9902,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9803,11 +9935,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9836,15 +9964,15 @@
         <v>-110708.6762</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>378</v>
+      </c>
+      <c r="J283" t="n">
+        <v>378</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9873,13 +10001,17 @@
         <v>-110708.6762</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>379</v>
+      </c>
+      <c r="J284" t="n">
+        <v>378</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L284" t="n">
@@ -9915,10 +10047,12 @@
       <c r="I285" t="n">
         <v>379</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>378</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L285" t="n">
@@ -9953,11 +10087,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9990,11 +10120,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10023,17 +10149,11 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10066,11 +10186,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10099,17 +10215,11 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10138,17 +10248,11 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10177,17 +10281,11 @@
         <v>-94682.02769999998</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10220,11 +10318,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10257,11 +10351,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10294,11 +10384,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10331,11 +10417,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10368,11 +10450,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10405,11 +10483,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10442,11 +10516,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10479,11 +10549,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +10582,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10553,11 +10615,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10590,11 +10648,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest STRAT.xlsx
+++ b/BackTest/2019-10-29 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M303"/>
+  <dimension ref="A1:L303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>4234.2261</v>
       </c>
       <c r="G2" t="n">
-        <v>-18582.1948</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>9160.8969</v>
       </c>
       <c r="G3" t="n">
-        <v>-18582.1948</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>706.5925</v>
       </c>
       <c r="G4" t="n">
-        <v>-17875.60230000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>382.3905</v>
       </c>
       <c r="G5" t="n">
-        <v>-18257.99280000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1111</v>
       </c>
       <c r="G6" t="n">
-        <v>-17146.99280000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1327.0495</v>
       </c>
       <c r="G7" t="n">
-        <v>-18474.04230000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>21592.6257</v>
       </c>
       <c r="G8" t="n">
-        <v>-40066.66800000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>673</v>
       </c>
       <c r="G9" t="n">
-        <v>-39393.66800000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>4659.6794</v>
       </c>
       <c r="G10" t="n">
-        <v>-34733.9886</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>5353.4963</v>
       </c>
       <c r="G11" t="n">
-        <v>-34733.9886</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>8642.260899999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-26091.7277</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>14863.4863</v>
       </c>
       <c r="G13" t="n">
-        <v>-40955.21400000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>343.0696</v>
       </c>
       <c r="G14" t="n">
-        <v>-40612.1444</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>9570.3791</v>
       </c>
       <c r="G15" t="n">
-        <v>-50182.5235</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>142.1689</v>
       </c>
       <c r="G16" t="n">
-        <v>-50182.5235</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>10820.1783</v>
       </c>
       <c r="G17" t="n">
-        <v>-39362.3452</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>4918.8154</v>
       </c>
       <c r="G18" t="n">
-        <v>-34443.5298</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>15212.7135</v>
       </c>
       <c r="G19" t="n">
-        <v>-34443.5298</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>3935.0812</v>
       </c>
       <c r="G20" t="n">
-        <v>-38378.611</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>3545.4876</v>
       </c>
       <c r="G21" t="n">
-        <v>-41924.0986</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>10086.125</v>
       </c>
       <c r="G22" t="n">
-        <v>-52010.2236</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1272.4073</v>
       </c>
       <c r="G23" t="n">
-        <v>-50737.81630000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2031.3441</v>
       </c>
       <c r="G24" t="n">
-        <v>-50737.81630000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>18.602</v>
       </c>
       <c r="G25" t="n">
-        <v>-50719.21430000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>959.3563</v>
       </c>
       <c r="G26" t="n">
-        <v>-49759.85800000001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>150</v>
       </c>
       <c r="G27" t="n">
-        <v>-49909.85800000001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>26910.7493</v>
       </c>
       <c r="G28" t="n">
-        <v>-22999.10870000001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1044</v>
       </c>
       <c r="G29" t="n">
-        <v>-21955.10870000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>4336.6201</v>
       </c>
       <c r="G30" t="n">
-        <v>-26291.72880000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>3959.1286</v>
       </c>
       <c r="G31" t="n">
-        <v>-30250.85740000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>405.7614</v>
       </c>
       <c r="G32" t="n">
-        <v>-29845.09600000001</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2127.6605</v>
       </c>
       <c r="G33" t="n">
-        <v>-29845.09600000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>5048.4667</v>
       </c>
       <c r="G34" t="n">
-        <v>-24796.62930000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>9199.0895</v>
       </c>
       <c r="G35" t="n">
-        <v>-33995.71880000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>8000</v>
       </c>
       <c r="G36" t="n">
-        <v>-41995.71880000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>-41994.71880000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1972.7251</v>
       </c>
       <c r="G38" t="n">
-        <v>-43967.44390000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>156.096</v>
       </c>
       <c r="G39" t="n">
-        <v>-43811.34790000002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>4356.0911</v>
       </c>
       <c r="G40" t="n">
-        <v>-43811.34790000002</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>226</v>
       </c>
       <c r="G41" t="n">
-        <v>-44037.34790000002</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>50</v>
       </c>
       <c r="G42" t="n">
-        <v>-44037.34790000002</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>50</v>
       </c>
       <c r="G43" t="n">
-        <v>-44037.34790000002</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>311</v>
       </c>
       <c r="G44" t="n">
-        <v>-43726.34790000002</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>330</v>
       </c>
       <c r="G45" t="n">
-        <v>-43726.34790000002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>97</v>
       </c>
       <c r="G46" t="n">
-        <v>-43726.34790000002</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>200</v>
       </c>
       <c r="G47" t="n">
-        <v>-43726.34790000002</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>2005</v>
       </c>
       <c r="G48" t="n">
-        <v>-43726.34790000002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>400</v>
       </c>
       <c r="G49" t="n">
-        <v>-43726.34790000002</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>4731.7092</v>
       </c>
       <c r="G50" t="n">
-        <v>-43726.34790000002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>3325</v>
       </c>
       <c r="G51" t="n">
-        <v>-43726.34790000002</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>3533.6521</v>
       </c>
       <c r="G52" t="n">
-        <v>-40192.69580000002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>2926.2968</v>
       </c>
       <c r="G53" t="n">
-        <v>-40192.69580000002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>924.8514</v>
       </c>
       <c r="G54" t="n">
-        <v>-41117.54720000002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>98.3267</v>
       </c>
       <c r="G55" t="n">
-        <v>-41019.22050000002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>402.7581</v>
       </c>
       <c r="G56" t="n">
-        <v>-40616.46240000002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>4125.0152</v>
       </c>
       <c r="G57" t="n">
-        <v>-40616.46240000002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>245.0244</v>
       </c>
       <c r="G58" t="n">
-        <v>-40371.43800000002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>874.8713</v>
       </c>
       <c r="G59" t="n">
-        <v>-40371.43800000002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1474.8622</v>
       </c>
       <c r="G60" t="n">
-        <v>-40371.43800000002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>3048.0685</v>
       </c>
       <c r="G61" t="n">
-        <v>-40371.43800000002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>5042.8853</v>
       </c>
       <c r="G62" t="n">
-        <v>-40371.43800000002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>-40370.43800000002</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-40380.43800000002</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>8029.3274</v>
       </c>
       <c r="G65" t="n">
-        <v>-48409.76540000002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1012.6599</v>
       </c>
       <c r="G66" t="n">
-        <v>-48409.76540000002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>2333.0981</v>
       </c>
       <c r="G67" t="n">
-        <v>-50742.86350000002</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>139.9506</v>
       </c>
       <c r="G68" t="n">
-        <v>-50742.86350000002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>1789.5597</v>
       </c>
       <c r="G69" t="n">
-        <v>-50742.86350000002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>48.4963</v>
       </c>
       <c r="G70" t="n">
-        <v>-50694.36720000002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>832.9969</v>
       </c>
       <c r="G71" t="n">
-        <v>-50694.36720000002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>150</v>
       </c>
       <c r="G72" t="n">
-        <v>-50694.36720000002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>159.9805</v>
       </c>
       <c r="G73" t="n">
-        <v>-50854.34770000002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>8875.7096</v>
       </c>
       <c r="G74" t="n">
-        <v>-59730.05730000002</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>192.2183</v>
       </c>
       <c r="G75" t="n">
-        <v>-59922.27560000002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1392.2361</v>
       </c>
       <c r="G76" t="n">
-        <v>-58530.03950000002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1045</v>
       </c>
       <c r="G77" t="n">
-        <v>-57485.03950000002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>88.6109</v>
       </c>
       <c r="G78" t="n">
-        <v>-57573.65040000002</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>26.1096</v>
       </c>
       <c r="G79" t="n">
-        <v>-57547.54080000002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>1445.3787</v>
       </c>
       <c r="G80" t="n">
-        <v>-58992.91950000002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>17650.5877</v>
       </c>
       <c r="G81" t="n">
-        <v>-58992.91950000002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>249.891</v>
       </c>
       <c r="G82" t="n">
-        <v>-58992.91950000002</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>994.0432</v>
       </c>
       <c r="G83" t="n">
-        <v>-59986.96270000002</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>1886.9873</v>
       </c>
       <c r="G84" t="n">
-        <v>-58099.97540000002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>50</v>
       </c>
       <c r="G85" t="n">
-        <v>-58149.97540000002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>1241.4879</v>
       </c>
       <c r="G86" t="n">
-        <v>-56908.48750000002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>820</v>
       </c>
       <c r="G87" t="n">
-        <v>-56088.48750000002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>926</v>
       </c>
       <c r="G88" t="n">
-        <v>-56088.48750000002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>154</v>
       </c>
       <c r="G89" t="n">
-        <v>-56088.48750000002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>1528</v>
       </c>
       <c r="G90" t="n">
-        <v>-56088.48750000002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>200</v>
       </c>
       <c r="G91" t="n">
-        <v>-56088.48750000002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>25.9067</v>
       </c>
       <c r="G92" t="n">
-        <v>-56088.48750000002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>1601</v>
       </c>
       <c r="G93" t="n">
-        <v>-56088.48750000002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>187</v>
       </c>
       <c r="G94" t="n">
-        <v>-56088.48750000002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>345</v>
       </c>
       <c r="G95" t="n">
-        <v>-56088.48750000002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>630</v>
       </c>
       <c r="G96" t="n">
-        <v>-56088.48750000002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>522</v>
       </c>
       <c r="G97" t="n">
-        <v>-56088.48750000002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>86</v>
       </c>
       <c r="G98" t="n">
-        <v>-56002.48750000002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>91.053</v>
       </c>
       <c r="G99" t="n">
-        <v>-56002.48750000002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>3264.1353</v>
       </c>
       <c r="G100" t="n">
-        <v>-56002.48750000002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>12.1</v>
       </c>
       <c r="G101" t="n">
-        <v>-56002.48750000002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>182.1</v>
       </c>
       <c r="G102" t="n">
-        <v>-56002.48750000002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>38.9</v>
       </c>
       <c r="G103" t="n">
-        <v>-56002.48750000002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>47.9</v>
       </c>
       <c r="G104" t="n">
-        <v>-56002.48750000002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>3908.2327</v>
       </c>
       <c r="G105" t="n">
-        <v>-59910.72020000002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>5483.7728</v>
       </c>
       <c r="G106" t="n">
-        <v>-65394.49300000002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>609.3244999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>-64785.16850000001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>6315.6376</v>
       </c>
       <c r="G108" t="n">
-        <v>-64785.16850000001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>103.4097</v>
       </c>
       <c r="G109" t="n">
-        <v>-64785.16850000001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>4712.8552</v>
       </c>
       <c r="G110" t="n">
-        <v>-69498.02370000002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>14326.6553</v>
       </c>
       <c r="G111" t="n">
-        <v>-69498.02370000002</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>31</v>
       </c>
       <c r="G112" t="n">
-        <v>-69467.02370000002</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>2283.6</v>
       </c>
       <c r="G113" t="n">
-        <v>-67183.42370000001</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>1344.9934</v>
       </c>
       <c r="G114" t="n">
-        <v>-67183.42370000001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>1611.0418</v>
       </c>
       <c r="G115" t="n">
-        <v>-65572.38190000001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>1208.0288</v>
       </c>
       <c r="G116" t="n">
-        <v>-66780.41070000001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>279</v>
       </c>
       <c r="G117" t="n">
-        <v>-66780.41070000001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>1012.9712</v>
       </c>
       <c r="G118" t="n">
-        <v>-66780.41070000001</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>4111.3228</v>
       </c>
       <c r="G119" t="n">
-        <v>-70891.7335</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>385.6123</v>
       </c>
       <c r="G120" t="n">
-        <v>-71277.3458</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>251</v>
       </c>
       <c r="G121" t="n">
-        <v>-71026.3458</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>50</v>
       </c>
       <c r="G122" t="n">
-        <v>-70976.3458</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>26.2467</v>
       </c>
       <c r="G123" t="n">
-        <v>-71002.5925</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>790.4751</v>
       </c>
       <c r="G124" t="n">
-        <v>-71002.5925</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>17175.6139</v>
       </c>
       <c r="G125" t="n">
-        <v>-88178.2064</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>2541.1399</v>
       </c>
       <c r="G126" t="n">
-        <v>-88178.2064</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>1100</v>
       </c>
       <c r="G127" t="n">
-        <v>-88178.2064</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>600</v>
       </c>
       <c r="G128" t="n">
-        <v>-88178.2064</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>1383.6738</v>
       </c>
       <c r="G129" t="n">
-        <v>-88178.2064</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>578</v>
       </c>
       <c r="G130" t="n">
-        <v>-88178.2064</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>830</v>
       </c>
       <c r="G131" t="n">
-        <v>-88178.2064</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>506.33</v>
       </c>
       <c r="G132" t="n">
-        <v>-88684.5364</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1768.3548</v>
       </c>
       <c r="G133" t="n">
-        <v>-86916.1816</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>915.9815</v>
       </c>
       <c r="G134" t="n">
-        <v>-86916.1816</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>141.293</v>
       </c>
       <c r="G135" t="n">
-        <v>-86916.1816</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,19 @@
         <v>141.293</v>
       </c>
       <c r="G136" t="n">
-        <v>-86916.1816</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I136" t="n">
+        <v>372</v>
+      </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4497,23 @@
         <v>1185.9371</v>
       </c>
       <c r="G137" t="n">
-        <v>-88102.11869999999</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I137" t="n">
+        <v>372</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4535,23 @@
         <v>2946.0271</v>
       </c>
       <c r="G138" t="n">
-        <v>-85156.09159999999</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>371</v>
+      </c>
+      <c r="I138" t="n">
+        <v>372</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4573,23 @@
         <v>2152.5099</v>
       </c>
       <c r="G139" t="n">
-        <v>-85156.09159999999</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I139" t="n">
+        <v>372</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4611,23 @@
         <v>93.56999999999999</v>
       </c>
       <c r="G140" t="n">
-        <v>-85156.09159999999</v>
+        <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I140" t="n">
+        <v>372</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4649,21 @@
         <v>303</v>
       </c>
       <c r="G141" t="n">
-        <v>-85156.09159999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>372</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4685,23 @@
         <v>871.4166</v>
       </c>
       <c r="G142" t="n">
-        <v>-85156.09159999999</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I142" t="n">
+        <v>372</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4723,23 @@
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>-85155.09159999999</v>
+        <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="I143" t="n">
+        <v>372</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4761,21 @@
         <v>166.72</v>
       </c>
       <c r="G144" t="n">
-        <v>-85155.09159999999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>372</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4797,21 @@
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>-85154.09159999999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>372</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4833,21 @@
         <v>305.7705</v>
       </c>
       <c r="G146" t="n">
-        <v>-85459.86209999998</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>372</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4869,21 @@
         <v>292.6999</v>
       </c>
       <c r="G147" t="n">
-        <v>-85459.86209999998</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>372</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4905,21 @@
         <v>585.4003</v>
       </c>
       <c r="G148" t="n">
-        <v>-85459.86209999998</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>372</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4941,21 @@
         <v>274.8634</v>
       </c>
       <c r="G149" t="n">
-        <v>-85459.86209999998</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>372</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4977,21 @@
         <v>292.6998</v>
       </c>
       <c r="G150" t="n">
-        <v>-85459.86209999998</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>372</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5013,21 @@
         <v>625.9405</v>
       </c>
       <c r="G151" t="n">
-        <v>-85459.86209999998</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>372</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5049,21 @@
         <v>26.6666</v>
       </c>
       <c r="G152" t="n">
-        <v>-85433.19549999999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>372</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5085,21 @@
         <v>153.2</v>
       </c>
       <c r="G153" t="n">
-        <v>-85586.39549999998</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>372</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5121,21 @@
         <v>1615.9266</v>
       </c>
       <c r="G154" t="n">
-        <v>-85586.39549999998</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>372</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5157,21 @@
         <v>2699</v>
       </c>
       <c r="G155" t="n">
-        <v>-82887.39549999998</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>372</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5193,21 @@
         <v>4970.9301</v>
       </c>
       <c r="G156" t="n">
-        <v>-87858.32559999998</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>372</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5229,21 @@
         <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>-87857.32559999998</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>372</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5265,21 @@
         <v>2020</v>
       </c>
       <c r="G158" t="n">
-        <v>-89877.32559999998</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>372</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5301,21 @@
         <v>3206.5361</v>
       </c>
       <c r="G159" t="n">
-        <v>-93083.86169999998</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>372</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5337,21 @@
         <v>1070.9266</v>
       </c>
       <c r="G160" t="n">
-        <v>-92012.93509999997</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>372</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5373,21 @@
         <v>2823.361</v>
       </c>
       <c r="G161" t="n">
-        <v>-94836.29609999998</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>372</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5409,21 @@
         <v>26.6666</v>
       </c>
       <c r="G162" t="n">
-        <v>-94836.29609999998</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>372</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5445,21 @@
         <v>3905.097</v>
       </c>
       <c r="G163" t="n">
-        <v>-98741.39309999997</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>372</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5481,21 @@
         <v>144</v>
       </c>
       <c r="G164" t="n">
-        <v>-98597.39309999997</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>372</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5517,21 @@
         <v>2009</v>
       </c>
       <c r="G165" t="n">
-        <v>-96588.39309999997</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>372</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5553,21 @@
         <v>185.7204</v>
       </c>
       <c r="G166" t="n">
-        <v>-96774.11349999998</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>372</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5589,21 @@
         <v>66</v>
       </c>
       <c r="G167" t="n">
-        <v>-96708.11349999998</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>372</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5625,21 @@
         <v>50.1789</v>
       </c>
       <c r="G168" t="n">
-        <v>-96708.11349999998</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>372</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5661,21 @@
         <v>26.3157</v>
       </c>
       <c r="G169" t="n">
-        <v>-96708.11349999998</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>372</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5697,21 @@
         <v>171</v>
       </c>
       <c r="G170" t="n">
-        <v>-96879.11349999998</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>372</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5733,21 @@
         <v>13</v>
       </c>
       <c r="G171" t="n">
-        <v>-96866.11349999998</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>372</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5769,21 @@
         <v>1859.7856</v>
       </c>
       <c r="G172" t="n">
-        <v>-96866.11349999998</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>372</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5805,21 @@
         <v>118.9483</v>
       </c>
       <c r="G173" t="n">
-        <v>-96985.06179999998</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>372</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5841,21 @@
         <v>4100</v>
       </c>
       <c r="G174" t="n">
-        <v>-101085.0618</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>372</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5877,21 @@
         <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>-101084.0618</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>372</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5913,21 @@
         <v>1186</v>
       </c>
       <c r="G176" t="n">
-        <v>-102270.0618</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>372</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5949,21 @@
         <v>2218.3651</v>
       </c>
       <c r="G177" t="n">
-        <v>-102270.0618</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>372</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5985,21 @@
         <v>22</v>
       </c>
       <c r="G178" t="n">
-        <v>-102248.0618</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>372</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,22 +6021,21 @@
         <v>1047.4367</v>
       </c>
       <c r="G179" t="n">
-        <v>-103295.4985</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>375</v>
-      </c>
-      <c r="J179" t="n">
-        <v>375</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>372</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6326,26 +6057,21 @@
         <v>33</v>
       </c>
       <c r="G180" t="n">
-        <v>-103262.4985</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>374</v>
-      </c>
-      <c r="J180" t="n">
-        <v>375</v>
-      </c>
-      <c r="K180" t="inlineStr">
+        <v>372</v>
+      </c>
+      <c r="J180" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6367,26 +6093,21 @@
         <v>50</v>
       </c>
       <c r="G181" t="n">
-        <v>-103312.4985</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>376</v>
-      </c>
-      <c r="J181" t="n">
-        <v>375</v>
-      </c>
-      <c r="K181" t="inlineStr">
+        <v>372</v>
+      </c>
+      <c r="J181" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6408,26 +6129,21 @@
         <v>395.6195</v>
       </c>
       <c r="G182" t="n">
-        <v>-103708.118</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>375</v>
-      </c>
-      <c r="J182" t="n">
-        <v>375</v>
-      </c>
-      <c r="K182" t="inlineStr">
+        <v>372</v>
+      </c>
+      <c r="J182" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6449,26 +6165,21 @@
         <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>-103707.118</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>374</v>
-      </c>
-      <c r="J183" t="n">
-        <v>375</v>
-      </c>
-      <c r="K183" t="inlineStr">
+        <v>372</v>
+      </c>
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6490,26 +6201,21 @@
         <v>50</v>
       </c>
       <c r="G184" t="n">
-        <v>-103757.118</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
-        <v>375</v>
-      </c>
-      <c r="J184" t="n">
-        <v>375</v>
-      </c>
-      <c r="K184" t="inlineStr">
+        <v>372</v>
+      </c>
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6531,26 +6237,21 @@
         <v>1394.6669</v>
       </c>
       <c r="G185" t="n">
-        <v>-102362.4511</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>374</v>
-      </c>
-      <c r="J185" t="n">
-        <v>375</v>
-      </c>
-      <c r="K185" t="inlineStr">
+        <v>372</v>
+      </c>
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6572,26 +6273,21 @@
         <v>82.56</v>
       </c>
       <c r="G186" t="n">
-        <v>-102362.4511</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>375</v>
-      </c>
-      <c r="J186" t="n">
-        <v>375</v>
-      </c>
-      <c r="K186" t="inlineStr">
+        <v>372</v>
+      </c>
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6613,26 +6309,21 @@
         <v>3561.6985</v>
       </c>
       <c r="G187" t="n">
-        <v>-102362.4511</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>375</v>
-      </c>
-      <c r="J187" t="n">
-        <v>375</v>
-      </c>
-      <c r="K187" t="inlineStr">
+        <v>372</v>
+      </c>
+      <c r="J187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6654,26 +6345,21 @@
         <v>229.767</v>
       </c>
       <c r="G188" t="n">
-        <v>-102132.6841</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
-        <v>375</v>
-      </c>
-      <c r="J188" t="n">
-        <v>375</v>
-      </c>
-      <c r="K188" t="inlineStr">
+        <v>372</v>
+      </c>
+      <c r="J188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6695,26 +6381,21 @@
         <v>754</v>
       </c>
       <c r="G189" t="n">
-        <v>-102132.6841</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="n">
-        <v>376</v>
-      </c>
-      <c r="J189" t="n">
-        <v>375</v>
-      </c>
-      <c r="K189" t="inlineStr">
+        <v>372</v>
+      </c>
+      <c r="J189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6736,26 +6417,21 @@
         <v>4917.3019</v>
       </c>
       <c r="G190" t="n">
-        <v>-102132.6841</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
-        <v>376</v>
-      </c>
-      <c r="J190" t="n">
-        <v>375</v>
-      </c>
-      <c r="K190" t="inlineStr">
+        <v>372</v>
+      </c>
+      <c r="J190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6777,26 +6453,21 @@
         <v>818.9605</v>
       </c>
       <c r="G191" t="n">
-        <v>-101313.7236</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
-        <v>376</v>
-      </c>
-      <c r="J191" t="n">
-        <v>375</v>
-      </c>
-      <c r="K191" t="inlineStr">
+        <v>372</v>
+      </c>
+      <c r="J191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6818,26 +6489,21 @@
         <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>-101312.7236</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="n">
-        <v>377</v>
-      </c>
-      <c r="J192" t="n">
-        <v>375</v>
-      </c>
-      <c r="K192" t="inlineStr">
+        <v>372</v>
+      </c>
+      <c r="J192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6859,24 +6525,21 @@
         <v>719</v>
       </c>
       <c r="G193" t="n">
-        <v>-101312.7236</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>375</v>
-      </c>
-      <c r="K193" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>372</v>
+      </c>
+      <c r="J193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6898,24 +6561,21 @@
         <v>80.8009</v>
       </c>
       <c r="G194" t="n">
-        <v>-101312.7236</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>375</v>
-      </c>
-      <c r="K194" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>372</v>
+      </c>
+      <c r="J194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6937,24 +6597,21 @@
         <v>363</v>
       </c>
       <c r="G195" t="n">
-        <v>-100949.7236</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>375</v>
-      </c>
-      <c r="K195" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>372</v>
+      </c>
+      <c r="J195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6976,24 +6633,21 @@
         <v>1005.9019</v>
       </c>
       <c r="G196" t="n">
-        <v>-99943.82169999999</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>375</v>
-      </c>
-      <c r="K196" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>372</v>
+      </c>
+      <c r="J196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7015,24 +6669,21 @@
         <v>1180.3871</v>
       </c>
       <c r="G197" t="n">
-        <v>-98763.43459999998</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>375</v>
-      </c>
-      <c r="K197" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>372</v>
+      </c>
+      <c r="J197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7054,24 +6705,21 @@
         <v>82</v>
       </c>
       <c r="G198" t="n">
-        <v>-98681.43459999998</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>375</v>
-      </c>
-      <c r="K198" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>372</v>
+      </c>
+      <c r="J198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7093,24 +6741,21 @@
         <v>3</v>
       </c>
       <c r="G199" t="n">
-        <v>-98684.43459999998</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>375</v>
-      </c>
-      <c r="K199" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>372</v>
+      </c>
+      <c r="J199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7132,24 +6777,21 @@
         <v>940</v>
       </c>
       <c r="G200" t="n">
-        <v>-98684.43459999998</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>375</v>
-      </c>
-      <c r="K200" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>372</v>
+      </c>
+      <c r="J200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7171,24 +6813,21 @@
         <v>374.3572</v>
       </c>
       <c r="G201" t="n">
-        <v>-99058.79179999998</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>375</v>
-      </c>
-      <c r="K201" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>372</v>
+      </c>
+      <c r="J201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7210,24 +6849,21 @@
         <v>1216.8465</v>
       </c>
       <c r="G202" t="n">
-        <v>-100275.6383</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>375</v>
-      </c>
-      <c r="K202" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>372</v>
+      </c>
+      <c r="J202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7249,24 +6885,21 @@
         <v>1764.8431</v>
       </c>
       <c r="G203" t="n">
-        <v>-98510.79519999998</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>375</v>
-      </c>
-      <c r="K203" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>372</v>
+      </c>
+      <c r="J203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7288,24 +6921,21 @@
         <v>784.6875</v>
       </c>
       <c r="G204" t="n">
-        <v>-97726.10769999998</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>375</v>
-      </c>
-      <c r="K204" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>372</v>
+      </c>
+      <c r="J204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7327,24 +6957,21 @@
         <v>8</v>
       </c>
       <c r="G205" t="n">
-        <v>-97726.10769999998</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>375</v>
-      </c>
-      <c r="K205" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>372</v>
+      </c>
+      <c r="J205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7366,24 +6993,21 @@
         <v>91</v>
       </c>
       <c r="G206" t="n">
-        <v>-97635.10769999998</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>375</v>
-      </c>
-      <c r="K206" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>372</v>
+      </c>
+      <c r="J206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7405,24 +7029,21 @@
         <v>116.2384</v>
       </c>
       <c r="G207" t="n">
-        <v>-97635.10769999998</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>375</v>
-      </c>
-      <c r="K207" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>372</v>
+      </c>
+      <c r="J207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7444,24 +7065,21 @@
         <v>4185.0727</v>
       </c>
       <c r="G208" t="n">
-        <v>-93450.03499999997</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>375</v>
-      </c>
-      <c r="K208" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>372</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7483,24 +7101,21 @@
         <v>7367.4275</v>
       </c>
       <c r="G209" t="n">
-        <v>-93450.03499999997</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>375</v>
-      </c>
-      <c r="K209" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>372</v>
+      </c>
+      <c r="J209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7522,24 +7137,21 @@
         <v>2259.9099</v>
       </c>
       <c r="G210" t="n">
-        <v>-95709.94489999997</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>375</v>
-      </c>
-      <c r="K210" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>372</v>
+      </c>
+      <c r="J210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7561,24 +7173,21 @@
         <v>2108.1269</v>
       </c>
       <c r="G211" t="n">
-        <v>-97818.07179999998</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>375</v>
-      </c>
-      <c r="K211" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>372</v>
+      </c>
+      <c r="J211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7600,24 +7209,21 @@
         <v>570.8462</v>
       </c>
       <c r="G212" t="n">
-        <v>-97247.22559999998</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>375</v>
-      </c>
-      <c r="K212" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>372</v>
+      </c>
+      <c r="J212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7639,24 +7245,21 @@
         <v>1558.6500904</v>
       </c>
       <c r="G213" t="n">
-        <v>-95688.57550959998</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>375</v>
-      </c>
-      <c r="K213" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>372</v>
+      </c>
+      <c r="J213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7678,156 +7281,167 @@
         <v>152</v>
       </c>
       <c r="G214" t="n">
-        <v>-95840.57550959998</v>
-      </c>
-      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>372</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>390</v>
+      </c>
+      <c r="C215" t="n">
+        <v>386</v>
+      </c>
+      <c r="D215" t="n">
+        <v>396</v>
+      </c>
+      <c r="E215" t="n">
+        <v>386</v>
+      </c>
+      <c r="F215" t="n">
+        <v>610</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>372</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>395</v>
+      </c>
+      <c r="C216" t="n">
+        <v>395</v>
+      </c>
+      <c r="D216" t="n">
+        <v>396</v>
+      </c>
+      <c r="E216" t="n">
+        <v>388</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3501.5232</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>372</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>395</v>
+      </c>
+      <c r="C217" t="n">
+        <v>397</v>
+      </c>
+      <c r="D217" t="n">
+        <v>397</v>
+      </c>
+      <c r="E217" t="n">
+        <v>390</v>
+      </c>
+      <c r="F217" t="n">
+        <v>571</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>372</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>390</v>
+      </c>
+      <c r="C218" t="n">
+        <v>397</v>
+      </c>
+      <c r="D218" t="n">
+        <v>397</v>
+      </c>
+      <c r="E218" t="n">
+        <v>390</v>
+      </c>
+      <c r="F218" t="n">
+        <v>5966.9255</v>
+      </c>
+      <c r="G218" t="n">
         <v>2</v>
       </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>375</v>
-      </c>
-      <c r="K214" t="inlineStr">
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>372</v>
+      </c>
+      <c r="J218" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1.048333333333333</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>390</v>
-      </c>
-      <c r="C215" t="n">
-        <v>386</v>
-      </c>
-      <c r="D215" t="n">
-        <v>396</v>
-      </c>
-      <c r="E215" t="n">
-        <v>386</v>
-      </c>
-      <c r="F215" t="n">
-        <v>610</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-96450.57550959998</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>395</v>
-      </c>
-      <c r="C216" t="n">
-        <v>395</v>
-      </c>
-      <c r="D216" t="n">
-        <v>396</v>
-      </c>
-      <c r="E216" t="n">
-        <v>388</v>
-      </c>
-      <c r="F216" t="n">
-        <v>3501.5232</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-92949.05230959998</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>395</v>
-      </c>
-      <c r="C217" t="n">
-        <v>397</v>
-      </c>
-      <c r="D217" t="n">
-        <v>397</v>
-      </c>
-      <c r="E217" t="n">
-        <v>390</v>
-      </c>
-      <c r="F217" t="n">
-        <v>571</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-92378.05230959998</v>
-      </c>
-      <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>390</v>
-      </c>
-      <c r="C218" t="n">
-        <v>397</v>
-      </c>
-      <c r="D218" t="n">
-        <v>397</v>
-      </c>
-      <c r="E218" t="n">
-        <v>390</v>
-      </c>
-      <c r="F218" t="n">
-        <v>5966.9255</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-92378.05230959998</v>
-      </c>
-      <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1.062204301075269</v>
+      </c>
       <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>1.075471698113208</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7849,18 +7463,15 @@
         <v>3602.9435096</v>
       </c>
       <c r="G219" t="n">
-        <v>-92378.05230959998</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7882,18 +7493,15 @@
         <v>3267.4155</v>
       </c>
       <c r="G220" t="n">
-        <v>-89110.63680959998</v>
-      </c>
-      <c r="H220" t="n">
         <v>2</v>
       </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7915,18 +7523,15 @@
         <v>1086.6467</v>
       </c>
       <c r="G221" t="n">
-        <v>-90197.28350959998</v>
-      </c>
-      <c r="H221" t="n">
         <v>2</v>
       </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7948,18 +7553,15 @@
         <v>6062.83</v>
       </c>
       <c r="G222" t="n">
-        <v>-90197.28350959998</v>
-      </c>
-      <c r="H222" t="n">
         <v>2</v>
       </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7981,18 +7583,15 @@
         <v>107.1559904</v>
       </c>
       <c r="G223" t="n">
-        <v>-90304.43949999998</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8014,18 +7613,15 @@
         <v>614.5713</v>
       </c>
       <c r="G224" t="n">
-        <v>-89689.86819999998</v>
-      </c>
-      <c r="H224" t="n">
         <v>2</v>
       </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8047,18 +7643,15 @@
         <v>14867.7867</v>
       </c>
       <c r="G225" t="n">
-        <v>-104557.6549</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8080,18 +7673,15 @@
         <v>1509.7506</v>
       </c>
       <c r="G226" t="n">
-        <v>-103047.9043</v>
-      </c>
-      <c r="H226" t="n">
         <v>2</v>
       </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8113,18 +7703,15 @@
         <v>46</v>
       </c>
       <c r="G227" t="n">
-        <v>-103047.9043</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8146,18 +7733,15 @@
         <v>10886.4674</v>
       </c>
       <c r="G228" t="n">
-        <v>-113934.3717</v>
-      </c>
-      <c r="H228" t="n">
         <v>2</v>
       </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8179,18 +7763,15 @@
         <v>503.4153</v>
       </c>
       <c r="G229" t="n">
-        <v>-113430.9564</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8212,18 +7793,15 @@
         <v>99.9999</v>
       </c>
       <c r="G230" t="n">
-        <v>-113530.9563</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8245,18 +7823,15 @@
         <v>3936.0167</v>
       </c>
       <c r="G231" t="n">
-        <v>-113530.9563</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8278,18 +7853,15 @@
         <v>3417.8888</v>
       </c>
       <c r="G232" t="n">
-        <v>-113530.9563</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8311,18 +7883,15 @@
         <v>1975.9347</v>
       </c>
       <c r="G233" t="n">
-        <v>-115506.891</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8344,18 +7913,15 @@
         <v>275.5614</v>
       </c>
       <c r="G234" t="n">
-        <v>-115506.891</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8377,18 +7943,15 @@
         <v>53.1305</v>
       </c>
       <c r="G235" t="n">
-        <v>-115506.891</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8410,18 +7973,15 @@
         <v>2224.09</v>
       </c>
       <c r="G236" t="n">
-        <v>-117730.981</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8443,18 +8003,15 @@
         <v>2778.4218</v>
       </c>
       <c r="G237" t="n">
-        <v>-117730.981</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8476,18 +8033,15 @@
         <v>150</v>
       </c>
       <c r="G238" t="n">
-        <v>-117580.981</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8509,18 +8063,15 @@
         <v>1</v>
       </c>
       <c r="G239" t="n">
-        <v>-117579.981</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8542,18 +8093,15 @@
         <v>312.2438</v>
       </c>
       <c r="G240" t="n">
-        <v>-117892.2248</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8575,18 +8123,15 @@
         <v>292.8699</v>
       </c>
       <c r="G241" t="n">
-        <v>-117892.2248</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8608,18 +8153,15 @@
         <v>1.8701</v>
       </c>
       <c r="G242" t="n">
-        <v>-117890.3547</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8641,18 +8183,15 @@
         <v>2830.2863</v>
       </c>
       <c r="G243" t="n">
-        <v>-117890.3547</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8674,18 +8213,15 @@
         <v>113</v>
       </c>
       <c r="G244" t="n">
-        <v>-118003.3547</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8707,18 +8243,15 @@
         <v>1910.6159</v>
       </c>
       <c r="G245" t="n">
-        <v>-118003.3547</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8740,18 +8273,15 @@
         <v>1989.4407</v>
       </c>
       <c r="G246" t="n">
-        <v>-118003.3547</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8773,18 +8303,15 @@
         <v>1273.6123</v>
       </c>
       <c r="G247" t="n">
-        <v>-119276.967</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8806,18 +8333,15 @@
         <v>1</v>
       </c>
       <c r="G248" t="n">
-        <v>-119275.967</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8839,18 +8363,15 @@
         <v>31.5248</v>
       </c>
       <c r="G249" t="n">
-        <v>-119275.967</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8872,18 +8393,15 @@
         <v>56.7232</v>
       </c>
       <c r="G250" t="n">
-        <v>-119275.967</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8905,18 +8423,15 @@
         <v>10441.5284</v>
       </c>
       <c r="G251" t="n">
-        <v>-108834.4386</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8938,18 +8453,15 @@
         <v>63.0689</v>
       </c>
       <c r="G252" t="n">
-        <v>-108897.5075</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8971,18 +8483,15 @@
         <v>2730.8019</v>
       </c>
       <c r="G253" t="n">
-        <v>-108897.5075</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9004,18 +8513,15 @@
         <v>5607.4142</v>
       </c>
       <c r="G254" t="n">
-        <v>-103290.0933</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9037,18 +8543,15 @@
         <v>1717.1945</v>
       </c>
       <c r="G255" t="n">
-        <v>-105007.2878</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9070,18 +8573,15 @@
         <v>1</v>
       </c>
       <c r="G256" t="n">
-        <v>-105006.2878</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9103,18 +8603,15 @@
         <v>1035.4485</v>
       </c>
       <c r="G257" t="n">
-        <v>-106041.7363</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9136,18 +8633,15 @@
         <v>3896.8311</v>
       </c>
       <c r="G258" t="n">
-        <v>-106041.7363</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9169,18 +8663,15 @@
         <v>1592.6917</v>
       </c>
       <c r="G259" t="n">
-        <v>-106041.7363</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9202,18 +8693,15 @@
         <v>439.3517</v>
       </c>
       <c r="G260" t="n">
-        <v>-105602.3846</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9235,18 +8723,15 @@
         <v>71.9973</v>
       </c>
       <c r="G261" t="n">
-        <v>-105602.3846</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9268,18 +8753,15 @@
         <v>101</v>
       </c>
       <c r="G262" t="n">
-        <v>-105501.3846</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9301,18 +8783,15 @@
         <v>99</v>
       </c>
       <c r="G263" t="n">
-        <v>-105501.3846</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9334,18 +8813,15 @@
         <v>1</v>
       </c>
       <c r="G264" t="n">
-        <v>-105500.3846</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9367,18 +8843,15 @@
         <v>1179.3245</v>
       </c>
       <c r="G265" t="n">
-        <v>-105500.3846</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9400,18 +8873,15 @@
         <v>209</v>
       </c>
       <c r="G266" t="n">
-        <v>-105500.3846</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9433,18 +8903,15 @@
         <v>254.5661</v>
       </c>
       <c r="G267" t="n">
-        <v>-105500.3846</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9466,18 +8933,15 @@
         <v>486.2007</v>
       </c>
       <c r="G268" t="n">
-        <v>-105500.3846</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9499,18 +8963,15 @@
         <v>1</v>
       </c>
       <c r="G269" t="n">
-        <v>-105499.3846</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9532,18 +8993,15 @@
         <v>155.5937</v>
       </c>
       <c r="G270" t="n">
-        <v>-105499.3846</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9565,18 +9023,15 @@
         <v>1023.9768</v>
       </c>
       <c r="G271" t="n">
-        <v>-106523.3614</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9598,18 +9053,15 @@
         <v>1</v>
       </c>
       <c r="G272" t="n">
-        <v>-106522.3614</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9631,18 +9083,15 @@
         <v>583.9392</v>
       </c>
       <c r="G273" t="n">
-        <v>-105938.4222</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9664,18 +9113,15 @@
         <v>530.5144</v>
       </c>
       <c r="G274" t="n">
-        <v>-106468.9366</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9697,18 +9143,15 @@
         <v>419.1718</v>
       </c>
       <c r="G275" t="n">
-        <v>-106888.1084</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9730,18 +9173,15 @@
         <v>144.0144</v>
       </c>
       <c r="G276" t="n">
-        <v>-106888.1084</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9763,18 +9203,15 @@
         <v>116.3963</v>
       </c>
       <c r="G277" t="n">
-        <v>-106771.7121</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9796,18 +9233,15 @@
         <v>863.9092000000001</v>
       </c>
       <c r="G278" t="n">
-        <v>-107635.6213</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9829,18 +9263,15 @@
         <v>427</v>
       </c>
       <c r="G279" t="n">
-        <v>-107635.6213</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9862,18 +9293,15 @@
         <v>3371.1848</v>
       </c>
       <c r="G280" t="n">
-        <v>-111006.8061</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9895,18 +9323,15 @@
         <v>1.8701</v>
       </c>
       <c r="G281" t="n">
-        <v>-111008.6762</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9928,18 +9353,15 @@
         <v>767.9826</v>
       </c>
       <c r="G282" t="n">
-        <v>-111008.6762</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9961,22 +9383,15 @@
         <v>300</v>
       </c>
       <c r="G283" t="n">
-        <v>-110708.6762</v>
-      </c>
-      <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>378</v>
-      </c>
-      <c r="J283" t="n">
-        <v>378</v>
-      </c>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9998,26 +9413,15 @@
         <v>179.5479</v>
       </c>
       <c r="G284" t="n">
-        <v>-110708.6762</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>379</v>
-      </c>
-      <c r="J284" t="n">
-        <v>378</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10039,26 +9443,15 @@
         <v>16026.6485</v>
       </c>
       <c r="G285" t="n">
-        <v>-94682.02769999998</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>379</v>
-      </c>
-      <c r="J285" t="n">
-        <v>378</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10080,18 +9473,15 @@
         <v>126</v>
       </c>
       <c r="G286" t="n">
-        <v>-94682.02769999998</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10113,18 +9503,15 @@
         <v>183.542</v>
       </c>
       <c r="G287" t="n">
-        <v>-94682.02769999998</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10146,18 +9533,15 @@
         <v>6915.2101</v>
       </c>
       <c r="G288" t="n">
-        <v>-94682.02769999998</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10179,18 +9563,15 @@
         <v>494.8391</v>
       </c>
       <c r="G289" t="n">
-        <v>-94682.02769999998</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10212,18 +9593,15 @@
         <v>317.385</v>
       </c>
       <c r="G290" t="n">
-        <v>-94682.02769999998</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10245,18 +9623,15 @@
         <v>67.72499999999999</v>
       </c>
       <c r="G291" t="n">
-        <v>-94682.02769999998</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10278,18 +9653,15 @@
         <v>67.7236</v>
       </c>
       <c r="G292" t="n">
-        <v>-94682.02769999998</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10311,18 +9683,15 @@
         <v>6856.1435</v>
       </c>
       <c r="G293" t="n">
-        <v>-87825.88419999997</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10344,18 +9713,15 @@
         <v>519.0559</v>
       </c>
       <c r="G294" t="n">
-        <v>-87306.82829999996</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10377,18 +9743,15 @@
         <v>97</v>
       </c>
       <c r="G295" t="n">
-        <v>-87403.82829999996</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10410,18 +9773,15 @@
         <v>25.7069</v>
       </c>
       <c r="G296" t="n">
-        <v>-87378.12139999996</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10443,18 +9803,15 @@
         <v>9936.034799999999</v>
       </c>
       <c r="G297" t="n">
-        <v>-87378.12139999996</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10476,18 +9833,15 @@
         <v>50</v>
       </c>
       <c r="G298" t="n">
-        <v>-87378.12139999996</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10509,18 +9863,15 @@
         <v>13.9652</v>
       </c>
       <c r="G299" t="n">
-        <v>-87378.12139999996</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10542,18 +9893,15 @@
         <v>255.102</v>
       </c>
       <c r="G300" t="n">
-        <v>-87123.01939999996</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10575,18 +9923,15 @@
         <v>928.1141</v>
       </c>
       <c r="G301" t="n">
-        <v>-87123.01939999996</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10608,18 +9953,15 @@
         <v>112.6787</v>
       </c>
       <c r="G302" t="n">
-        <v>-87123.01939999996</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10641,18 +9983,15 @@
         <v>64.9847</v>
       </c>
       <c r="G303" t="n">
-        <v>-87188.00409999996</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
